--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ShipWorks\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="462">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -1451,16 +1451,13 @@
   </si>
   <si>
     <t>Re-icing</t>
-  </si>
-  <si>
-    <t>HAZARDOUS_MATERIALS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1535,8 +1532,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1573,8 +1577,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1828,13 +1837,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2001,8 +2026,16 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="2"/>
     <cellStyle name="Normal 3 10" xfId="1"/>
@@ -2320,10 +2353,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DB83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CH1" sqref="CH1"/>
-      <selection pane="bottomLeft" activeCell="CN101" sqref="CN101"/>
+      <selection pane="bottomLeft" activeCell="CL23" sqref="CL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7590,9 +7623,7 @@
       <c r="CK23" s="24">
         <v>1</v>
       </c>
-      <c r="CL23" s="24" t="s">
-        <v>462</v>
-      </c>
+      <c r="CL23" s="24"/>
       <c r="CM23" s="24" t="s">
         <v>233</v>
       </c>
@@ -12674,9 +12705,7 @@
       <c r="CK46" s="20">
         <v>0</v>
       </c>
-      <c r="CL46" s="24" t="s">
-        <v>462</v>
-      </c>
+      <c r="CL46" s="24"/>
       <c r="CM46" s="24" t="s">
         <v>233</v>
       </c>
@@ -16672,237 +16701,235 @@
       <c r="DA65" s="31"/>
       <c r="DB65" s="35"/>
     </row>
-    <row r="66" spans="1:106" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:106" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="b">
         <v>1</v>
       </c>
       <c r="B66" s="62"/>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="64">
         <v>323352</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31" t="s">
+      <c r="G66" s="64"/>
+      <c r="H66" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I66" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="36" t="s">
+      <c r="K66" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="L66" s="31">
+      <c r="L66" s="64">
         <v>10</v>
       </c>
-      <c r="M66" s="38" t="s">
+      <c r="M66" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="N66" s="38" t="s">
+      <c r="N66" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="O66" s="36" t="s">
+      <c r="O66" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="P66" s="36" t="s">
+      <c r="P66" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="Q66" s="31" t="s">
+      <c r="Q66" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="R66" s="31" t="s">
+      <c r="R66" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="S66" s="31" t="s">
+      <c r="S66" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="T66" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="U66" s="31"/>
-      <c r="V66" s="36" t="s">
+      <c r="T66" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="W66" s="50" t="s">
+      <c r="W66" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="X66" s="31" t="s">
+      <c r="X66" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="Y66" s="33" t="s">
+      <c r="Y66" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="Z66" s="37" t="s">
+      <c r="Z66" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="AA66" s="31" t="s">
+      <c r="AA66" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="AB66" s="31">
+      <c r="AB66" s="64">
         <v>80002</v>
       </c>
-      <c r="AC66" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD66" s="31" t="b">
+      <c r="AC66" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD66" s="64" t="b">
         <v>0</v>
       </c>
-      <c r="AE66" s="31" t="s">
+      <c r="AE66" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="AF66" s="31" t="s">
+      <c r="AF66" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AG66" s="36" t="s">
+      <c r="AG66" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AH66" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI66" s="31"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="31"/>
-      <c r="AL66" s="31"/>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
-      <c r="AP66" s="36"/>
-      <c r="AQ66" s="36"/>
-      <c r="AR66" s="36"/>
-      <c r="AS66" s="36"/>
-      <c r="AT66" s="36"/>
-      <c r="AU66" s="36"/>
-      <c r="AV66" s="36"/>
-      <c r="AW66" s="36"/>
-      <c r="AX66" s="36"/>
-      <c r="AY66" s="36"/>
-      <c r="AZ66" s="36"/>
-      <c r="BA66" s="36"/>
-      <c r="BB66" s="36"/>
-      <c r="BC66" s="36"/>
-      <c r="BD66" s="36"/>
-      <c r="BE66" s="36"/>
-      <c r="BF66" s="36"/>
-      <c r="BG66" s="36"/>
-      <c r="BH66" s="36"/>
-      <c r="BI66" s="36"/>
-      <c r="BJ66" s="36"/>
-      <c r="BK66" s="38"/>
-      <c r="BL66" s="38"/>
-      <c r="BM66" s="38"/>
-      <c r="BN66" s="38"/>
-      <c r="BO66" s="38"/>
-      <c r="BP66" s="38"/>
-      <c r="BQ66" s="36" t="s">
+      <c r="AH66" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI66" s="64"/>
+      <c r="AJ66" s="64"/>
+      <c r="AK66" s="64"/>
+      <c r="AL66" s="64"/>
+      <c r="AM66" s="64"/>
+      <c r="AN66" s="64"/>
+      <c r="AO66" s="64"/>
+      <c r="AP66" s="64"/>
+      <c r="AQ66" s="64"/>
+      <c r="AR66" s="64"/>
+      <c r="AS66" s="64"/>
+      <c r="AT66" s="64"/>
+      <c r="AU66" s="64"/>
+      <c r="AV66" s="64"/>
+      <c r="AW66" s="64"/>
+      <c r="AX66" s="64"/>
+      <c r="AY66" s="64"/>
+      <c r="AZ66" s="64"/>
+      <c r="BA66" s="64"/>
+      <c r="BB66" s="64"/>
+      <c r="BC66" s="64"/>
+      <c r="BD66" s="64"/>
+      <c r="BE66" s="64"/>
+      <c r="BF66" s="64"/>
+      <c r="BG66" s="64"/>
+      <c r="BH66" s="64"/>
+      <c r="BI66" s="64"/>
+      <c r="BJ66" s="64"/>
+      <c r="BK66" s="66"/>
+      <c r="BL66" s="66"/>
+      <c r="BM66" s="66"/>
+      <c r="BN66" s="66"/>
+      <c r="BO66" s="66"/>
+      <c r="BP66" s="66"/>
+      <c r="BQ66" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="BR66" s="31">
+      <c r="BR66" s="64">
         <v>1</v>
       </c>
-      <c r="BS66" s="31">
+      <c r="BS66" s="64">
         <v>100</v>
       </c>
-      <c r="BT66" s="36" t="s">
+      <c r="BT66" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="BU66" s="36" t="s">
+      <c r="BU66" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="BV66" s="31">
+      <c r="BV66" s="64">
         <v>10</v>
       </c>
-      <c r="BW66" s="31">
+      <c r="BW66" s="64">
         <v>20</v>
       </c>
-      <c r="BX66" s="31">
+      <c r="BX66" s="64">
         <v>15</v>
       </c>
-      <c r="BY66" s="31">
+      <c r="BY66" s="64">
         <v>20</v>
       </c>
-      <c r="BZ66" s="31" t="s">
+      <c r="BZ66" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="CA66" s="36" t="s">
+      <c r="CA66" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="CB66" s="31" t="s">
+      <c r="CB66" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="CC66" s="31" t="s">
+      <c r="CC66" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="CD66" s="31"/>
-      <c r="CE66" s="36"/>
-      <c r="CF66" s="36"/>
-      <c r="CG66" s="36"/>
-      <c r="CH66" s="36"/>
-      <c r="CI66" s="36"/>
-      <c r="CJ66" s="36" t="s">
+      <c r="CD66" s="64"/>
+      <c r="CE66" s="64"/>
+      <c r="CF66" s="64"/>
+      <c r="CG66" s="64"/>
+      <c r="CH66" s="64"/>
+      <c r="CI66" s="64"/>
+      <c r="CJ66" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="CK66" s="36">
+      <c r="CK66" s="64">
         <v>1</v>
       </c>
-      <c r="CL66" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="CM66" s="31" t="s">
+      <c r="CL66" s="64"/>
+      <c r="CM66" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="CN66" s="36">
+      <c r="CN66" s="64">
         <v>1</v>
       </c>
-      <c r="CO66" s="36">
+      <c r="CO66" s="64">
         <v>1888</v>
       </c>
-      <c r="CP66" s="36">
+      <c r="CP66" s="64">
         <v>1</v>
       </c>
-      <c r="CQ66" s="36" t="s">
+      <c r="CQ66" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="CR66" s="36">
+      <c r="CR66" s="64">
         <v>1</v>
       </c>
-      <c r="CS66" s="36">
+      <c r="CS66" s="64">
         <v>680</v>
       </c>
-      <c r="CT66" s="31" t="s">
+      <c r="CT66" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="CU66" s="36">
+      <c r="CU66" s="64">
         <v>6.1</v>
       </c>
-      <c r="CV66" s="36">
+      <c r="CV66" s="64">
         <v>1</v>
       </c>
-      <c r="CW66" s="36" t="s">
+      <c r="CW66" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="CX66" s="36" t="s">
+      <c r="CX66" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="CY66" s="36" t="s">
+      <c r="CY66" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="CZ66" s="36" t="s">
+      <c r="CZ66" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="DA66" s="36">
+      <c r="DA66" s="64">
         <v>9015551234</v>
       </c>
-      <c r="DB66" s="35"/>
+      <c r="DB66" s="64"/>
     </row>
     <row r="67" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="b">
@@ -18168,9 +18195,7 @@
       <c r="CK72" s="31">
         <v>1</v>
       </c>
-      <c r="CL72" s="31" t="s">
-        <v>462</v>
-      </c>
+      <c r="CL72" s="31"/>
       <c r="CM72" s="31" t="s">
         <v>233</v>
       </c>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Shipworks2\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="463">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -1451,13 +1451,16 @@
   </si>
   <si>
     <t>Re-icing</t>
+  </si>
+  <si>
+    <t>HAZARDOUS_MATERIALS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1539,8 +1542,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1580,6 +1590,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1853,13 +1868,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1926,9 +1942,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2008,6 +2021,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2026,15 +2049,17 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="2"/>
@@ -2353,70 +2378,70 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DB83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CH1" sqref="CH1"/>
-      <selection pane="bottomLeft" activeCell="CL23" sqref="CL23"/>
+      <selection pane="bottomLeft" activeCell="CI23" sqref="CI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.5703125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5703125" style="40" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" style="40" customWidth="1"/>
-    <col min="7" max="9" width="23.28515625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.28515625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" style="40" customWidth="1"/>
-    <col min="14" max="15" width="18.85546875" style="40" customWidth="1"/>
-    <col min="16" max="21" width="19.42578125" style="40" customWidth="1"/>
-    <col min="22" max="22" width="26.85546875" style="40" customWidth="1"/>
-    <col min="23" max="24" width="20.42578125" style="40" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" style="40" customWidth="1"/>
-    <col min="26" max="26" width="21.140625" style="41" customWidth="1"/>
-    <col min="27" max="30" width="21.140625" style="40" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" style="40" customWidth="1"/>
-    <col min="32" max="33" width="37.140625" style="40" customWidth="1"/>
-    <col min="34" max="34" width="33.7109375" style="40" customWidth="1"/>
-    <col min="35" max="35" width="35.140625" style="40" customWidth="1"/>
-    <col min="36" max="36" width="39.42578125" style="40" customWidth="1"/>
-    <col min="37" max="37" width="44.85546875" style="40" customWidth="1"/>
-    <col min="38" max="38" width="35.5703125" style="40" customWidth="1"/>
-    <col min="39" max="39" width="42.140625" style="42" customWidth="1"/>
-    <col min="40" max="41" width="20.85546875" style="42" customWidth="1"/>
-    <col min="42" max="45" width="24.7109375" style="42" customWidth="1"/>
-    <col min="46" max="51" width="25.28515625" style="42" customWidth="1"/>
-    <col min="52" max="52" width="32.7109375" style="42" customWidth="1"/>
-    <col min="53" max="56" width="44.85546875" style="43" customWidth="1"/>
-    <col min="57" max="61" width="34.5703125" style="42" customWidth="1"/>
-    <col min="62" max="62" width="52.5703125" style="42" customWidth="1"/>
-    <col min="63" max="64" width="39" style="44" customWidth="1"/>
-    <col min="65" max="65" width="39.5703125" style="44" customWidth="1"/>
-    <col min="66" max="66" width="40.85546875" style="44" customWidth="1"/>
-    <col min="67" max="67" width="56.28515625" style="44" customWidth="1"/>
-    <col min="68" max="68" width="46.42578125" style="44" customWidth="1"/>
-    <col min="69" max="69" width="28.28515625" style="40" customWidth="1"/>
-    <col min="70" max="70" width="32.85546875" style="40" customWidth="1"/>
-    <col min="71" max="71" width="36.7109375" style="40" customWidth="1"/>
-    <col min="72" max="72" width="35.42578125" style="40" customWidth="1"/>
-    <col min="73" max="74" width="37.85546875" style="40" customWidth="1"/>
-    <col min="75" max="75" width="36" style="42" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="36.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36" style="42" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="37.140625" style="40" customWidth="1"/>
-    <col min="80" max="80" width="35.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="38.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="42.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="42.42578125" style="40" customWidth="1"/>
-    <col min="84" max="85" width="44" style="40" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="40.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="51.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="39.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="90" max="105" width="51.28515625" style="42" customWidth="1"/>
-    <col min="106" max="106" width="33.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" style="39" customWidth="1"/>
+    <col min="7" max="9" width="23.28515625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.28515625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" style="39" customWidth="1"/>
+    <col min="14" max="15" width="18.85546875" style="39" customWidth="1"/>
+    <col min="16" max="21" width="19.42578125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" style="39" customWidth="1"/>
+    <col min="23" max="24" width="20.42578125" style="39" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="39" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" style="40" customWidth="1"/>
+    <col min="27" max="30" width="21.140625" style="39" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" style="39" customWidth="1"/>
+    <col min="32" max="33" width="37.140625" style="39" customWidth="1"/>
+    <col min="34" max="34" width="33.7109375" style="39" customWidth="1"/>
+    <col min="35" max="35" width="35.140625" style="39" customWidth="1"/>
+    <col min="36" max="36" width="39.42578125" style="39" customWidth="1"/>
+    <col min="37" max="37" width="44.85546875" style="39" customWidth="1"/>
+    <col min="38" max="38" width="35.5703125" style="39" customWidth="1"/>
+    <col min="39" max="39" width="42.140625" style="41" customWidth="1"/>
+    <col min="40" max="41" width="20.85546875" style="41" customWidth="1"/>
+    <col min="42" max="45" width="24.7109375" style="41" customWidth="1"/>
+    <col min="46" max="51" width="25.28515625" style="41" customWidth="1"/>
+    <col min="52" max="52" width="32.7109375" style="41" customWidth="1"/>
+    <col min="53" max="56" width="44.85546875" style="42" customWidth="1"/>
+    <col min="57" max="61" width="34.5703125" style="41" customWidth="1"/>
+    <col min="62" max="62" width="52.5703125" style="41" customWidth="1"/>
+    <col min="63" max="64" width="39" style="43" customWidth="1"/>
+    <col min="65" max="65" width="39.5703125" style="43" customWidth="1"/>
+    <col min="66" max="66" width="40.85546875" style="43" customWidth="1"/>
+    <col min="67" max="67" width="56.28515625" style="43" customWidth="1"/>
+    <col min="68" max="68" width="46.42578125" style="43" customWidth="1"/>
+    <col min="69" max="69" width="28.28515625" style="39" customWidth="1"/>
+    <col min="70" max="70" width="32.85546875" style="39" customWidth="1"/>
+    <col min="71" max="71" width="36.7109375" style="39" customWidth="1"/>
+    <col min="72" max="72" width="35.42578125" style="39" customWidth="1"/>
+    <col min="73" max="74" width="37.85546875" style="39" customWidth="1"/>
+    <col min="75" max="75" width="36" style="41" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="36.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="36" style="41" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="37.140625" style="39" customWidth="1"/>
+    <col min="80" max="80" width="35.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="38.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="42.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="42.42578125" style="39" customWidth="1"/>
+    <col min="84" max="85" width="44" style="39" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="40.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="51.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="39.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="90" max="105" width="51.28515625" style="41" customWidth="1"/>
+    <col min="106" max="106" width="33.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="107" max="110" width="15.7109375" style="15" customWidth="1"/>
     <col min="111" max="111" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="112" max="16384" width="9.140625" style="15"/>
@@ -3055,7 +3080,7 @@
       <c r="A3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="16"/>
@@ -3297,7 +3322,7 @@
       <c r="A4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>141</v>
@@ -3362,7 +3387,7 @@
       <c r="X4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="25" t="s">
         <v>144</v>
       </c>
       <c r="Z4" s="21" t="s">
@@ -3521,7 +3546,7 @@
       <c r="A5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
         <v>153</v>
@@ -3584,7 +3609,7 @@
       <c r="X5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="Y5" s="25" t="s">
         <v>156</v>
       </c>
       <c r="Z5" s="21" t="s">
@@ -3737,7 +3762,7 @@
       <c r="A6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
         <v>163</v>
@@ -3802,7 +3827,7 @@
       <c r="X6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="25" t="s">
         <v>165</v>
       </c>
       <c r="Z6" s="21" t="s">
@@ -3961,7 +3986,7 @@
       <c r="A7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>166</v>
@@ -4024,7 +4049,7 @@
       <c r="X7" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="25" t="s">
         <v>168</v>
       </c>
       <c r="Z7" s="21" t="s">
@@ -4175,7 +4200,7 @@
       <c r="A8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
         <v>173</v>
@@ -4238,7 +4263,7 @@
       <c r="X8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y8" s="25" t="s">
         <v>174</v>
       </c>
       <c r="Z8" s="21" t="s">
@@ -4389,7 +4414,7 @@
       <c r="A9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21" t="s">
         <v>179</v>
@@ -4454,7 +4479,7 @@
       <c r="X9" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Y9" s="25" t="s">
         <v>180</v>
       </c>
       <c r="Z9" s="21" t="s">
@@ -4613,7 +4638,7 @@
       <c r="A10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
         <v>181</v>
@@ -4676,7 +4701,7 @@
       <c r="X10" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="25" t="s">
         <v>183</v>
       </c>
       <c r="Z10" s="21" t="s">
@@ -4827,7 +4852,7 @@
       <c r="A11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21" t="s">
         <v>184</v>
@@ -4890,7 +4915,7 @@
       <c r="X11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y11" s="26" t="s">
+      <c r="Y11" s="25" t="s">
         <v>185</v>
       </c>
       <c r="Z11" s="21" t="s">
@@ -5041,7 +5066,7 @@
       <c r="A12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>186</v>
@@ -5106,7 +5131,7 @@
       <c r="X12" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Y12" s="25" t="s">
         <v>187</v>
       </c>
       <c r="Z12" s="21" t="s">
@@ -5265,7 +5290,7 @@
       <c r="A13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21" t="s">
         <v>188</v>
@@ -5326,7 +5351,7 @@
       <c r="X13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y13" s="26" t="s">
+      <c r="Y13" s="25" t="s">
         <v>191</v>
       </c>
       <c r="Z13" s="21" t="s">
@@ -5477,7 +5502,7 @@
       <c r="A14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
         <v>197</v>
@@ -5540,7 +5565,7 @@
       <c r="X14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y14" s="26" t="s">
+      <c r="Y14" s="25" t="s">
         <v>199</v>
       </c>
       <c r="Z14" s="21" t="s">
@@ -5693,7 +5718,7 @@
       <c r="A15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
         <v>201</v>
@@ -5754,7 +5779,7 @@
       <c r="X15" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y15" s="26" t="s">
+      <c r="Y15" s="25" t="s">
         <v>202</v>
       </c>
       <c r="Z15" s="21" t="s">
@@ -5913,7 +5938,7 @@
       <c r="A16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
         <v>204</v>
@@ -5974,7 +5999,7 @@
       <c r="X16" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y16" s="26" t="s">
+      <c r="Y16" s="25" t="s">
         <v>205</v>
       </c>
       <c r="Z16" s="21" t="s">
@@ -6125,7 +6150,7 @@
       <c r="A17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
         <v>204</v>
@@ -6186,7 +6211,7 @@
       <c r="X17" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y17" s="26" t="s">
+      <c r="Y17" s="25" t="s">
         <v>209</v>
       </c>
       <c r="Z17" s="21" t="s">
@@ -6337,7 +6362,7 @@
       <c r="A18" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
         <v>204</v>
@@ -6398,7 +6423,7 @@
       <c r="X18" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y18" s="26" t="s">
+      <c r="Y18" s="25" t="s">
         <v>213</v>
       </c>
       <c r="Z18" s="21" t="s">
@@ -6549,7 +6574,7 @@
       <c r="A19" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
         <v>214</v>
@@ -6610,7 +6635,7 @@
       <c r="X19" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y19" s="26" t="s">
+      <c r="Y19" s="25" t="s">
         <v>215</v>
       </c>
       <c r="Z19" s="21" t="s">
@@ -6763,7 +6788,7 @@
       <c r="A20" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
         <v>220</v>
@@ -6826,7 +6851,7 @@
       <c r="X20" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y20" s="26" t="s">
+      <c r="Y20" s="25" t="s">
         <v>221</v>
       </c>
       <c r="Z20" s="21" t="s">
@@ -6999,7 +7024,7 @@
       <c r="A21" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>224</v>
@@ -7062,7 +7087,7 @@
       <c r="X21" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y21" s="26" t="s">
+      <c r="Y21" s="25" t="s">
         <v>226</v>
       </c>
       <c r="Z21" s="21" t="s">
@@ -7217,7 +7242,7 @@
       <c r="A22" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>227</v>
@@ -7278,7 +7303,7 @@
       <c r="X22" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y22" s="26" t="s">
+      <c r="Y22" s="25" t="s">
         <v>228</v>
       </c>
       <c r="Z22" s="21" t="s">
@@ -7425,251 +7450,249 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:106" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="b">
+    <row r="23" spans="1:106" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="60">
         <v>323234</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="60">
         <v>50</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="R23" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="T23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24" t="s">
+      <c r="T23" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="60">
         <v>323234</v>
       </c>
-      <c r="X23" s="24" t="s">
+      <c r="X23" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="Y23" s="26" t="s">
+      <c r="Y23" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="Z23" s="25" t="s">
+      <c r="Z23" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="AA23" s="24" t="s">
+      <c r="AA23" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="AB23" s="24" t="s">
+      <c r="AB23" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="AC23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE23" s="24" t="s">
+      <c r="AC23" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE23" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="AF23" s="24" t="s">
+      <c r="AF23" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AG23" s="24" t="s">
+      <c r="AG23" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="AH23" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="24"/>
-      <c r="AW23" s="24"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI23" s="24"/>
-      <c r="BJ23" s="24"/>
-      <c r="BK23" s="26"/>
-      <c r="BL23" s="26"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="26"/>
-      <c r="BO23" s="26"/>
-      <c r="BP23" s="26"/>
-      <c r="BQ23" s="24" t="s">
+      <c r="AH23" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="60"/>
+      <c r="AW23" s="60"/>
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="60"/>
+      <c r="BB23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC23" s="60"/>
+      <c r="BD23" s="60"/>
+      <c r="BE23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH23" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI23" s="60"/>
+      <c r="BJ23" s="60"/>
+      <c r="BK23" s="69"/>
+      <c r="BL23" s="69"/>
+      <c r="BM23" s="69"/>
+      <c r="BN23" s="69"/>
+      <c r="BO23" s="69"/>
+      <c r="BP23" s="69"/>
+      <c r="BQ23" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="BR23" s="24">
+      <c r="BR23" s="60">
         <v>1</v>
       </c>
-      <c r="BS23" s="24">
+      <c r="BS23" s="60">
         <v>500</v>
       </c>
-      <c r="BT23" s="24" t="s">
+      <c r="BT23" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="BU23" s="24" t="s">
+      <c r="BU23" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="BV23" s="20">
+      <c r="BV23" s="60">
         <v>50</v>
       </c>
-      <c r="BW23" s="24">
+      <c r="BW23" s="60">
         <v>20</v>
       </c>
-      <c r="BX23" s="24">
+      <c r="BX23" s="60">
         <v>15</v>
       </c>
-      <c r="BY23" s="24">
+      <c r="BY23" s="60">
         <v>20</v>
       </c>
-      <c r="BZ23" s="24" t="s">
+      <c r="BZ23" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="CA23" s="24" t="s">
+      <c r="CA23" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="CB23" s="24" t="s">
+      <c r="CB23" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="CC23" s="24" t="s">
+      <c r="CC23" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="CD23" s="24" t="s">
+      <c r="CD23" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="CE23" s="24"/>
-      <c r="CF23" s="24"/>
-      <c r="CG23" s="24"/>
-      <c r="CH23" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="CI23" s="24">
+      <c r="CE23" s="60"/>
+      <c r="CF23" s="60"/>
+      <c r="CG23" s="60"/>
+      <c r="CH23" s="60"/>
+      <c r="CI23" s="60"/>
+      <c r="CJ23" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="CK23" s="60">
         <v>1</v>
       </c>
-      <c r="CJ23" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="CK23" s="24">
+      <c r="CL23" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="CM23" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN23" s="60">
         <v>1</v>
       </c>
-      <c r="CL23" s="24"/>
-      <c r="CM23" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="CN23" s="24">
+      <c r="CO23" s="60">
+        <v>1090</v>
+      </c>
+      <c r="CP23" s="60">
         <v>1</v>
       </c>
-      <c r="CO23" s="24">
-        <v>1090</v>
-      </c>
-      <c r="CP23" s="24">
+      <c r="CQ23" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR23" s="60">
+        <v>0</v>
+      </c>
+      <c r="CS23" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="CT23" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="CU23" s="60">
+        <v>3</v>
+      </c>
+      <c r="CV23" s="60">
         <v>1</v>
       </c>
-      <c r="CQ23" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="CR23" s="24">
-        <v>0</v>
-      </c>
-      <c r="CS23" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="CT23" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="CU23" s="24">
-        <v>3</v>
-      </c>
-      <c r="CV23" s="24">
-        <v>1</v>
-      </c>
-      <c r="CW23" s="24" t="s">
+      <c r="CW23" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="CX23" s="24" t="s">
+      <c r="CX23" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="CY23" s="24" t="s">
+      <c r="CY23" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="CZ23" s="24" t="s">
+      <c r="CZ23" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="DA23" s="24">
+      <c r="DA23" s="60">
         <v>9015551234</v>
       </c>
-      <c r="DB23" s="23" t="s">
+      <c r="DB23" s="70" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7677,7 +7700,7 @@
       <c r="A24" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
         <v>241</v>
@@ -7738,7 +7761,7 @@
       <c r="X24" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y24" s="26" t="s">
+      <c r="Y24" s="25" t="s">
         <v>242</v>
       </c>
       <c r="Z24" s="21" t="s">
@@ -7915,7 +7938,7 @@
       <c r="A25" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>251</v>
@@ -7976,7 +7999,7 @@
       <c r="X25" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y25" s="26" t="s">
+      <c r="Y25" s="25" t="s">
         <v>252</v>
       </c>
       <c r="Z25" s="21" t="s">
@@ -8133,7 +8156,7 @@
       <c r="A26" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
         <v>256</v>
@@ -8194,7 +8217,7 @@
       <c r="X26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y26" s="26" t="s">
+      <c r="Y26" s="25" t="s">
         <v>257</v>
       </c>
       <c r="Z26" s="21" t="s">
@@ -8345,7 +8368,7 @@
       <c r="A27" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21" t="s">
         <v>259</v>
@@ -8406,7 +8429,7 @@
       <c r="X27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y27" s="26" t="s">
+      <c r="Y27" s="25" t="s">
         <v>260</v>
       </c>
       <c r="Z27" s="21" t="s">
@@ -8557,7 +8580,7 @@
       <c r="A28" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21" t="s">
         <v>264</v>
@@ -8620,7 +8643,7 @@
       <c r="X28" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y28" s="26" t="s">
+      <c r="Y28" s="25" t="s">
         <v>265</v>
       </c>
       <c r="Z28" s="21" t="s">
@@ -8777,7 +8800,7 @@
       <c r="A29" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21" t="s">
         <v>266</v>
@@ -8840,7 +8863,7 @@
       <c r="X29" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y29" s="26" t="s">
+      <c r="Y29" s="25" t="s">
         <v>267</v>
       </c>
       <c r="Z29" s="21" t="s">
@@ -9013,7 +9036,7 @@
       <c r="A30" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21" t="s">
         <v>268</v>
@@ -9074,7 +9097,7 @@
       <c r="X30" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y30" s="26" t="s">
+      <c r="Y30" s="25" t="s">
         <v>270</v>
       </c>
       <c r="Z30" s="21" t="s">
@@ -9229,7 +9252,7 @@
       <c r="A31" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21" t="s">
         <v>275</v>
@@ -9290,7 +9313,7 @@
       <c r="X31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y31" s="26" t="s">
+      <c r="Y31" s="25" t="s">
         <v>276</v>
       </c>
       <c r="Z31" s="21" t="s">
@@ -9449,7 +9472,7 @@
       <c r="A32" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21" t="s">
         <v>277</v>
@@ -9510,7 +9533,7 @@
       <c r="X32" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y32" s="26" t="s">
+      <c r="Y32" s="25" t="s">
         <v>278</v>
       </c>
       <c r="Z32" s="21" t="s">
@@ -9661,7 +9684,7 @@
       <c r="A33" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
         <v>282</v>
@@ -9722,7 +9745,7 @@
       <c r="X33" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y33" s="26" t="s">
+      <c r="Y33" s="25" t="s">
         <v>284</v>
       </c>
       <c r="Z33" s="21" t="s">
@@ -9897,7 +9920,7 @@
       <c r="A34" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="s">
         <v>288</v>
@@ -9958,7 +9981,7 @@
       <c r="X34" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y34" s="26" t="s">
+      <c r="Y34" s="25" t="s">
         <v>289</v>
       </c>
       <c r="Z34" s="21" t="s">
@@ -10119,7 +10142,7 @@
       <c r="A35" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="s">
         <v>291</v>
@@ -10180,7 +10203,7 @@
       <c r="X35" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y35" s="26" t="s">
+      <c r="Y35" s="25" t="s">
         <v>292</v>
       </c>
       <c r="Z35" s="21" t="s">
@@ -10329,7 +10352,7 @@
       <c r="A36" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21" t="s">
         <v>294</v>
@@ -10390,7 +10413,7 @@
       <c r="X36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y36" s="26" t="s">
+      <c r="Y36" s="25" t="s">
         <v>296</v>
       </c>
       <c r="Z36" s="21" t="s">
@@ -10565,7 +10588,7 @@
       <c r="A37" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21" t="s">
         <v>299</v>
@@ -10626,7 +10649,7 @@
       <c r="X37" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y37" s="26" t="s">
+      <c r="Y37" s="25" t="s">
         <v>300</v>
       </c>
       <c r="Z37" s="21" t="s">
@@ -10777,7 +10800,7 @@
       <c r="A38" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21" t="s">
         <v>301</v>
@@ -10838,7 +10861,7 @@
       <c r="X38" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y38" s="26" t="s">
+      <c r="Y38" s="25" t="s">
         <v>302</v>
       </c>
       <c r="Z38" s="21" t="s">
@@ -10995,7 +11018,7 @@
       <c r="A39" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21" t="s">
         <v>307</v>
@@ -11056,7 +11079,7 @@
       <c r="X39" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y39" s="26" t="s">
+      <c r="Y39" s="25" t="s">
         <v>309</v>
       </c>
       <c r="Z39" s="21" t="s">
@@ -11213,7 +11236,7 @@
       <c r="A40" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21" t="s">
         <v>312</v>
@@ -11274,7 +11297,7 @@
       <c r="X40" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y40" s="26" t="s">
+      <c r="Y40" s="25" t="s">
         <v>313</v>
       </c>
       <c r="Z40" s="21" t="s">
@@ -11425,7 +11448,7 @@
       <c r="A41" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21" t="s">
         <v>314</v>
@@ -11486,7 +11509,7 @@
       <c r="X41" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y41" s="26" t="s">
+      <c r="Y41" s="25" t="s">
         <v>315</v>
       </c>
       <c r="Z41" s="21" t="s">
@@ -11639,7 +11662,7 @@
       <c r="A42" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21" t="s">
         <v>317</v>
@@ -11702,7 +11725,7 @@
       <c r="X42" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y42" s="26" t="s">
+      <c r="Y42" s="25" t="s">
         <v>318</v>
       </c>
       <c r="Z42" s="21" t="s">
@@ -11875,7 +11898,7 @@
       <c r="A43" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21" t="s">
         <v>320</v>
@@ -11938,7 +11961,7 @@
       <c r="X43" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y43" s="26" t="s">
+      <c r="Y43" s="25" t="s">
         <v>321</v>
       </c>
       <c r="Z43" s="21" t="s">
@@ -12091,7 +12114,7 @@
       <c r="A44" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21" t="s">
         <v>322</v>
@@ -12152,7 +12175,7 @@
       <c r="X44" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y44" s="26" t="s">
+      <c r="Y44" s="25" t="s">
         <v>323</v>
       </c>
       <c r="Z44" s="21" t="s">
@@ -12303,7 +12326,7 @@
       <c r="A45" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21" t="s">
         <v>327</v>
@@ -12366,7 +12389,7 @@
       <c r="X45" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y45" s="26" t="s">
+      <c r="Y45" s="25" t="s">
         <v>328</v>
       </c>
       <c r="Z45" s="21" t="s">
@@ -12511,11 +12534,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21" t="s">
         <v>329</v>
@@ -12576,7 +12599,7 @@
       <c r="X46" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y46" s="26" t="s">
+      <c r="Y46" s="25" t="s">
         <v>330</v>
       </c>
       <c r="Z46" s="21" t="s">
@@ -12705,7 +12728,9 @@
       <c r="CK46" s="20">
         <v>0</v>
       </c>
-      <c r="CL46" s="24"/>
+      <c r="CL46" s="60" t="s">
+        <v>462</v>
+      </c>
       <c r="CM46" s="24" t="s">
         <v>233</v>
       </c>
@@ -12759,7 +12784,7 @@
       <c r="A47" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21" t="s">
         <v>334</v>
@@ -12820,7 +12845,7 @@
       <c r="X47" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y47" s="26" t="s">
+      <c r="Y47" s="25" t="s">
         <v>335</v>
       </c>
       <c r="Z47" s="21" t="s">
@@ -12995,7 +13020,7 @@
       <c r="A48" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21" t="s">
         <v>337</v>
@@ -13056,7 +13081,7 @@
       <c r="X48" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y48" s="26" t="s">
+      <c r="Y48" s="25" t="s">
         <v>338</v>
       </c>
       <c r="Z48" s="21" t="s">
@@ -13209,7 +13234,7 @@
       <c r="A49" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="20"/>
       <c r="D49" s="21" t="s">
         <v>340</v>
@@ -13272,7 +13297,7 @@
       <c r="X49" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y49" s="26" t="s">
+      <c r="Y49" s="25" t="s">
         <v>341</v>
       </c>
       <c r="Z49" s="21" t="s">
@@ -13421,7 +13446,7 @@
       <c r="A50" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21" t="s">
         <v>342</v>
@@ -13484,7 +13509,7 @@
       <c r="X50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y50" s="26" t="s">
+      <c r="Y50" s="25" t="s">
         <v>343</v>
       </c>
       <c r="Z50" s="21" t="s">
@@ -13631,12 +13656,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:106" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:106" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="28"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="21" t="s">
         <v>344</v>
       </c>
@@ -13696,7 +13721,7 @@
       <c r="X51" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y51" s="26" t="s">
+      <c r="Y51" s="25" t="s">
         <v>347</v>
       </c>
       <c r="Z51" s="22" t="s">
@@ -13825,8 +13850,8 @@
       <c r="A52" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="28"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="21" t="s">
         <v>348</v>
       </c>
@@ -13888,7 +13913,7 @@
       <c r="X52" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y52" s="26" t="s">
+      <c r="Y52" s="25" t="s">
         <v>278</v>
       </c>
       <c r="Z52" s="22" t="s">
@@ -14023,8 +14048,8 @@
       <c r="A53" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="21" t="s">
         <v>349</v>
       </c>
@@ -14086,7 +14111,7 @@
       <c r="X53" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y53" s="26" t="s">
+      <c r="Y53" s="25" t="s">
         <v>292</v>
       </c>
       <c r="Z53" s="22" t="s">
@@ -14217,8 +14242,8 @@
       <c r="A54" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="28"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="21" t="s">
         <v>350</v>
       </c>
@@ -14280,7 +14305,7 @@
       <c r="X54" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y54" s="26" t="s">
+      <c r="Y54" s="25" t="s">
         <v>300</v>
       </c>
       <c r="Z54" s="22" t="s">
@@ -14413,8 +14438,8 @@
       <c r="A55" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="28"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="21" t="s">
         <v>351</v>
       </c>
@@ -14474,7 +14499,7 @@
       <c r="X55" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y55" s="26" t="s">
+      <c r="Y55" s="25" t="s">
         <v>347</v>
       </c>
       <c r="Z55" s="21" t="s">
@@ -14534,7 +14559,7 @@
       <c r="BJ55" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="BK55" s="30" t="s">
+      <c r="BK55" s="29" t="s">
         <v>353</v>
       </c>
       <c r="BL55" s="22"/>
@@ -14605,8 +14630,8 @@
       <c r="A56" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="28"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="21" t="s">
         <v>356</v>
       </c>
@@ -14666,7 +14691,7 @@
       <c r="X56" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y56" s="26" t="s">
+      <c r="Y56" s="25" t="s">
         <v>347</v>
       </c>
       <c r="Z56" s="21" t="s">
@@ -14726,7 +14751,7 @@
       <c r="BJ56" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="BK56" s="30" t="s">
+      <c r="BK56" s="29" t="s">
         <v>353</v>
       </c>
       <c r="BL56" s="22"/>
@@ -14809,8 +14834,8 @@
       <c r="A57" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="21" t="s">
         <v>361</v>
       </c>
@@ -14872,7 +14897,7 @@
       <c r="X57" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y57" s="26" t="s">
+      <c r="Y57" s="25" t="s">
         <v>363</v>
       </c>
       <c r="Z57" s="21" t="s">
@@ -14934,7 +14959,7 @@
       <c r="BJ57" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="BK57" s="30" t="s">
+      <c r="BK57" s="29" t="s">
         <v>353</v>
       </c>
       <c r="BL57" s="22"/>
@@ -15017,7 +15042,7 @@
       <c r="A58" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B58" s="59"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="20"/>
       <c r="D58" s="21" t="s">
         <v>367</v>
@@ -15080,7 +15105,7 @@
       <c r="X58" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y58" s="26" t="s">
+      <c r="Y58" s="25" t="s">
         <v>347</v>
       </c>
       <c r="Z58" s="21" t="s">
@@ -15227,7 +15252,7 @@
       <c r="A59" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B59" s="59"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21" t="s">
         <v>369</v>
@@ -15290,7 +15315,7 @@
       <c r="X59" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Y59" s="26" t="s">
+      <c r="Y59" s="25" t="s">
         <v>370</v>
       </c>
       <c r="Z59" s="21" t="s">
@@ -15479,7 +15504,7 @@
       <c r="A60" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="B60" s="60"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="20"/>
       <c r="D60" s="21" t="s">
         <v>371</v>
@@ -15487,23 +15512,23 @@
       <c r="E60" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="44">
         <v>323400</v>
       </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48" t="s">
+      <c r="G60" s="47"/>
+      <c r="H60" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="J60" s="48" t="s">
+      <c r="J60" s="47" t="s">
         <v>155</v>
       </c>
       <c r="K60" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="L60" s="48">
+      <c r="L60" s="47">
         <v>6</v>
       </c>
       <c r="M60" s="22" t="s">
@@ -15518,52 +15543,52 @@
       <c r="P60" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q60" s="48" t="s">
+      <c r="Q60" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="R60" s="48" t="s">
+      <c r="R60" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="S60" s="48" t="s">
+      <c r="S60" s="47" t="s">
         <v>117</v>
       </c>
       <c r="T60" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U60" s="48" t="s">
+      <c r="U60" s="47" t="s">
         <v>119</v>
       </c>
       <c r="V60" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="W60" s="45">
+      <c r="W60" s="44">
         <v>323400</v>
       </c>
-      <c r="X60" s="48" t="s">
+      <c r="X60" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="Y60" s="52" t="s">
+      <c r="Y60" s="51" t="s">
         <v>373</v>
       </c>
       <c r="Z60" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="AA60" s="48" t="s">
+      <c r="AA60" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="AB60" s="48" t="s">
+      <c r="AB60" s="47" t="s">
         <v>281</v>
       </c>
       <c r="AC60" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AD60" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE60" s="48" t="s">
+      <c r="AD60" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE60" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="AF60" s="48">
+      <c r="AF60" s="47">
         <v>150067600</v>
       </c>
       <c r="AG60" s="20" t="s">
@@ -15572,13 +15597,13 @@
       <c r="AH60" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AI60" s="48"/>
-      <c r="AJ60" s="48"/>
-      <c r="AK60" s="48"/>
-      <c r="AL60" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM60" s="48"/>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM60" s="47"/>
       <c r="AN60" s="20"/>
       <c r="AO60" s="20"/>
       <c r="AP60" s="20"/>
@@ -15619,10 +15644,10 @@
       <c r="BQ60" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="BR60" s="48">
+      <c r="BR60" s="47">
         <v>1</v>
       </c>
-      <c r="BS60" s="48">
+      <c r="BS60" s="47">
         <v>600</v>
       </c>
       <c r="BT60" s="20" t="s">
@@ -15631,31 +15656,31 @@
       <c r="BU60" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="BV60" s="45">
+      <c r="BV60" s="44">
         <v>6</v>
       </c>
-      <c r="BW60" s="48">
+      <c r="BW60" s="47">
         <v>20</v>
       </c>
-      <c r="BX60" s="48">
+      <c r="BX60" s="47">
         <v>15</v>
       </c>
-      <c r="BY60" s="48">
+      <c r="BY60" s="47">
         <v>20</v>
       </c>
-      <c r="BZ60" s="48" t="s">
+      <c r="BZ60" s="47" t="s">
         <v>160</v>
       </c>
       <c r="CA60" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="CB60" s="48" t="s">
+      <c r="CB60" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="CC60" s="48" t="s">
+      <c r="CC60" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="CD60" s="48" t="s">
+      <c r="CD60" s="47" t="s">
         <v>161</v>
       </c>
       <c r="CE60" s="20" t="s">
@@ -15675,8 +15700,8 @@
       <c r="CK60" s="20">
         <v>1</v>
       </c>
-      <c r="CL60" s="48"/>
-      <c r="CM60" s="48" t="s">
+      <c r="CL60" s="47"/>
+      <c r="CM60" s="47" t="s">
         <v>233</v>
       </c>
       <c r="CN60" s="20">
@@ -15697,7 +15722,7 @@
       <c r="CS60" s="20">
         <v>680</v>
       </c>
-      <c r="CT60" s="48" t="s">
+      <c r="CT60" s="47" t="s">
         <v>333</v>
       </c>
       <c r="CU60" s="20">
@@ -15721,7 +15746,7 @@
       <c r="DA60" s="20">
         <v>9015551234</v>
       </c>
-      <c r="DB60" s="55" t="s">
+      <c r="DB60" s="54" t="s">
         <v>178</v>
       </c>
     </row>
@@ -15729,767 +15754,767 @@
       <c r="A61" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F61" s="45">
         <v>323345</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46" t="s">
+      <c r="G61" s="45"/>
+      <c r="H61" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="J61" s="46" t="s">
+      <c r="J61" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L61" s="46">
+      <c r="L61" s="45">
         <v>20</v>
       </c>
-      <c r="M61" s="33" t="s">
+      <c r="M61" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N61" s="33" t="s">
+      <c r="N61" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O61" s="31" t="s">
+      <c r="O61" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P61" s="31" t="s">
+      <c r="P61" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q61" s="46" t="s">
+      <c r="Q61" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="R61" s="46" t="s">
+      <c r="R61" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="S61" s="46" t="s">
+      <c r="S61" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="T61" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U61" s="46" t="b">
+      <c r="T61" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U61" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="V61" s="31" t="s">
+      <c r="V61" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W61" s="49" t="s">
+      <c r="W61" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="X61" s="46" t="s">
+      <c r="X61" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="Y61" s="53" t="s">
+      <c r="Y61" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="Z61" s="34" t="s">
+      <c r="Z61" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="AA61" s="46" t="s">
+      <c r="AA61" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="AB61" s="46">
+      <c r="AB61" s="45">
         <v>38115</v>
       </c>
-      <c r="AC61" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD61" s="46" t="b">
+      <c r="AC61" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD61" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="AE61" s="46" t="s">
+      <c r="AE61" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="AF61" s="46" t="s">
+      <c r="AF61" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="AG61" s="31" t="s">
+      <c r="AG61" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH61" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI61" s="46"/>
-      <c r="AJ61" s="46" t="s">
+      <c r="AH61" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI61" s="45"/>
+      <c r="AJ61" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="AK61" s="46"/>
-      <c r="AL61" s="46"/>
-      <c r="AM61" s="46"/>
-      <c r="AN61" s="31"/>
-      <c r="AO61" s="31"/>
-      <c r="AP61" s="31"/>
-      <c r="AQ61" s="31"/>
-      <c r="AR61" s="31"/>
-      <c r="AS61" s="31"/>
-      <c r="AT61" s="31"/>
-      <c r="AU61" s="31"/>
-      <c r="AV61" s="31"/>
-      <c r="AW61" s="31"/>
-      <c r="AX61" s="31"/>
-      <c r="AY61" s="31"/>
-      <c r="AZ61" s="31"/>
-      <c r="BA61" s="31"/>
-      <c r="BB61" s="31"/>
-      <c r="BC61" s="31"/>
-      <c r="BD61" s="31"/>
-      <c r="BE61" s="31"/>
-      <c r="BF61" s="31"/>
-      <c r="BG61" s="31"/>
-      <c r="BH61" s="31"/>
-      <c r="BI61" s="31"/>
-      <c r="BJ61" s="31"/>
-      <c r="BK61" s="33"/>
-      <c r="BL61" s="33"/>
-      <c r="BM61" s="33"/>
-      <c r="BN61" s="33"/>
-      <c r="BO61" s="33"/>
-      <c r="BP61" s="33"/>
-      <c r="BQ61" s="31" t="s">
+      <c r="AK61" s="45"/>
+      <c r="AL61" s="45"/>
+      <c r="AM61" s="45"/>
+      <c r="AN61" s="30"/>
+      <c r="AO61" s="30"/>
+      <c r="AP61" s="30"/>
+      <c r="AQ61" s="30"/>
+      <c r="AR61" s="30"/>
+      <c r="AS61" s="30"/>
+      <c r="AT61" s="30"/>
+      <c r="AU61" s="30"/>
+      <c r="AV61" s="30"/>
+      <c r="AW61" s="30"/>
+      <c r="AX61" s="30"/>
+      <c r="AY61" s="30"/>
+      <c r="AZ61" s="30"/>
+      <c r="BA61" s="30"/>
+      <c r="BB61" s="30"/>
+      <c r="BC61" s="30"/>
+      <c r="BD61" s="30"/>
+      <c r="BE61" s="30"/>
+      <c r="BF61" s="30"/>
+      <c r="BG61" s="30"/>
+      <c r="BH61" s="30"/>
+      <c r="BI61" s="30"/>
+      <c r="BJ61" s="30"/>
+      <c r="BK61" s="32"/>
+      <c r="BL61" s="32"/>
+      <c r="BM61" s="32"/>
+      <c r="BN61" s="32"/>
+      <c r="BO61" s="32"/>
+      <c r="BP61" s="32"/>
+      <c r="BQ61" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR61" s="46">
+      <c r="BR61" s="45">
         <v>1</v>
       </c>
-      <c r="BS61" s="46">
+      <c r="BS61" s="45">
         <v>100</v>
       </c>
-      <c r="BT61" s="31" t="s">
+      <c r="BT61" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU61" s="31" t="s">
+      <c r="BU61" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV61" s="46">
+      <c r="BV61" s="45">
         <v>3</v>
       </c>
-      <c r="BW61" s="46"/>
-      <c r="BX61" s="46"/>
-      <c r="BY61" s="46"/>
-      <c r="BZ61" s="46"/>
-      <c r="CA61" s="31" t="s">
+      <c r="BW61" s="45"/>
+      <c r="BX61" s="45"/>
+      <c r="BY61" s="45"/>
+      <c r="BZ61" s="45"/>
+      <c r="CA61" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB61" s="46" t="s">
+      <c r="CB61" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="CC61" s="46" t="s">
+      <c r="CC61" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="CD61" s="46"/>
-      <c r="CE61" s="31"/>
-      <c r="CF61" s="31"/>
-      <c r="CG61" s="31"/>
-      <c r="CH61" s="31"/>
-      <c r="CI61" s="31"/>
-      <c r="CJ61" s="31"/>
-      <c r="CK61" s="31"/>
-      <c r="CL61" s="46"/>
-      <c r="CM61" s="46"/>
-      <c r="CN61" s="31"/>
-      <c r="CO61" s="31"/>
-      <c r="CP61" s="31"/>
-      <c r="CQ61" s="31"/>
-      <c r="CR61" s="31"/>
-      <c r="CS61" s="31"/>
-      <c r="CT61" s="46"/>
-      <c r="CU61" s="31"/>
-      <c r="CV61" s="31"/>
-      <c r="CW61" s="31"/>
-      <c r="CX61" s="31"/>
-      <c r="CY61" s="31"/>
-      <c r="CZ61" s="31"/>
-      <c r="DA61" s="31"/>
-      <c r="DB61" s="56"/>
+      <c r="CD61" s="45"/>
+      <c r="CE61" s="30"/>
+      <c r="CF61" s="30"/>
+      <c r="CG61" s="30"/>
+      <c r="CH61" s="30"/>
+      <c r="CI61" s="30"/>
+      <c r="CJ61" s="30"/>
+      <c r="CK61" s="30"/>
+      <c r="CL61" s="45"/>
+      <c r="CM61" s="45"/>
+      <c r="CN61" s="30"/>
+      <c r="CO61" s="30"/>
+      <c r="CP61" s="30"/>
+      <c r="CQ61" s="30"/>
+      <c r="CR61" s="30"/>
+      <c r="CS61" s="30"/>
+      <c r="CT61" s="45"/>
+      <c r="CU61" s="30"/>
+      <c r="CV61" s="30"/>
+      <c r="CW61" s="30"/>
+      <c r="CX61" s="30"/>
+      <c r="CY61" s="30"/>
+      <c r="CZ61" s="30"/>
+      <c r="DA61" s="30"/>
+      <c r="DB61" s="55"/>
     </row>
     <row r="62" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="31" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="30">
         <v>323346</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31" t="s">
+      <c r="G62" s="30"/>
+      <c r="H62" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I62" s="31" t="s">
+      <c r="I62" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="K62" s="31" t="s">
+      <c r="K62" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L62" s="31">
+      <c r="L62" s="30">
         <v>1</v>
       </c>
-      <c r="M62" s="33" t="s">
+      <c r="M62" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N62" s="33" t="s">
+      <c r="N62" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O62" s="31" t="s">
+      <c r="O62" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P62" s="31" t="s">
+      <c r="P62" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q62" s="31" t="s">
+      <c r="Q62" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R62" s="31" t="s">
+      <c r="R62" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S62" s="31" t="s">
+      <c r="S62" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T62" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U62" s="31" t="b">
+      <c r="T62" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U62" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="V62" s="31" t="s">
+      <c r="V62" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W62" s="50" t="s">
+      <c r="W62" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="X62" s="31" t="s">
+      <c r="X62" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="Y62" s="33" t="s">
+      <c r="Y62" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z62" s="34" t="s">
+      <c r="Z62" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="AA62" s="31" t="s">
+      <c r="AA62" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="AB62" s="31">
+      <c r="AB62" s="30">
         <v>38115</v>
       </c>
-      <c r="AC62" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD62" s="31" t="b">
+      <c r="AC62" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD62" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE62" s="31" t="s">
+      <c r="AE62" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF62" s="31" t="s">
+      <c r="AF62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG62" s="31" t="s">
+      <c r="AG62" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH62" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI62" s="31" t="s">
+      <c r="AH62" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI62" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="AJ62" s="31"/>
-      <c r="AK62" s="31"/>
-      <c r="AL62" s="31"/>
-      <c r="AM62" s="31"/>
-      <c r="AN62" s="31"/>
-      <c r="AO62" s="31"/>
-      <c r="AP62" s="31"/>
-      <c r="AQ62" s="31"/>
-      <c r="AR62" s="31"/>
-      <c r="AS62" s="31"/>
-      <c r="AT62" s="31"/>
-      <c r="AU62" s="31"/>
-      <c r="AV62" s="31"/>
-      <c r="AW62" s="31"/>
-      <c r="AX62" s="31"/>
-      <c r="AY62" s="31"/>
-      <c r="AZ62" s="31"/>
-      <c r="BA62" s="31"/>
-      <c r="BB62" s="31"/>
-      <c r="BC62" s="31"/>
-      <c r="BD62" s="31"/>
-      <c r="BE62" s="31"/>
-      <c r="BF62" s="31"/>
-      <c r="BG62" s="31"/>
-      <c r="BH62" s="31"/>
-      <c r="BI62" s="31"/>
-      <c r="BJ62" s="31"/>
-      <c r="BK62" s="33"/>
-      <c r="BL62" s="33"/>
-      <c r="BM62" s="33"/>
-      <c r="BN62" s="33"/>
-      <c r="BO62" s="33"/>
-      <c r="BP62" s="33"/>
-      <c r="BQ62" s="31" t="s">
+      <c r="AJ62" s="30"/>
+      <c r="AK62" s="30"/>
+      <c r="AL62" s="30"/>
+      <c r="AM62" s="30"/>
+      <c r="AN62" s="30"/>
+      <c r="AO62" s="30"/>
+      <c r="AP62" s="30"/>
+      <c r="AQ62" s="30"/>
+      <c r="AR62" s="30"/>
+      <c r="AS62" s="30"/>
+      <c r="AT62" s="30"/>
+      <c r="AU62" s="30"/>
+      <c r="AV62" s="30"/>
+      <c r="AW62" s="30"/>
+      <c r="AX62" s="30"/>
+      <c r="AY62" s="30"/>
+      <c r="AZ62" s="30"/>
+      <c r="BA62" s="30"/>
+      <c r="BB62" s="30"/>
+      <c r="BC62" s="30"/>
+      <c r="BD62" s="30"/>
+      <c r="BE62" s="30"/>
+      <c r="BF62" s="30"/>
+      <c r="BG62" s="30"/>
+      <c r="BH62" s="30"/>
+      <c r="BI62" s="30"/>
+      <c r="BJ62" s="30"/>
+      <c r="BK62" s="32"/>
+      <c r="BL62" s="32"/>
+      <c r="BM62" s="32"/>
+      <c r="BN62" s="32"/>
+      <c r="BO62" s="32"/>
+      <c r="BP62" s="32"/>
+      <c r="BQ62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR62" s="31">
+      <c r="BR62" s="30">
         <v>1</v>
       </c>
-      <c r="BS62" s="31">
+      <c r="BS62" s="30">
         <v>100</v>
       </c>
-      <c r="BT62" s="31" t="s">
+      <c r="BT62" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU62" s="31" t="s">
+      <c r="BU62" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV62" s="31">
+      <c r="BV62" s="30">
         <v>1</v>
       </c>
-      <c r="BW62" s="31"/>
-      <c r="BX62" s="31"/>
-      <c r="BY62" s="31"/>
-      <c r="BZ62" s="31"/>
-      <c r="CA62" s="31" t="s">
+      <c r="BW62" s="30"/>
+      <c r="BX62" s="30"/>
+      <c r="BY62" s="30"/>
+      <c r="BZ62" s="30"/>
+      <c r="CA62" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB62" s="31" t="s">
+      <c r="CB62" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="CC62" s="31"/>
-      <c r="CD62" s="31"/>
-      <c r="CE62" s="31"/>
-      <c r="CF62" s="31"/>
-      <c r="CG62" s="31"/>
-      <c r="CH62" s="31"/>
-      <c r="CI62" s="31"/>
-      <c r="CJ62" s="31"/>
-      <c r="CK62" s="31"/>
-      <c r="CL62" s="31"/>
-      <c r="CM62" s="31"/>
-      <c r="CN62" s="31"/>
-      <c r="CO62" s="31"/>
-      <c r="CP62" s="31"/>
-      <c r="CQ62" s="31"/>
-      <c r="CR62" s="31"/>
-      <c r="CS62" s="31"/>
-      <c r="CT62" s="31"/>
-      <c r="CU62" s="31"/>
-      <c r="CV62" s="31"/>
-      <c r="CW62" s="31"/>
-      <c r="CX62" s="31"/>
-      <c r="CY62" s="31"/>
-      <c r="CZ62" s="31"/>
-      <c r="DA62" s="31"/>
-      <c r="DB62" s="35"/>
+      <c r="CC62" s="30"/>
+      <c r="CD62" s="30"/>
+      <c r="CE62" s="30"/>
+      <c r="CF62" s="30"/>
+      <c r="CG62" s="30"/>
+      <c r="CH62" s="30"/>
+      <c r="CI62" s="30"/>
+      <c r="CJ62" s="30"/>
+      <c r="CK62" s="30"/>
+      <c r="CL62" s="30"/>
+      <c r="CM62" s="30"/>
+      <c r="CN62" s="30"/>
+      <c r="CO62" s="30"/>
+      <c r="CP62" s="30"/>
+      <c r="CQ62" s="30"/>
+      <c r="CR62" s="30"/>
+      <c r="CS62" s="30"/>
+      <c r="CT62" s="30"/>
+      <c r="CU62" s="30"/>
+      <c r="CV62" s="30"/>
+      <c r="CW62" s="30"/>
+      <c r="CX62" s="30"/>
+      <c r="CY62" s="30"/>
+      <c r="CZ62" s="30"/>
+      <c r="DA62" s="30"/>
+      <c r="DB62" s="34"/>
     </row>
     <row r="63" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="31" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="31">
+      <c r="F63" s="30">
         <v>323347</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I63" s="31" t="s">
+      <c r="I63" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J63" s="31" t="s">
+      <c r="J63" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="K63" s="31" t="s">
+      <c r="K63" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L63" s="31">
+      <c r="L63" s="30">
         <v>3</v>
       </c>
-      <c r="M63" s="33" t="s">
+      <c r="M63" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N63" s="33" t="s">
+      <c r="N63" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O63" s="31" t="s">
+      <c r="O63" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P63" s="31" t="s">
+      <c r="P63" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q63" s="31" t="s">
+      <c r="Q63" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R63" s="31" t="s">
+      <c r="R63" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S63" s="31" t="s">
+      <c r="S63" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T63" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U63" s="31" t="b">
+      <c r="T63" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U63" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="V63" s="31" t="s">
+      <c r="V63" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W63" s="50" t="s">
+      <c r="W63" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="X63" s="31" t="s">
+      <c r="X63" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y63" s="33" t="s">
+      <c r="Y63" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z63" s="32" t="s">
+      <c r="Z63" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="AA63" s="31" t="s">
+      <c r="AA63" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AB63" s="31">
+      <c r="AB63" s="30">
         <v>10005</v>
       </c>
-      <c r="AC63" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD63" s="31" t="b">
+      <c r="AC63" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD63" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE63" s="31" t="s">
+      <c r="AE63" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF63" s="31" t="s">
+      <c r="AF63" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG63" s="31" t="s">
+      <c r="AG63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH63" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI63" s="31" t="s">
+      <c r="AH63" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI63" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="AJ63" s="31"/>
-      <c r="AK63" s="31"/>
-      <c r="AL63" s="31"/>
-      <c r="AM63" s="31"/>
-      <c r="AN63" s="31"/>
-      <c r="AO63" s="31"/>
-      <c r="AP63" s="31"/>
-      <c r="AQ63" s="31"/>
-      <c r="AR63" s="31"/>
-      <c r="AS63" s="31"/>
-      <c r="AT63" s="31"/>
-      <c r="AU63" s="31"/>
-      <c r="AV63" s="31"/>
-      <c r="AW63" s="31"/>
-      <c r="AX63" s="31"/>
-      <c r="AY63" s="31"/>
-      <c r="AZ63" s="31"/>
-      <c r="BA63" s="31"/>
-      <c r="BB63" s="31"/>
-      <c r="BC63" s="31"/>
-      <c r="BD63" s="31"/>
-      <c r="BE63" s="31"/>
-      <c r="BF63" s="31"/>
-      <c r="BG63" s="31"/>
-      <c r="BH63" s="31"/>
-      <c r="BI63" s="31"/>
-      <c r="BJ63" s="31"/>
-      <c r="BK63" s="33"/>
-      <c r="BL63" s="33"/>
-      <c r="BM63" s="33"/>
-      <c r="BN63" s="33"/>
-      <c r="BO63" s="33"/>
-      <c r="BP63" s="33"/>
-      <c r="BQ63" s="31" t="s">
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="30"/>
+      <c r="AM63" s="30"/>
+      <c r="AN63" s="30"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="30"/>
+      <c r="AQ63" s="30"/>
+      <c r="AR63" s="30"/>
+      <c r="AS63" s="30"/>
+      <c r="AT63" s="30"/>
+      <c r="AU63" s="30"/>
+      <c r="AV63" s="30"/>
+      <c r="AW63" s="30"/>
+      <c r="AX63" s="30"/>
+      <c r="AY63" s="30"/>
+      <c r="AZ63" s="30"/>
+      <c r="BA63" s="30"/>
+      <c r="BB63" s="30"/>
+      <c r="BC63" s="30"/>
+      <c r="BD63" s="30"/>
+      <c r="BE63" s="30"/>
+      <c r="BF63" s="30"/>
+      <c r="BG63" s="30"/>
+      <c r="BH63" s="30"/>
+      <c r="BI63" s="30"/>
+      <c r="BJ63" s="30"/>
+      <c r="BK63" s="32"/>
+      <c r="BL63" s="32"/>
+      <c r="BM63" s="32"/>
+      <c r="BN63" s="32"/>
+      <c r="BO63" s="32"/>
+      <c r="BP63" s="32"/>
+      <c r="BQ63" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR63" s="31">
+      <c r="BR63" s="30">
         <v>1</v>
       </c>
-      <c r="BS63" s="31">
+      <c r="BS63" s="30">
         <v>100</v>
       </c>
-      <c r="BT63" s="31" t="s">
+      <c r="BT63" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU63" s="31" t="s">
+      <c r="BU63" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV63" s="31">
+      <c r="BV63" s="30">
         <v>3</v>
       </c>
-      <c r="BW63" s="31"/>
-      <c r="BX63" s="31"/>
-      <c r="BY63" s="31"/>
-      <c r="BZ63" s="31"/>
-      <c r="CA63" s="31" t="s">
+      <c r="BW63" s="30"/>
+      <c r="BX63" s="30"/>
+      <c r="BY63" s="30"/>
+      <c r="BZ63" s="30"/>
+      <c r="CA63" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB63" s="31" t="s">
+      <c r="CB63" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="CC63" s="31"/>
-      <c r="CD63" s="31"/>
-      <c r="CE63" s="31"/>
-      <c r="CF63" s="31"/>
-      <c r="CG63" s="31"/>
-      <c r="CH63" s="31"/>
-      <c r="CI63" s="31"/>
-      <c r="CJ63" s="31"/>
-      <c r="CK63" s="31"/>
-      <c r="CL63" s="31"/>
-      <c r="CM63" s="31"/>
-      <c r="CN63" s="31"/>
-      <c r="CO63" s="31"/>
-      <c r="CP63" s="31"/>
-      <c r="CQ63" s="31"/>
-      <c r="CR63" s="31"/>
-      <c r="CS63" s="31"/>
-      <c r="CT63" s="31"/>
-      <c r="CU63" s="31"/>
-      <c r="CV63" s="31"/>
-      <c r="CW63" s="31"/>
-      <c r="CX63" s="31"/>
-      <c r="CY63" s="31"/>
-      <c r="CZ63" s="31"/>
-      <c r="DA63" s="31"/>
-      <c r="DB63" s="35"/>
+      <c r="CC63" s="30"/>
+      <c r="CD63" s="30"/>
+      <c r="CE63" s="30"/>
+      <c r="CF63" s="30"/>
+      <c r="CG63" s="30"/>
+      <c r="CH63" s="30"/>
+      <c r="CI63" s="30"/>
+      <c r="CJ63" s="30"/>
+      <c r="CK63" s="30"/>
+      <c r="CL63" s="30"/>
+      <c r="CM63" s="30"/>
+      <c r="CN63" s="30"/>
+      <c r="CO63" s="30"/>
+      <c r="CP63" s="30"/>
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
+      <c r="CS63" s="30"/>
+      <c r="CT63" s="30"/>
+      <c r="CU63" s="30"/>
+      <c r="CV63" s="30"/>
+      <c r="CW63" s="30"/>
+      <c r="CX63" s="30"/>
+      <c r="CY63" s="30"/>
+      <c r="CZ63" s="30"/>
+      <c r="DA63" s="30"/>
+      <c r="DB63" s="34"/>
     </row>
     <row r="64" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="31" t="s">
+      <c r="B64" s="65"/>
+      <c r="C64" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F64" s="30">
         <v>323348</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31" t="s">
+      <c r="G64" s="30"/>
+      <c r="H64" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="I64" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J64" s="31" t="s">
+      <c r="J64" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="K64" s="31" t="s">
+      <c r="K64" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="30">
         <v>2</v>
       </c>
-      <c r="M64" s="33" t="s">
+      <c r="M64" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N64" s="33" t="s">
+      <c r="N64" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O64" s="31" t="s">
+      <c r="O64" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P64" s="31" t="s">
+      <c r="P64" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q64" s="31" t="s">
+      <c r="Q64" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R64" s="31" t="s">
+      <c r="R64" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S64" s="31" t="s">
+      <c r="S64" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T64" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U64" s="31" t="b">
+      <c r="T64" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U64" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="V64" s="31" t="s">
+      <c r="V64" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W64" s="50" t="s">
+      <c r="W64" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="X64" s="31" t="s">
+      <c r="X64" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y64" s="33" t="s">
+      <c r="Y64" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z64" s="32" t="s">
+      <c r="Z64" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="AA64" s="31" t="s">
+      <c r="AA64" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="AB64" s="31">
+      <c r="AB64" s="30">
         <v>53101</v>
       </c>
-      <c r="AC64" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD64" s="31" t="b">
+      <c r="AC64" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD64" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE64" s="31" t="s">
+      <c r="AE64" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF64" s="31" t="s">
+      <c r="AF64" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG64" s="31" t="s">
+      <c r="AG64" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH64" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI64" s="31"/>
-      <c r="AJ64" s="31"/>
-      <c r="AK64" s="31"/>
-      <c r="AL64" s="31"/>
-      <c r="AM64" s="31"/>
-      <c r="AN64" s="31"/>
-      <c r="AO64" s="31"/>
-      <c r="AP64" s="31"/>
-      <c r="AQ64" s="31"/>
-      <c r="AR64" s="31"/>
-      <c r="AS64" s="31"/>
-      <c r="AT64" s="31"/>
-      <c r="AU64" s="31"/>
-      <c r="AV64" s="31"/>
-      <c r="AW64" s="31"/>
-      <c r="AX64" s="31"/>
-      <c r="AY64" s="31"/>
-      <c r="AZ64" s="31"/>
-      <c r="BA64" s="31"/>
-      <c r="BB64" s="31"/>
-      <c r="BC64" s="31"/>
-      <c r="BD64" s="31"/>
-      <c r="BE64" s="31"/>
-      <c r="BF64" s="31"/>
-      <c r="BG64" s="31"/>
-      <c r="BH64" s="31"/>
-      <c r="BI64" s="31"/>
-      <c r="BJ64" s="31"/>
-      <c r="BK64" s="33"/>
-      <c r="BL64" s="33"/>
-      <c r="BM64" s="33"/>
-      <c r="BN64" s="33"/>
-      <c r="BO64" s="33"/>
-      <c r="BP64" s="33"/>
-      <c r="BQ64" s="31" t="s">
+      <c r="AH64" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI64" s="30"/>
+      <c r="AJ64" s="30"/>
+      <c r="AK64" s="30"/>
+      <c r="AL64" s="30"/>
+      <c r="AM64" s="30"/>
+      <c r="AN64" s="30"/>
+      <c r="AO64" s="30"/>
+      <c r="AP64" s="30"/>
+      <c r="AQ64" s="30"/>
+      <c r="AR64" s="30"/>
+      <c r="AS64" s="30"/>
+      <c r="AT64" s="30"/>
+      <c r="AU64" s="30"/>
+      <c r="AV64" s="30"/>
+      <c r="AW64" s="30"/>
+      <c r="AX64" s="30"/>
+      <c r="AY64" s="30"/>
+      <c r="AZ64" s="30"/>
+      <c r="BA64" s="30"/>
+      <c r="BB64" s="30"/>
+      <c r="BC64" s="30"/>
+      <c r="BD64" s="30"/>
+      <c r="BE64" s="30"/>
+      <c r="BF64" s="30"/>
+      <c r="BG64" s="30"/>
+      <c r="BH64" s="30"/>
+      <c r="BI64" s="30"/>
+      <c r="BJ64" s="30"/>
+      <c r="BK64" s="32"/>
+      <c r="BL64" s="32"/>
+      <c r="BM64" s="32"/>
+      <c r="BN64" s="32"/>
+      <c r="BO64" s="32"/>
+      <c r="BP64" s="32"/>
+      <c r="BQ64" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR64" s="31">
+      <c r="BR64" s="30">
         <v>1</v>
       </c>
-      <c r="BS64" s="31">
+      <c r="BS64" s="30">
         <v>100</v>
       </c>
-      <c r="BT64" s="31" t="s">
+      <c r="BT64" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU64" s="31" t="s">
+      <c r="BU64" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV64" s="31">
+      <c r="BV64" s="30">
         <v>2</v>
       </c>
-      <c r="BW64" s="31"/>
-      <c r="BX64" s="31"/>
-      <c r="BY64" s="31"/>
-      <c r="BZ64" s="31"/>
-      <c r="CA64" s="31" t="s">
+      <c r="BW64" s="30"/>
+      <c r="BX64" s="30"/>
+      <c r="BY64" s="30"/>
+      <c r="BZ64" s="30"/>
+      <c r="CA64" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB64" s="31" t="s">
+      <c r="CB64" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="CC64" s="31" t="s">
+      <c r="CC64" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="CD64" s="31"/>
-      <c r="CE64" s="31"/>
-      <c r="CF64" s="31"/>
-      <c r="CG64" s="31"/>
-      <c r="CH64" s="31"/>
-      <c r="CI64" s="31"/>
-      <c r="CJ64" s="31"/>
-      <c r="CK64" s="31"/>
-      <c r="CL64" s="31"/>
-      <c r="CM64" s="31"/>
-      <c r="CN64" s="31"/>
-      <c r="CO64" s="31"/>
-      <c r="CP64" s="31"/>
-      <c r="CQ64" s="31"/>
-      <c r="CR64" s="31"/>
-      <c r="CS64" s="31"/>
-      <c r="CT64" s="31"/>
-      <c r="CU64" s="31"/>
-      <c r="CV64" s="31"/>
-      <c r="CW64" s="31"/>
-      <c r="CX64" s="31"/>
-      <c r="CY64" s="31"/>
-      <c r="CZ64" s="31"/>
-      <c r="DA64" s="31"/>
-      <c r="DB64" s="35" t="s">
+      <c r="CD64" s="30"/>
+      <c r="CE64" s="30"/>
+      <c r="CF64" s="30"/>
+      <c r="CG64" s="30"/>
+      <c r="CH64" s="30"/>
+      <c r="CI64" s="30"/>
+      <c r="CJ64" s="30"/>
+      <c r="CK64" s="30"/>
+      <c r="CL64" s="30"/>
+      <c r="CM64" s="30"/>
+      <c r="CN64" s="30"/>
+      <c r="CO64" s="30"/>
+      <c r="CP64" s="30"/>
+      <c r="CQ64" s="30"/>
+      <c r="CR64" s="30"/>
+      <c r="CS64" s="30"/>
+      <c r="CT64" s="30"/>
+      <c r="CU64" s="30"/>
+      <c r="CV64" s="30"/>
+      <c r="CW64" s="30"/>
+      <c r="CX64" s="30"/>
+      <c r="CY64" s="30"/>
+      <c r="CZ64" s="30"/>
+      <c r="DA64" s="30"/>
+      <c r="DB64" s="34" t="s">
         <v>360</v>
       </c>
     </row>
@@ -16497,1293 +16522,1295 @@
       <c r="A65" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="31" t="s">
+      <c r="B65" s="65"/>
+      <c r="C65" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="31">
+      <c r="F65" s="30">
         <v>323350</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31" t="s">
+      <c r="G65" s="30"/>
+      <c r="H65" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I65" s="31" t="s">
+      <c r="I65" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J65" s="31" t="s">
+      <c r="J65" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L65" s="31">
+      <c r="L65" s="30">
         <v>15</v>
       </c>
-      <c r="M65" s="33" t="s">
+      <c r="M65" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N65" s="33" t="s">
+      <c r="N65" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O65" s="31" t="s">
+      <c r="O65" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P65" s="31" t="s">
+      <c r="P65" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q65" s="31" t="s">
+      <c r="Q65" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R65" s="31" t="s">
+      <c r="R65" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S65" s="31" t="s">
+      <c r="S65" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T65" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U65" s="31" t="b">
+      <c r="T65" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U65" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="V65" s="31" t="s">
+      <c r="V65" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W65" s="50" t="s">
+      <c r="W65" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="X65" s="31" t="s">
+      <c r="X65" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y65" s="33" t="s">
+      <c r="Y65" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z65" s="32" t="s">
+      <c r="Z65" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="AA65" s="31" t="s">
+      <c r="AA65" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="AB65" s="31">
+      <c r="AB65" s="30">
         <v>99502</v>
       </c>
-      <c r="AC65" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD65" s="31" t="b">
+      <c r="AC65" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD65" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE65" s="31" t="s">
+      <c r="AE65" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF65" s="31" t="s">
+      <c r="AF65" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG65" s="31" t="s">
+      <c r="AG65" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH65" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI65" s="31" t="s">
+      <c r="AH65" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI65" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="AJ65" s="31"/>
-      <c r="AK65" s="31"/>
-      <c r="AL65" s="31"/>
-      <c r="AM65" s="31"/>
-      <c r="AN65" s="31"/>
-      <c r="AO65" s="31"/>
-      <c r="AP65" s="31"/>
-      <c r="AQ65" s="31"/>
-      <c r="AR65" s="31"/>
-      <c r="AS65" s="31"/>
-      <c r="AT65" s="31"/>
-      <c r="AU65" s="31"/>
-      <c r="AV65" s="31"/>
-      <c r="AW65" s="31"/>
-      <c r="AX65" s="31"/>
-      <c r="AY65" s="31"/>
-      <c r="AZ65" s="31"/>
-      <c r="BA65" s="31" t="s">
+      <c r="AJ65" s="30"/>
+      <c r="AK65" s="30"/>
+      <c r="AL65" s="30"/>
+      <c r="AM65" s="30"/>
+      <c r="AN65" s="30"/>
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="30"/>
+      <c r="AQ65" s="30"/>
+      <c r="AR65" s="30"/>
+      <c r="AS65" s="30"/>
+      <c r="AT65" s="30"/>
+      <c r="AU65" s="30"/>
+      <c r="AV65" s="30"/>
+      <c r="AW65" s="30"/>
+      <c r="AX65" s="30"/>
+      <c r="AY65" s="30"/>
+      <c r="AZ65" s="30"/>
+      <c r="BA65" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="BB65" s="31">
+      <c r="BB65" s="30">
         <v>9012633035</v>
       </c>
-      <c r="BC65" s="31" t="s">
+      <c r="BC65" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="BD65" s="31">
+      <c r="BD65" s="30">
         <v>9012633035</v>
       </c>
-      <c r="BE65" s="31" t="s">
+      <c r="BE65" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="BF65" s="31" t="s">
+      <c r="BF65" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="BG65" s="31" t="s">
+      <c r="BG65" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="BH65" s="31">
+      <c r="BH65" s="30">
         <v>99502</v>
       </c>
-      <c r="BI65" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="BJ65" s="31"/>
-      <c r="BK65" s="33"/>
-      <c r="BL65" s="33"/>
-      <c r="BM65" s="33"/>
-      <c r="BN65" s="33"/>
-      <c r="BO65" s="33"/>
-      <c r="BP65" s="33"/>
-      <c r="BQ65" s="31" t="s">
+      <c r="BI65" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ65" s="30"/>
+      <c r="BK65" s="32"/>
+      <c r="BL65" s="32"/>
+      <c r="BM65" s="32"/>
+      <c r="BN65" s="32"/>
+      <c r="BO65" s="32"/>
+      <c r="BP65" s="32"/>
+      <c r="BQ65" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR65" s="31">
+      <c r="BR65" s="30">
         <v>1</v>
       </c>
-      <c r="BS65" s="31">
+      <c r="BS65" s="30">
         <v>100</v>
       </c>
-      <c r="BT65" s="31" t="s">
+      <c r="BT65" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU65" s="31" t="s">
+      <c r="BU65" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV65" s="31">
+      <c r="BV65" s="30">
         <v>1</v>
       </c>
-      <c r="BW65" s="31"/>
-      <c r="BX65" s="31"/>
-      <c r="BY65" s="31"/>
-      <c r="BZ65" s="31"/>
-      <c r="CA65" s="31" t="s">
+      <c r="BW65" s="30"/>
+      <c r="BX65" s="30"/>
+      <c r="BY65" s="30"/>
+      <c r="BZ65" s="30"/>
+      <c r="CA65" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB65" s="31" t="s">
+      <c r="CB65" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="CC65" s="31"/>
-      <c r="CD65" s="31"/>
-      <c r="CE65" s="31"/>
-      <c r="CF65" s="31"/>
-      <c r="CG65" s="31"/>
-      <c r="CH65" s="31"/>
-      <c r="CI65" s="31"/>
-      <c r="CJ65" s="31"/>
-      <c r="CK65" s="31"/>
-      <c r="CL65" s="31"/>
-      <c r="CM65" s="31"/>
-      <c r="CN65" s="31"/>
-      <c r="CO65" s="31"/>
-      <c r="CP65" s="31"/>
-      <c r="CQ65" s="31"/>
-      <c r="CR65" s="31"/>
-      <c r="CS65" s="31"/>
-      <c r="CT65" s="31"/>
-      <c r="CU65" s="31"/>
-      <c r="CV65" s="31"/>
-      <c r="CW65" s="31"/>
-      <c r="CX65" s="31"/>
-      <c r="CY65" s="31"/>
-      <c r="CZ65" s="31"/>
-      <c r="DA65" s="31"/>
-      <c r="DB65" s="35"/>
+      <c r="CC65" s="30"/>
+      <c r="CD65" s="30"/>
+      <c r="CE65" s="30"/>
+      <c r="CF65" s="30"/>
+      <c r="CG65" s="30"/>
+      <c r="CH65" s="30"/>
+      <c r="CI65" s="30"/>
+      <c r="CJ65" s="30"/>
+      <c r="CK65" s="30"/>
+      <c r="CL65" s="30"/>
+      <c r="CM65" s="30"/>
+      <c r="CN65" s="30"/>
+      <c r="CO65" s="30"/>
+      <c r="CP65" s="30"/>
+      <c r="CQ65" s="30"/>
+      <c r="CR65" s="30"/>
+      <c r="CS65" s="30"/>
+      <c r="CT65" s="30"/>
+      <c r="CU65" s="30"/>
+      <c r="CV65" s="30"/>
+      <c r="CW65" s="30"/>
+      <c r="CX65" s="30"/>
+      <c r="CY65" s="30"/>
+      <c r="CZ65" s="30"/>
+      <c r="DA65" s="30"/>
+      <c r="DB65" s="34"/>
     </row>
-    <row r="66" spans="1:106" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="64" t="s">
+      <c r="B66" s="65"/>
+      <c r="C66" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="D66" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="57">
         <v>323352</v>
       </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64" t="s">
+      <c r="G66" s="57"/>
+      <c r="H66" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="I66" s="64" t="s">
+      <c r="I66" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="J66" s="64" t="s">
+      <c r="J66" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="64" t="s">
+      <c r="K66" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="L66" s="64">
+      <c r="L66" s="57">
         <v>10</v>
       </c>
-      <c r="M66" s="66" t="s">
+      <c r="M66" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="N66" s="66" t="s">
+      <c r="N66" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="O66" s="64" t="s">
+      <c r="O66" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="P66" s="64" t="s">
+      <c r="P66" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="Q66" s="64" t="s">
+      <c r="Q66" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="R66" s="64" t="s">
+      <c r="R66" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="S66" s="64" t="s">
+      <c r="S66" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="T66" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="U66" s="64"/>
-      <c r="V66" s="64" t="s">
+      <c r="T66" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="W66" s="64" t="s">
+      <c r="W66" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="X66" s="64" t="s">
+      <c r="X66" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="Y66" s="66" t="s">
+      <c r="Y66" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="Z66" s="65" t="s">
+      <c r="Z66" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="AA66" s="64" t="s">
+      <c r="AA66" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="AB66" s="64">
+      <c r="AB66" s="57">
         <v>80002</v>
       </c>
-      <c r="AC66" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD66" s="64" t="b">
+      <c r="AC66" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD66" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="AE66" s="64" t="s">
+      <c r="AE66" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="AF66" s="64" t="s">
+      <c r="AF66" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="AG66" s="64" t="s">
+      <c r="AG66" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="AH66" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI66" s="64"/>
-      <c r="AJ66" s="64"/>
-      <c r="AK66" s="64"/>
-      <c r="AL66" s="64"/>
-      <c r="AM66" s="64"/>
-      <c r="AN66" s="64"/>
-      <c r="AO66" s="64"/>
-      <c r="AP66" s="64"/>
-      <c r="AQ66" s="64"/>
-      <c r="AR66" s="64"/>
-      <c r="AS66" s="64"/>
-      <c r="AT66" s="64"/>
-      <c r="AU66" s="64"/>
-      <c r="AV66" s="64"/>
-      <c r="AW66" s="64"/>
-      <c r="AX66" s="64"/>
-      <c r="AY66" s="64"/>
-      <c r="AZ66" s="64"/>
-      <c r="BA66" s="64"/>
-      <c r="BB66" s="64"/>
-      <c r="BC66" s="64"/>
-      <c r="BD66" s="64"/>
-      <c r="BE66" s="64"/>
-      <c r="BF66" s="64"/>
-      <c r="BG66" s="64"/>
-      <c r="BH66" s="64"/>
-      <c r="BI66" s="64"/>
-      <c r="BJ66" s="64"/>
-      <c r="BK66" s="66"/>
-      <c r="BL66" s="66"/>
-      <c r="BM66" s="66"/>
-      <c r="BN66" s="66"/>
-      <c r="BO66" s="66"/>
-      <c r="BP66" s="66"/>
-      <c r="BQ66" s="64" t="s">
+      <c r="AH66" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI66" s="57"/>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="57"/>
+      <c r="AL66" s="57"/>
+      <c r="AM66" s="57"/>
+      <c r="AN66" s="57"/>
+      <c r="AO66" s="57"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="57"/>
+      <c r="AR66" s="57"/>
+      <c r="AS66" s="57"/>
+      <c r="AT66" s="57"/>
+      <c r="AU66" s="57"/>
+      <c r="AV66" s="57"/>
+      <c r="AW66" s="57"/>
+      <c r="AX66" s="57"/>
+      <c r="AY66" s="57"/>
+      <c r="AZ66" s="57"/>
+      <c r="BA66" s="57"/>
+      <c r="BB66" s="57"/>
+      <c r="BC66" s="57"/>
+      <c r="BD66" s="57"/>
+      <c r="BE66" s="57"/>
+      <c r="BF66" s="57"/>
+      <c r="BG66" s="57"/>
+      <c r="BH66" s="57"/>
+      <c r="BI66" s="57"/>
+      <c r="BJ66" s="57"/>
+      <c r="BK66" s="59"/>
+      <c r="BL66" s="59"/>
+      <c r="BM66" s="59"/>
+      <c r="BN66" s="59"/>
+      <c r="BO66" s="59"/>
+      <c r="BP66" s="59"/>
+      <c r="BQ66" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="BR66" s="64">
+      <c r="BR66" s="57">
         <v>1</v>
       </c>
-      <c r="BS66" s="64">
+      <c r="BS66" s="57">
         <v>100</v>
       </c>
-      <c r="BT66" s="64" t="s">
+      <c r="BT66" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="BU66" s="64" t="s">
+      <c r="BU66" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="BV66" s="64">
+      <c r="BV66" s="57">
         <v>10</v>
       </c>
-      <c r="BW66" s="64">
+      <c r="BW66" s="57">
         <v>20</v>
       </c>
-      <c r="BX66" s="64">
+      <c r="BX66" s="57">
         <v>15</v>
       </c>
-      <c r="BY66" s="64">
+      <c r="BY66" s="57">
         <v>20</v>
       </c>
-      <c r="BZ66" s="64" t="s">
+      <c r="BZ66" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="CA66" s="64" t="s">
+      <c r="CA66" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="CB66" s="64" t="s">
+      <c r="CB66" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="CC66" s="64" t="s">
+      <c r="CC66" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="CD66" s="64"/>
-      <c r="CE66" s="64"/>
-      <c r="CF66" s="64"/>
-      <c r="CG66" s="64"/>
-      <c r="CH66" s="64"/>
-      <c r="CI66" s="64"/>
-      <c r="CJ66" s="64" t="s">
+      <c r="CD66" s="57"/>
+      <c r="CE66" s="57"/>
+      <c r="CF66" s="57"/>
+      <c r="CG66" s="57"/>
+      <c r="CH66" s="57"/>
+      <c r="CI66" s="57"/>
+      <c r="CJ66" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="CK66" s="64">
+      <c r="CK66" s="57">
         <v>1</v>
       </c>
-      <c r="CL66" s="64"/>
-      <c r="CM66" s="64" t="s">
+      <c r="CL66" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="CM66" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="CN66" s="64">
+      <c r="CN66" s="57">
         <v>1</v>
       </c>
-      <c r="CO66" s="64">
+      <c r="CO66" s="57">
         <v>1888</v>
       </c>
-      <c r="CP66" s="64">
+      <c r="CP66" s="57">
         <v>1</v>
       </c>
-      <c r="CQ66" s="64" t="s">
+      <c r="CQ66" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="CR66" s="64">
+      <c r="CR66" s="57">
         <v>1</v>
       </c>
-      <c r="CS66" s="64">
+      <c r="CS66" s="57">
         <v>680</v>
       </c>
-      <c r="CT66" s="64" t="s">
+      <c r="CT66" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="CU66" s="64">
+      <c r="CU66" s="57">
         <v>6.1</v>
       </c>
-      <c r="CV66" s="64">
+      <c r="CV66" s="57">
         <v>1</v>
       </c>
-      <c r="CW66" s="64" t="s">
+      <c r="CW66" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="CX66" s="64" t="s">
+      <c r="CX66" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="CY66" s="64" t="s">
+      <c r="CY66" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="CZ66" s="64" t="s">
+      <c r="CZ66" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="DA66" s="64">
+      <c r="DA66" s="57">
         <v>9015551234</v>
       </c>
-      <c r="DB66" s="64"/>
+      <c r="DB66" s="57"/>
     </row>
     <row r="67" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="31" t="s">
+      <c r="B67" s="65"/>
+      <c r="C67" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="31">
+      <c r="F67" s="30">
         <v>323353</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31" t="s">
+      <c r="G67" s="30"/>
+      <c r="H67" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="31" t="s">
+      <c r="I67" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K67" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L67" s="31">
+      <c r="L67" s="30">
         <v>5</v>
       </c>
-      <c r="M67" s="33" t="s">
+      <c r="M67" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N67" s="33" t="s">
+      <c r="N67" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O67" s="31" t="s">
+      <c r="O67" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P67" s="31" t="s">
+      <c r="P67" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q67" s="31" t="s">
+      <c r="Q67" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R67" s="31" t="s">
+      <c r="R67" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S67" s="31" t="s">
+      <c r="S67" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T67" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31" t="s">
+      <c r="T67" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W67" s="50" t="s">
+      <c r="W67" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="X67" s="31" t="s">
+      <c r="X67" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y67" s="33" t="s">
+      <c r="Y67" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z67" s="32" t="s">
+      <c r="Z67" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="AA67" s="31" t="s">
+      <c r="AA67" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="AB67" s="31">
+      <c r="AB67" s="30">
         <v>67504</v>
       </c>
-      <c r="AC67" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD67" s="31" t="b">
+      <c r="AC67" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD67" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE67" s="31" t="s">
+      <c r="AE67" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF67" s="31" t="s">
+      <c r="AF67" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG67" s="31" t="s">
+      <c r="AG67" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH67" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI67" s="31"/>
-      <c r="AJ67" s="31"/>
-      <c r="AK67" s="31"/>
-      <c r="AL67" s="31"/>
-      <c r="AM67" s="31"/>
-      <c r="AN67" s="31"/>
-      <c r="AO67" s="31"/>
-      <c r="AP67" s="31"/>
-      <c r="AQ67" s="31"/>
-      <c r="AR67" s="31"/>
-      <c r="AS67" s="31"/>
-      <c r="AT67" s="31"/>
-      <c r="AU67" s="31"/>
-      <c r="AV67" s="31"/>
-      <c r="AW67" s="31"/>
-      <c r="AX67" s="31"/>
-      <c r="AY67" s="31"/>
-      <c r="AZ67" s="31"/>
-      <c r="BA67" s="31"/>
-      <c r="BB67" s="31"/>
-      <c r="BC67" s="31"/>
-      <c r="BD67" s="31"/>
-      <c r="BE67" s="31"/>
-      <c r="BF67" s="31"/>
-      <c r="BG67" s="31"/>
-      <c r="BH67" s="31"/>
-      <c r="BI67" s="31"/>
-      <c r="BJ67" s="31"/>
-      <c r="BK67" s="33"/>
-      <c r="BL67" s="33"/>
-      <c r="BM67" s="33"/>
-      <c r="BN67" s="33"/>
-      <c r="BO67" s="33"/>
-      <c r="BP67" s="33"/>
-      <c r="BQ67" s="31" t="s">
+      <c r="AH67" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI67" s="30"/>
+      <c r="AJ67" s="30"/>
+      <c r="AK67" s="30"/>
+      <c r="AL67" s="30"/>
+      <c r="AM67" s="30"/>
+      <c r="AN67" s="30"/>
+      <c r="AO67" s="30"/>
+      <c r="AP67" s="30"/>
+      <c r="AQ67" s="30"/>
+      <c r="AR67" s="30"/>
+      <c r="AS67" s="30"/>
+      <c r="AT67" s="30"/>
+      <c r="AU67" s="30"/>
+      <c r="AV67" s="30"/>
+      <c r="AW67" s="30"/>
+      <c r="AX67" s="30"/>
+      <c r="AY67" s="30"/>
+      <c r="AZ67" s="30"/>
+      <c r="BA67" s="30"/>
+      <c r="BB67" s="30"/>
+      <c r="BC67" s="30"/>
+      <c r="BD67" s="30"/>
+      <c r="BE67" s="30"/>
+      <c r="BF67" s="30"/>
+      <c r="BG67" s="30"/>
+      <c r="BH67" s="30"/>
+      <c r="BI67" s="30"/>
+      <c r="BJ67" s="30"/>
+      <c r="BK67" s="32"/>
+      <c r="BL67" s="32"/>
+      <c r="BM67" s="32"/>
+      <c r="BN67" s="32"/>
+      <c r="BO67" s="32"/>
+      <c r="BP67" s="32"/>
+      <c r="BQ67" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR67" s="31">
+      <c r="BR67" s="30">
         <v>1</v>
       </c>
-      <c r="BS67" s="31">
+      <c r="BS67" s="30">
         <v>100</v>
       </c>
-      <c r="BT67" s="31" t="s">
+      <c r="BT67" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU67" s="31" t="s">
+      <c r="BU67" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV67" s="31">
+      <c r="BV67" s="30">
         <v>5</v>
       </c>
-      <c r="BW67" s="31">
+      <c r="BW67" s="30">
         <v>20</v>
       </c>
-      <c r="BX67" s="31">
+      <c r="BX67" s="30">
         <v>15</v>
       </c>
-      <c r="BY67" s="31">
+      <c r="BY67" s="30">
         <v>20</v>
       </c>
-      <c r="BZ67" s="31" t="s">
+      <c r="BZ67" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA67" s="31" t="s">
+      <c r="CA67" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB67" s="31" t="s">
+      <c r="CB67" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="CC67" s="31" t="s">
+      <c r="CC67" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="CD67" s="31" t="s">
+      <c r="CD67" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="CE67" s="31"/>
-      <c r="CF67" s="31"/>
-      <c r="CG67" s="31"/>
-      <c r="CH67" s="31" t="s">
+      <c r="CE67" s="30"/>
+      <c r="CF67" s="30"/>
+      <c r="CG67" s="30"/>
+      <c r="CH67" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="CI67" s="31">
+      <c r="CI67" s="30">
         <v>1</v>
       </c>
-      <c r="CJ67" s="31" t="s">
+      <c r="CJ67" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="CK67" s="31">
+      <c r="CK67" s="30">
         <v>1</v>
       </c>
-      <c r="CL67" s="31"/>
-      <c r="CM67" s="31" t="s">
+      <c r="CL67" s="30"/>
+      <c r="CM67" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="CN67" s="31">
+      <c r="CN67" s="30">
         <v>1</v>
       </c>
-      <c r="CO67" s="31">
+      <c r="CO67" s="30">
         <v>1888</v>
       </c>
-      <c r="CP67" s="31">
+      <c r="CP67" s="30">
         <v>1</v>
       </c>
-      <c r="CQ67" s="31" t="s">
+      <c r="CQ67" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="CR67" s="31">
+      <c r="CR67" s="30">
         <v>0</v>
       </c>
-      <c r="CS67" s="31">
+      <c r="CS67" s="30">
         <v>680</v>
       </c>
-      <c r="CT67" s="31" t="s">
+      <c r="CT67" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="CU67" s="31">
+      <c r="CU67" s="30">
         <v>6.1</v>
       </c>
-      <c r="CV67" s="31">
+      <c r="CV67" s="30">
         <v>1</v>
       </c>
-      <c r="CW67" s="31" t="s">
+      <c r="CW67" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="CX67" s="31" t="s">
+      <c r="CX67" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="CY67" s="31" t="s">
+      <c r="CY67" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="CZ67" s="31" t="s">
+      <c r="CZ67" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="DA67" s="31">
+      <c r="DA67" s="30">
         <v>9015551234</v>
       </c>
-      <c r="DB67" s="35"/>
+      <c r="DB67" s="34"/>
     </row>
     <row r="68" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="31" t="s">
+      <c r="B68" s="65"/>
+      <c r="C68" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="31">
+      <c r="F68" s="30">
         <v>323354</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31" t="s">
+      <c r="G68" s="30"/>
+      <c r="H68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I68" s="31" t="s">
+      <c r="I68" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J68" s="31" t="s">
+      <c r="J68" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K68" s="31" t="s">
+      <c r="K68" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L68" s="31">
+      <c r="L68" s="30">
         <v>60</v>
       </c>
-      <c r="M68" s="33" t="s">
+      <c r="M68" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N68" s="33" t="s">
+      <c r="N68" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O68" s="31" t="s">
+      <c r="O68" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P68" s="31" t="s">
+      <c r="P68" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q68" s="31" t="s">
+      <c r="Q68" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R68" s="31" t="s">
+      <c r="R68" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S68" s="31" t="s">
+      <c r="S68" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T68" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31" t="s">
+      <c r="T68" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W68" s="50" t="s">
+      <c r="W68" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="X68" s="31" t="s">
+      <c r="X68" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y68" s="33" t="s">
+      <c r="Y68" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z68" s="34" t="s">
+      <c r="Z68" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="AA68" s="31" t="s">
+      <c r="AA68" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AB68" s="31">
+      <c r="AB68" s="30">
         <v>90045</v>
       </c>
-      <c r="AC68" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD68" s="31" t="b">
+      <c r="AC68" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD68" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE68" s="31" t="s">
+      <c r="AE68" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF68" s="31" t="s">
+      <c r="AF68" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG68" s="31" t="s">
+      <c r="AG68" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH68" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI68" s="31"/>
-      <c r="AJ68" s="31"/>
-      <c r="AK68" s="31"/>
-      <c r="AL68" s="31"/>
-      <c r="AM68" s="31"/>
-      <c r="AN68" s="31"/>
-      <c r="AO68" s="31"/>
-      <c r="AP68" s="31"/>
-      <c r="AQ68" s="31"/>
-      <c r="AR68" s="31"/>
-      <c r="AS68" s="31"/>
-      <c r="AT68" s="31"/>
-      <c r="AU68" s="31"/>
-      <c r="AV68" s="31"/>
-      <c r="AW68" s="31"/>
-      <c r="AX68" s="31"/>
-      <c r="AY68" s="31"/>
-      <c r="AZ68" s="31"/>
-      <c r="BA68" s="31"/>
-      <c r="BB68" s="31"/>
-      <c r="BC68" s="31"/>
-      <c r="BD68" s="31"/>
-      <c r="BE68" s="31"/>
-      <c r="BF68" s="31"/>
-      <c r="BG68" s="31"/>
-      <c r="BH68" s="31"/>
-      <c r="BI68" s="31"/>
-      <c r="BJ68" s="31"/>
-      <c r="BK68" s="33"/>
-      <c r="BL68" s="33"/>
-      <c r="BM68" s="33"/>
-      <c r="BN68" s="33"/>
-      <c r="BO68" s="33"/>
-      <c r="BP68" s="33"/>
-      <c r="BQ68" s="31" t="s">
+      <c r="AH68" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI68" s="30"/>
+      <c r="AJ68" s="30"/>
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="30"/>
+      <c r="AM68" s="30"/>
+      <c r="AN68" s="30"/>
+      <c r="AO68" s="30"/>
+      <c r="AP68" s="30"/>
+      <c r="AQ68" s="30"/>
+      <c r="AR68" s="30"/>
+      <c r="AS68" s="30"/>
+      <c r="AT68" s="30"/>
+      <c r="AU68" s="30"/>
+      <c r="AV68" s="30"/>
+      <c r="AW68" s="30"/>
+      <c r="AX68" s="30"/>
+      <c r="AY68" s="30"/>
+      <c r="AZ68" s="30"/>
+      <c r="BA68" s="30"/>
+      <c r="BB68" s="30"/>
+      <c r="BC68" s="30"/>
+      <c r="BD68" s="30"/>
+      <c r="BE68" s="30"/>
+      <c r="BF68" s="30"/>
+      <c r="BG68" s="30"/>
+      <c r="BH68" s="30"/>
+      <c r="BI68" s="30"/>
+      <c r="BJ68" s="30"/>
+      <c r="BK68" s="32"/>
+      <c r="BL68" s="32"/>
+      <c r="BM68" s="32"/>
+      <c r="BN68" s="32"/>
+      <c r="BO68" s="32"/>
+      <c r="BP68" s="32"/>
+      <c r="BQ68" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR68" s="31">
+      <c r="BR68" s="30">
         <v>1</v>
       </c>
-      <c r="BS68" s="31">
+      <c r="BS68" s="30">
         <v>100</v>
       </c>
-      <c r="BT68" s="31" t="s">
+      <c r="BT68" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU68" s="31" t="s">
+      <c r="BU68" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV68" s="31">
+      <c r="BV68" s="30">
         <v>60</v>
       </c>
-      <c r="BW68" s="31">
+      <c r="BW68" s="30">
         <v>20</v>
       </c>
-      <c r="BX68" s="31">
+      <c r="BX68" s="30">
         <v>15</v>
       </c>
-      <c r="BY68" s="31">
+      <c r="BY68" s="30">
         <v>20</v>
       </c>
-      <c r="BZ68" s="31" t="s">
+      <c r="BZ68" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA68" s="31" t="s">
+      <c r="CA68" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB68" s="31" t="s">
+      <c r="CB68" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="CC68" s="31" t="s">
+      <c r="CC68" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="CD68" s="31"/>
-      <c r="CE68" s="31"/>
-      <c r="CF68" s="31"/>
-      <c r="CG68" s="31"/>
-      <c r="CH68" s="31" t="s">
+      <c r="CD68" s="30"/>
+      <c r="CE68" s="30"/>
+      <c r="CF68" s="30"/>
+      <c r="CG68" s="30"/>
+      <c r="CH68" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="CI68" s="31">
+      <c r="CI68" s="30">
         <v>25</v>
       </c>
-      <c r="CJ68" s="31"/>
-      <c r="CK68" s="31"/>
-      <c r="CL68" s="31"/>
-      <c r="CM68" s="31"/>
-      <c r="CN68" s="31"/>
-      <c r="CO68" s="31"/>
-      <c r="CP68" s="31"/>
-      <c r="CQ68" s="31"/>
-      <c r="CR68" s="31"/>
-      <c r="CS68" s="31"/>
-      <c r="CT68" s="31"/>
-      <c r="CU68" s="31"/>
-      <c r="CV68" s="31"/>
-      <c r="CW68" s="31"/>
-      <c r="CX68" s="31"/>
-      <c r="CY68" s="31"/>
-      <c r="CZ68" s="31"/>
-      <c r="DA68" s="31"/>
-      <c r="DB68" s="35"/>
+      <c r="CJ68" s="30"/>
+      <c r="CK68" s="30"/>
+      <c r="CL68" s="30"/>
+      <c r="CM68" s="30"/>
+      <c r="CN68" s="30"/>
+      <c r="CO68" s="30"/>
+      <c r="CP68" s="30"/>
+      <c r="CQ68" s="30"/>
+      <c r="CR68" s="30"/>
+      <c r="CS68" s="30"/>
+      <c r="CT68" s="30"/>
+      <c r="CU68" s="30"/>
+      <c r="CV68" s="30"/>
+      <c r="CW68" s="30"/>
+      <c r="CX68" s="30"/>
+      <c r="CY68" s="30"/>
+      <c r="CZ68" s="30"/>
+      <c r="DA68" s="30"/>
+      <c r="DB68" s="34"/>
     </row>
     <row r="69" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="31" t="s">
+      <c r="B69" s="65"/>
+      <c r="C69" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="30">
         <v>323356</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I69" s="31" t="s">
+      <c r="I69" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J69" s="31" t="s">
+      <c r="J69" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K69" s="31" t="s">
+      <c r="K69" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L69" s="31">
+      <c r="L69" s="30">
         <v>40</v>
       </c>
-      <c r="M69" s="33" t="s">
+      <c r="M69" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N69" s="33" t="s">
+      <c r="N69" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O69" s="31" t="s">
+      <c r="O69" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P69" s="31" t="s">
+      <c r="P69" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q69" s="31" t="s">
+      <c r="Q69" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R69" s="31" t="s">
+      <c r="R69" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S69" s="31" t="s">
+      <c r="S69" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T69" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31" t="s">
+      <c r="T69" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U69" s="30"/>
+      <c r="V69" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W69" s="50" t="s">
+      <c r="W69" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="X69" s="31" t="s">
+      <c r="X69" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y69" s="33" t="s">
+      <c r="Y69" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z69" s="32" t="s">
+      <c r="Z69" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="AA69" s="31" t="s">
+      <c r="AA69" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="AB69" s="31">
+      <c r="AB69" s="30">
         <v>67504</v>
       </c>
-      <c r="AC69" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD69" s="31" t="b">
+      <c r="AC69" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD69" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE69" s="31" t="s">
+      <c r="AE69" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF69" s="31" t="s">
+      <c r="AF69" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG69" s="31" t="s">
+      <c r="AG69" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH69" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI69" s="31" t="s">
+      <c r="AH69" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI69" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AJ69" s="31"/>
-      <c r="AK69" s="31" t="s">
+      <c r="AJ69" s="30"/>
+      <c r="AK69" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="AL69" s="31" t="s">
+      <c r="AL69" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="AM69" s="31" t="s">
+      <c r="AM69" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="AN69" s="31" t="s">
+      <c r="AN69" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AO69" s="31">
+      <c r="AO69" s="30">
         <v>123456789</v>
       </c>
-      <c r="AP69" s="31" t="s">
+      <c r="AP69" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AQ69" s="31"/>
-      <c r="AR69" s="31" t="s">
+      <c r="AQ69" s="30"/>
+      <c r="AR69" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AS69" s="31">
+      <c r="AS69" s="30">
         <v>3305551234</v>
       </c>
-      <c r="AT69" s="31" t="s">
+      <c r="AT69" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AU69" s="31" t="s">
+      <c r="AU69" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="AV69" s="31" t="s">
+      <c r="AV69" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AW69" s="31" t="s">
+      <c r="AW69" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AX69" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY69" s="31"/>
-      <c r="AZ69" s="31"/>
-      <c r="BA69" s="31"/>
-      <c r="BB69" s="31"/>
-      <c r="BC69" s="31"/>
-      <c r="BD69" s="31"/>
-      <c r="BE69" s="31"/>
-      <c r="BF69" s="31"/>
-      <c r="BG69" s="31"/>
-      <c r="BH69" s="31"/>
-      <c r="BI69" s="31"/>
-      <c r="BJ69" s="31"/>
-      <c r="BK69" s="33"/>
-      <c r="BL69" s="33"/>
-      <c r="BM69" s="33"/>
-      <c r="BN69" s="33"/>
-      <c r="BO69" s="33"/>
-      <c r="BP69" s="33"/>
-      <c r="BQ69" s="31" t="s">
+      <c r="AX69" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY69" s="30"/>
+      <c r="AZ69" s="30"/>
+      <c r="BA69" s="30"/>
+      <c r="BB69" s="30"/>
+      <c r="BC69" s="30"/>
+      <c r="BD69" s="30"/>
+      <c r="BE69" s="30"/>
+      <c r="BF69" s="30"/>
+      <c r="BG69" s="30"/>
+      <c r="BH69" s="30"/>
+      <c r="BI69" s="30"/>
+      <c r="BJ69" s="30"/>
+      <c r="BK69" s="32"/>
+      <c r="BL69" s="32"/>
+      <c r="BM69" s="32"/>
+      <c r="BN69" s="32"/>
+      <c r="BO69" s="32"/>
+      <c r="BP69" s="32"/>
+      <c r="BQ69" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR69" s="31">
+      <c r="BR69" s="30">
         <v>2</v>
       </c>
-      <c r="BS69" s="31" t="s">
+      <c r="BS69" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="BT69" s="31" t="s">
+      <c r="BT69" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU69" s="31" t="s">
+      <c r="BU69" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV69" s="31" t="s">
+      <c r="BV69" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BW69" s="31" t="s">
+      <c r="BW69" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BX69" s="31" t="s">
+      <c r="BX69" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="BY69" s="31" t="s">
+      <c r="BY69" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BZ69" s="31" t="s">
+      <c r="BZ69" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA69" s="31" t="s">
+      <c r="CA69" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB69" s="31" t="s">
+      <c r="CB69" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="CC69" s="31"/>
-      <c r="CD69" s="31"/>
-      <c r="CE69" s="31"/>
-      <c r="CF69" s="31"/>
-      <c r="CG69" s="31"/>
-      <c r="CH69" s="31"/>
-      <c r="CI69" s="31"/>
-      <c r="CJ69" s="31"/>
-      <c r="CK69" s="31"/>
-      <c r="CL69" s="31"/>
-      <c r="CM69" s="31"/>
-      <c r="CN69" s="31"/>
-      <c r="CO69" s="31"/>
-      <c r="CP69" s="31"/>
-      <c r="CQ69" s="31"/>
-      <c r="CR69" s="31"/>
-      <c r="CS69" s="31"/>
-      <c r="CT69" s="31"/>
-      <c r="CU69" s="31"/>
-      <c r="CV69" s="31"/>
-      <c r="CW69" s="31"/>
-      <c r="CX69" s="31"/>
-      <c r="CY69" s="31"/>
-      <c r="CZ69" s="31"/>
-      <c r="DA69" s="31"/>
-      <c r="DB69" s="35"/>
+      <c r="CC69" s="30"/>
+      <c r="CD69" s="30"/>
+      <c r="CE69" s="30"/>
+      <c r="CF69" s="30"/>
+      <c r="CG69" s="30"/>
+      <c r="CH69" s="30"/>
+      <c r="CI69" s="30"/>
+      <c r="CJ69" s="30"/>
+      <c r="CK69" s="30"/>
+      <c r="CL69" s="30"/>
+      <c r="CM69" s="30"/>
+      <c r="CN69" s="30"/>
+      <c r="CO69" s="30"/>
+      <c r="CP69" s="30"/>
+      <c r="CQ69" s="30"/>
+      <c r="CR69" s="30"/>
+      <c r="CS69" s="30"/>
+      <c r="CT69" s="30"/>
+      <c r="CU69" s="30"/>
+      <c r="CV69" s="30"/>
+      <c r="CW69" s="30"/>
+      <c r="CX69" s="30"/>
+      <c r="CY69" s="30"/>
+      <c r="CZ69" s="30"/>
+      <c r="DA69" s="30"/>
+      <c r="DB69" s="34"/>
     </row>
     <row r="70" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="31" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="30">
         <v>323357</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31" t="s">
+      <c r="G70" s="30"/>
+      <c r="H70" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I70" s="31" t="s">
+      <c r="I70" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="J70" s="31" t="s">
+      <c r="J70" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K70" s="31" t="s">
+      <c r="K70" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L70" s="31">
+      <c r="L70" s="30">
         <v>3</v>
       </c>
-      <c r="M70" s="33" t="s">
+      <c r="M70" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N70" s="33" t="s">
+      <c r="N70" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O70" s="31" t="s">
+      <c r="O70" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P70" s="31" t="s">
+      <c r="P70" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q70" s="31" t="s">
+      <c r="Q70" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R70" s="31" t="s">
+      <c r="R70" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S70" s="31" t="s">
+      <c r="S70" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T70" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31" t="s">
+      <c r="T70" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U70" s="30"/>
+      <c r="V70" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W70" s="50" t="s">
+      <c r="W70" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="X70" s="31" t="s">
+      <c r="X70" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y70" s="33" t="s">
+      <c r="Y70" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z70" s="34" t="s">
+      <c r="Z70" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="AA70" s="31" t="s">
+      <c r="AA70" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="AB70" s="31">
+      <c r="AB70" s="30">
         <v>87501</v>
       </c>
-      <c r="AC70" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD70" s="31" t="b">
+      <c r="AC70" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD70" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE70" s="31" t="s">
+      <c r="AE70" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF70" s="31" t="s">
+      <c r="AF70" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG70" s="31" t="s">
+      <c r="AG70" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH70" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI70" s="31"/>
-      <c r="AJ70" s="31"/>
-      <c r="AK70" s="31"/>
-      <c r="AL70" s="31"/>
-      <c r="AM70" s="31"/>
-      <c r="AN70" s="31"/>
-      <c r="AO70" s="31"/>
-      <c r="AP70" s="31"/>
-      <c r="AQ70" s="31"/>
-      <c r="AR70" s="31"/>
-      <c r="AS70" s="31"/>
-      <c r="AT70" s="31"/>
-      <c r="AU70" s="31"/>
-      <c r="AV70" s="31"/>
-      <c r="AW70" s="31"/>
-      <c r="AX70" s="31"/>
-      <c r="AY70" s="31"/>
-      <c r="AZ70" s="31"/>
-      <c r="BA70" s="31"/>
-      <c r="BB70" s="31"/>
-      <c r="BC70" s="31"/>
-      <c r="BD70" s="31"/>
-      <c r="BE70" s="31"/>
-      <c r="BF70" s="31"/>
-      <c r="BG70" s="31"/>
-      <c r="BH70" s="31"/>
-      <c r="BI70" s="31"/>
-      <c r="BJ70" s="31"/>
-      <c r="BK70" s="33"/>
-      <c r="BL70" s="33"/>
-      <c r="BM70" s="33"/>
-      <c r="BN70" s="33"/>
-      <c r="BO70" s="33"/>
-      <c r="BP70" s="33"/>
-      <c r="BQ70" s="31" t="s">
+      <c r="AH70" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI70" s="30"/>
+      <c r="AJ70" s="30"/>
+      <c r="AK70" s="30"/>
+      <c r="AL70" s="30"/>
+      <c r="AM70" s="30"/>
+      <c r="AN70" s="30"/>
+      <c r="AO70" s="30"/>
+      <c r="AP70" s="30"/>
+      <c r="AQ70" s="30"/>
+      <c r="AR70" s="30"/>
+      <c r="AS70" s="30"/>
+      <c r="AT70" s="30"/>
+      <c r="AU70" s="30"/>
+      <c r="AV70" s="30"/>
+      <c r="AW70" s="30"/>
+      <c r="AX70" s="30"/>
+      <c r="AY70" s="30"/>
+      <c r="AZ70" s="30"/>
+      <c r="BA70" s="30"/>
+      <c r="BB70" s="30"/>
+      <c r="BC70" s="30"/>
+      <c r="BD70" s="30"/>
+      <c r="BE70" s="30"/>
+      <c r="BF70" s="30"/>
+      <c r="BG70" s="30"/>
+      <c r="BH70" s="30"/>
+      <c r="BI70" s="30"/>
+      <c r="BJ70" s="30"/>
+      <c r="BK70" s="32"/>
+      <c r="BL70" s="32"/>
+      <c r="BM70" s="32"/>
+      <c r="BN70" s="32"/>
+      <c r="BO70" s="32"/>
+      <c r="BP70" s="32"/>
+      <c r="BQ70" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR70" s="31">
+      <c r="BR70" s="30">
         <v>1</v>
       </c>
-      <c r="BS70" s="31">
+      <c r="BS70" s="30">
         <v>100</v>
       </c>
-      <c r="BT70" s="31" t="s">
+      <c r="BT70" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU70" s="31" t="s">
+      <c r="BU70" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV70" s="31">
+      <c r="BV70" s="30">
         <v>3</v>
       </c>
-      <c r="BW70" s="31">
+      <c r="BW70" s="30">
         <v>20</v>
       </c>
-      <c r="BX70" s="31">
+      <c r="BX70" s="30">
         <v>15</v>
       </c>
-      <c r="BY70" s="31">
+      <c r="BY70" s="30">
         <v>20</v>
       </c>
-      <c r="BZ70" s="31" t="s">
+      <c r="BZ70" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA70" s="31" t="s">
+      <c r="CA70" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB70" s="31" t="s">
+      <c r="CB70" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="CC70" s="31" t="s">
+      <c r="CC70" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="CD70" s="31"/>
-      <c r="CE70" s="31"/>
-      <c r="CF70" s="31"/>
-      <c r="CG70" s="31"/>
-      <c r="CH70" s="31"/>
-      <c r="CI70" s="31"/>
-      <c r="CJ70" s="31"/>
-      <c r="CK70" s="31"/>
-      <c r="CL70" s="31"/>
-      <c r="CM70" s="31"/>
-      <c r="CN70" s="31"/>
-      <c r="CO70" s="31"/>
-      <c r="CP70" s="31"/>
-      <c r="CQ70" s="31"/>
-      <c r="CR70" s="31"/>
-      <c r="CS70" s="31"/>
-      <c r="CT70" s="31"/>
-      <c r="CU70" s="31"/>
-      <c r="CV70" s="31"/>
-      <c r="CW70" s="31"/>
-      <c r="CX70" s="31"/>
-      <c r="CY70" s="31"/>
-      <c r="CZ70" s="31"/>
-      <c r="DA70" s="31"/>
-      <c r="DB70" s="35" t="s">
+      <c r="CD70" s="30"/>
+      <c r="CE70" s="30"/>
+      <c r="CF70" s="30"/>
+      <c r="CG70" s="30"/>
+      <c r="CH70" s="30"/>
+      <c r="CI70" s="30"/>
+      <c r="CJ70" s="30"/>
+      <c r="CK70" s="30"/>
+      <c r="CL70" s="30"/>
+      <c r="CM70" s="30"/>
+      <c r="CN70" s="30"/>
+      <c r="CO70" s="30"/>
+      <c r="CP70" s="30"/>
+      <c r="CQ70" s="30"/>
+      <c r="CR70" s="30"/>
+      <c r="CS70" s="30"/>
+      <c r="CT70" s="30"/>
+      <c r="CU70" s="30"/>
+      <c r="CV70" s="30"/>
+      <c r="CW70" s="30"/>
+      <c r="CX70" s="30"/>
+      <c r="CY70" s="30"/>
+      <c r="CZ70" s="30"/>
+      <c r="DA70" s="30"/>
+      <c r="DB70" s="34" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17791,2079 +17818,2081 @@
       <c r="A71" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="31" t="s">
+      <c r="B71" s="65"/>
+      <c r="C71" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="30">
         <v>323361</v>
       </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31" t="s">
+      <c r="G71" s="30"/>
+      <c r="H71" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I71" s="31" t="s">
+      <c r="I71" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J71" s="31" t="s">
+      <c r="J71" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K71" s="31" t="s">
+      <c r="K71" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L71" s="31">
+      <c r="L71" s="30">
         <v>5</v>
       </c>
-      <c r="M71" s="33" t="s">
+      <c r="M71" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N71" s="33" t="s">
+      <c r="N71" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O71" s="31" t="s">
+      <c r="O71" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P71" s="31" t="s">
+      <c r="P71" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q71" s="31" t="s">
+      <c r="Q71" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R71" s="31" t="s">
+      <c r="R71" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S71" s="31" t="s">
+      <c r="S71" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T71" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31" t="s">
+      <c r="T71" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U71" s="30"/>
+      <c r="V71" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W71" s="50" t="s">
+      <c r="W71" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="X71" s="31" t="s">
+      <c r="X71" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y71" s="33" t="s">
+      <c r="Y71" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z71" s="34" t="s">
+      <c r="Z71" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="AA71" s="31" t="s">
+      <c r="AA71" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="AB71" s="31">
+      <c r="AB71" s="30">
         <v>30052</v>
       </c>
-      <c r="AC71" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD71" s="31" t="b">
+      <c r="AC71" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD71" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE71" s="31" t="s">
+      <c r="AE71" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF71" s="31" t="s">
+      <c r="AF71" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG71" s="31" t="s">
+      <c r="AG71" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH71" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI71" s="31" t="s">
+      <c r="AH71" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI71" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AJ71" s="31"/>
-      <c r="AK71" s="31" t="s">
+      <c r="AJ71" s="30"/>
+      <c r="AK71" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="AL71" s="31">
+      <c r="AL71" s="30">
         <v>10</v>
       </c>
-      <c r="AM71" s="31" t="s">
+      <c r="AM71" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AN71" s="31" t="s">
+      <c r="AN71" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AO71" s="31">
+      <c r="AO71" s="30">
         <v>123456789</v>
       </c>
-      <c r="AP71" s="31" t="s">
+      <c r="AP71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AQ71" s="31"/>
-      <c r="AR71" s="31" t="s">
+      <c r="AQ71" s="30"/>
+      <c r="AR71" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AS71" s="31">
+      <c r="AS71" s="30">
         <v>3305551234</v>
       </c>
-      <c r="AT71" s="31" t="s">
+      <c r="AT71" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AU71" s="31" t="s">
+      <c r="AU71" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="AV71" s="31" t="s">
+      <c r="AV71" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AW71" s="31" t="s">
+      <c r="AW71" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AX71" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY71" s="31"/>
-      <c r="AZ71" s="31"/>
-      <c r="BA71" s="31"/>
-      <c r="BB71" s="31"/>
-      <c r="BC71" s="31"/>
-      <c r="BD71" s="31"/>
-      <c r="BE71" s="31"/>
-      <c r="BF71" s="31"/>
-      <c r="BG71" s="31"/>
-      <c r="BH71" s="31"/>
-      <c r="BI71" s="31"/>
-      <c r="BJ71" s="31"/>
-      <c r="BK71" s="33"/>
-      <c r="BL71" s="33"/>
-      <c r="BM71" s="33"/>
-      <c r="BN71" s="33"/>
-      <c r="BO71" s="33"/>
-      <c r="BP71" s="33"/>
-      <c r="BQ71" s="31" t="s">
+      <c r="AX71" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY71" s="30"/>
+      <c r="AZ71" s="30"/>
+      <c r="BA71" s="30"/>
+      <c r="BB71" s="30"/>
+      <c r="BC71" s="30"/>
+      <c r="BD71" s="30"/>
+      <c r="BE71" s="30"/>
+      <c r="BF71" s="30"/>
+      <c r="BG71" s="30"/>
+      <c r="BH71" s="30"/>
+      <c r="BI71" s="30"/>
+      <c r="BJ71" s="30"/>
+      <c r="BK71" s="32"/>
+      <c r="BL71" s="32"/>
+      <c r="BM71" s="32"/>
+      <c r="BN71" s="32"/>
+      <c r="BO71" s="32"/>
+      <c r="BP71" s="32"/>
+      <c r="BQ71" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR71" s="31">
+      <c r="BR71" s="30">
         <v>1</v>
       </c>
-      <c r="BS71" s="31">
+      <c r="BS71" s="30">
         <v>100</v>
       </c>
-      <c r="BT71" s="31" t="s">
+      <c r="BT71" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU71" s="31" t="s">
+      <c r="BU71" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV71" s="31">
+      <c r="BV71" s="30">
         <v>5</v>
       </c>
-      <c r="BW71" s="31">
+      <c r="BW71" s="30">
         <v>20</v>
       </c>
-      <c r="BX71" s="31">
+      <c r="BX71" s="30">
         <v>15</v>
       </c>
-      <c r="BY71" s="31">
+      <c r="BY71" s="30">
         <v>20</v>
       </c>
-      <c r="BZ71" s="31" t="s">
+      <c r="BZ71" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA71" s="31" t="s">
+      <c r="CA71" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB71" s="31" t="s">
+      <c r="CB71" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="CC71" s="31"/>
-      <c r="CD71" s="31"/>
-      <c r="CE71" s="31"/>
-      <c r="CF71" s="31"/>
-      <c r="CG71" s="31"/>
-      <c r="CH71" s="31"/>
-      <c r="CI71" s="31"/>
-      <c r="CJ71" s="31"/>
-      <c r="CK71" s="31"/>
-      <c r="CL71" s="31"/>
-      <c r="CM71" s="31"/>
-      <c r="CN71" s="31"/>
-      <c r="CO71" s="31"/>
-      <c r="CP71" s="31"/>
-      <c r="CQ71" s="31"/>
-      <c r="CR71" s="31"/>
-      <c r="CS71" s="31"/>
-      <c r="CT71" s="31"/>
-      <c r="CU71" s="31"/>
-      <c r="CV71" s="31"/>
-      <c r="CW71" s="31"/>
-      <c r="CX71" s="31"/>
-      <c r="CY71" s="31"/>
-      <c r="CZ71" s="31"/>
-      <c r="DA71" s="31"/>
-      <c r="DB71" s="35"/>
+      <c r="CC71" s="30"/>
+      <c r="CD71" s="30"/>
+      <c r="CE71" s="30"/>
+      <c r="CF71" s="30"/>
+      <c r="CG71" s="30"/>
+      <c r="CH71" s="30"/>
+      <c r="CI71" s="30"/>
+      <c r="CJ71" s="30"/>
+      <c r="CK71" s="30"/>
+      <c r="CL71" s="30"/>
+      <c r="CM71" s="30"/>
+      <c r="CN71" s="30"/>
+      <c r="CO71" s="30"/>
+      <c r="CP71" s="30"/>
+      <c r="CQ71" s="30"/>
+      <c r="CR71" s="30"/>
+      <c r="CS71" s="30"/>
+      <c r="CT71" s="30"/>
+      <c r="CU71" s="30"/>
+      <c r="CV71" s="30"/>
+      <c r="CW71" s="30"/>
+      <c r="CX71" s="30"/>
+      <c r="CY71" s="30"/>
+      <c r="CZ71" s="30"/>
+      <c r="DA71" s="30"/>
+      <c r="DB71" s="34"/>
     </row>
-    <row r="72" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="31" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F72" s="30">
         <v>323364</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G72" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I72" s="31" t="s">
+      <c r="I72" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="J72" s="31" t="s">
+      <c r="J72" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K72" s="31" t="s">
+      <c r="K72" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L72" s="31">
+      <c r="L72" s="30">
         <v>150</v>
       </c>
-      <c r="M72" s="33" t="s">
+      <c r="M72" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N72" s="33" t="s">
+      <c r="N72" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O72" s="31" t="s">
+      <c r="O72" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P72" s="31" t="s">
+      <c r="P72" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q72" s="31" t="s">
+      <c r="Q72" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R72" s="31" t="s">
+      <c r="R72" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S72" s="31" t="s">
+      <c r="S72" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T72" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31" t="s">
+      <c r="T72" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U72" s="30"/>
+      <c r="V72" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W72" s="50" t="s">
+      <c r="W72" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="X72" s="31" t="s">
+      <c r="X72" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y72" s="33" t="s">
+      <c r="Y72" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z72" s="34" t="s">
+      <c r="Z72" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="AA72" s="31" t="s">
+      <c r="AA72" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="AB72" s="31" t="s">
+      <c r="AB72" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="AC72" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD72" s="31" t="b">
+      <c r="AC72" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD72" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE72" s="31" t="s">
+      <c r="AE72" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF72" s="31" t="s">
+      <c r="AF72" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG72" s="31" t="s">
+      <c r="AG72" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH72" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI72" s="31"/>
-      <c r="AJ72" s="31" t="s">
+      <c r="AH72" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI72" s="30"/>
+      <c r="AJ72" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="AK72" s="31"/>
-      <c r="AL72" s="31"/>
-      <c r="AM72" s="31"/>
-      <c r="AN72" s="31"/>
-      <c r="AO72" s="31"/>
-      <c r="AP72" s="31"/>
-      <c r="AQ72" s="31"/>
-      <c r="AR72" s="31"/>
-      <c r="AS72" s="31"/>
-      <c r="AT72" s="31"/>
-      <c r="AU72" s="31"/>
-      <c r="AV72" s="31"/>
-      <c r="AW72" s="31"/>
-      <c r="AX72" s="31"/>
-      <c r="AY72" s="31"/>
-      <c r="AZ72" s="31"/>
-      <c r="BA72" s="31"/>
-      <c r="BB72" s="31"/>
-      <c r="BC72" s="31"/>
-      <c r="BD72" s="31"/>
-      <c r="BE72" s="31"/>
-      <c r="BF72" s="31"/>
-      <c r="BG72" s="31"/>
-      <c r="BH72" s="31"/>
-      <c r="BI72" s="31"/>
-      <c r="BJ72" s="31"/>
-      <c r="BK72" s="33"/>
-      <c r="BL72" s="33"/>
-      <c r="BM72" s="33"/>
-      <c r="BN72" s="33"/>
-      <c r="BO72" s="33"/>
-      <c r="BP72" s="33"/>
-      <c r="BQ72" s="31" t="s">
+      <c r="AK72" s="30"/>
+      <c r="AL72" s="30"/>
+      <c r="AM72" s="30"/>
+      <c r="AN72" s="30"/>
+      <c r="AO72" s="30"/>
+      <c r="AP72" s="30"/>
+      <c r="AQ72" s="30"/>
+      <c r="AR72" s="30"/>
+      <c r="AS72" s="30"/>
+      <c r="AT72" s="30"/>
+      <c r="AU72" s="30"/>
+      <c r="AV72" s="30"/>
+      <c r="AW72" s="30"/>
+      <c r="AX72" s="30"/>
+      <c r="AY72" s="30"/>
+      <c r="AZ72" s="30"/>
+      <c r="BA72" s="30"/>
+      <c r="BB72" s="30"/>
+      <c r="BC72" s="30"/>
+      <c r="BD72" s="30"/>
+      <c r="BE72" s="30"/>
+      <c r="BF72" s="30"/>
+      <c r="BG72" s="30"/>
+      <c r="BH72" s="30"/>
+      <c r="BI72" s="30"/>
+      <c r="BJ72" s="30"/>
+      <c r="BK72" s="32"/>
+      <c r="BL72" s="32"/>
+      <c r="BM72" s="32"/>
+      <c r="BN72" s="32"/>
+      <c r="BO72" s="32"/>
+      <c r="BP72" s="32"/>
+      <c r="BQ72" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR72" s="31">
+      <c r="BR72" s="30">
         <v>1</v>
       </c>
-      <c r="BS72" s="31">
+      <c r="BS72" s="30">
         <v>100</v>
       </c>
-      <c r="BT72" s="31" t="s">
+      <c r="BT72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU72" s="31" t="s">
+      <c r="BU72" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV72" s="31">
+      <c r="BV72" s="30">
         <v>150</v>
       </c>
-      <c r="BW72" s="31">
+      <c r="BW72" s="30">
         <v>20</v>
       </c>
-      <c r="BX72" s="31">
+      <c r="BX72" s="30">
         <v>15</v>
       </c>
-      <c r="BY72" s="31">
+      <c r="BY72" s="30">
         <v>20</v>
       </c>
-      <c r="BZ72" s="31" t="s">
+      <c r="BZ72" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA72" s="31" t="s">
+      <c r="CA72" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB72" s="31" t="s">
+      <c r="CB72" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="CC72" s="31" t="s">
+      <c r="CC72" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="CD72" s="31"/>
-      <c r="CE72" s="31"/>
-      <c r="CF72" s="31"/>
-      <c r="CG72" s="31"/>
-      <c r="CH72" s="31"/>
-      <c r="CI72" s="31"/>
-      <c r="CJ72" s="31" t="s">
+      <c r="CD72" s="30"/>
+      <c r="CE72" s="30"/>
+      <c r="CF72" s="30"/>
+      <c r="CG72" s="30"/>
+      <c r="CH72" s="30"/>
+      <c r="CI72" s="30"/>
+      <c r="CJ72" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="CK72" s="31">
+      <c r="CK72" s="30">
         <v>1</v>
       </c>
-      <c r="CL72" s="31"/>
-      <c r="CM72" s="31" t="s">
+      <c r="CL72" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="CM72" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="CN72" s="31">
+      <c r="CN72" s="30">
         <v>1</v>
       </c>
-      <c r="CO72" s="31">
+      <c r="CO72" s="30">
         <v>1888</v>
       </c>
-      <c r="CP72" s="31">
+      <c r="CP72" s="30">
         <v>1</v>
       </c>
-      <c r="CQ72" s="31" t="s">
+      <c r="CQ72" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="CR72" s="31">
+      <c r="CR72" s="30">
         <v>1</v>
       </c>
-      <c r="CS72" s="31">
+      <c r="CS72" s="30">
         <v>680</v>
       </c>
-      <c r="CT72" s="31" t="s">
+      <c r="CT72" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="CU72" s="31">
+      <c r="CU72" s="30">
         <v>6.1</v>
       </c>
-      <c r="CV72" s="31">
+      <c r="CV72" s="30">
         <v>1</v>
       </c>
-      <c r="CW72" s="31" t="s">
+      <c r="CW72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="CX72" s="31" t="s">
+      <c r="CX72" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="CY72" s="31" t="s">
+      <c r="CY72" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="CZ72" s="31" t="s">
+      <c r="CZ72" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="DA72" s="31">
+      <c r="DA72" s="30">
         <v>9015551234</v>
       </c>
-      <c r="DB72" s="35"/>
+      <c r="DB72" s="34"/>
     </row>
     <row r="73" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="31" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="31">
+      <c r="F73" s="30">
         <v>323367</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31" t="s">
+      <c r="G73" s="30"/>
+      <c r="H73" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="I73" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="K73" s="31" t="s">
+      <c r="K73" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L73" s="31">
+      <c r="L73" s="30">
         <v>20</v>
       </c>
-      <c r="M73" s="33" t="s">
+      <c r="M73" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N73" s="33" t="s">
+      <c r="N73" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O73" s="31" t="s">
+      <c r="O73" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P73" s="31" t="s">
+      <c r="P73" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q73" s="31" t="s">
+      <c r="Q73" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R73" s="31" t="s">
+      <c r="R73" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S73" s="31" t="s">
+      <c r="S73" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T73" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U73" s="31" t="b">
+      <c r="T73" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U73" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="V73" s="31" t="s">
+      <c r="V73" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W73" s="50" t="s">
+      <c r="W73" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="X73" s="31" t="s">
+      <c r="X73" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y73" s="33" t="s">
+      <c r="Y73" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z73" s="32" t="s">
+      <c r="Z73" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="AA73" s="31" t="s">
+      <c r="AA73" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AB73" s="31">
+      <c r="AB73" s="30">
         <v>80002</v>
       </c>
-      <c r="AC73" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD73" s="31" t="b">
+      <c r="AC73" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD73" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="AE73" s="31" t="s">
+      <c r="AE73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF73" s="31" t="s">
+      <c r="AF73" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG73" s="31" t="s">
+      <c r="AG73" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH73" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI73" s="31" t="s">
+      <c r="AH73" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI73" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AJ73" s="31"/>
-      <c r="AK73" s="31" t="s">
+      <c r="AJ73" s="30"/>
+      <c r="AK73" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="AL73" s="31" t="s">
+      <c r="AL73" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="AM73" s="31" t="s">
+      <c r="AM73" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="AN73" s="31" t="s">
+      <c r="AN73" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AO73" s="31">
+      <c r="AO73" s="30">
         <v>123456789</v>
       </c>
-      <c r="AP73" s="31" t="s">
+      <c r="AP73" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AQ73" s="31"/>
-      <c r="AR73" s="31" t="s">
+      <c r="AQ73" s="30"/>
+      <c r="AR73" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AS73" s="31">
+      <c r="AS73" s="30">
         <v>3305551234</v>
       </c>
-      <c r="AT73" s="31" t="s">
+      <c r="AT73" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AU73" s="31" t="s">
+      <c r="AU73" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="AV73" s="31" t="s">
+      <c r="AV73" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AW73" s="31" t="s">
+      <c r="AW73" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AX73" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY73" s="31"/>
-      <c r="AZ73" s="31"/>
-      <c r="BA73" s="31"/>
-      <c r="BB73" s="31"/>
-      <c r="BC73" s="31"/>
-      <c r="BD73" s="31"/>
-      <c r="BE73" s="31"/>
-      <c r="BF73" s="31"/>
-      <c r="BG73" s="31"/>
-      <c r="BH73" s="31"/>
-      <c r="BI73" s="31"/>
-      <c r="BJ73" s="31"/>
-      <c r="BK73" s="33"/>
-      <c r="BL73" s="33"/>
-      <c r="BM73" s="33"/>
-      <c r="BN73" s="33"/>
-      <c r="BO73" s="33"/>
-      <c r="BP73" s="33"/>
-      <c r="BQ73" s="31" t="s">
+      <c r="AX73" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY73" s="30"/>
+      <c r="AZ73" s="30"/>
+      <c r="BA73" s="30"/>
+      <c r="BB73" s="30"/>
+      <c r="BC73" s="30"/>
+      <c r="BD73" s="30"/>
+      <c r="BE73" s="30"/>
+      <c r="BF73" s="30"/>
+      <c r="BG73" s="30"/>
+      <c r="BH73" s="30"/>
+      <c r="BI73" s="30"/>
+      <c r="BJ73" s="30"/>
+      <c r="BK73" s="32"/>
+      <c r="BL73" s="32"/>
+      <c r="BM73" s="32"/>
+      <c r="BN73" s="32"/>
+      <c r="BO73" s="32"/>
+      <c r="BP73" s="32"/>
+      <c r="BQ73" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR73" s="31">
+      <c r="BR73" s="30">
         <v>2</v>
       </c>
-      <c r="BS73" s="31" t="s">
+      <c r="BS73" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="BT73" s="31" t="s">
+      <c r="BT73" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU73" s="31" t="s">
+      <c r="BU73" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV73" s="31" t="s">
+      <c r="BV73" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="BW73" s="31"/>
-      <c r="BX73" s="31"/>
-      <c r="BY73" s="31"/>
-      <c r="BZ73" s="31"/>
-      <c r="CA73" s="31" t="s">
+      <c r="BW73" s="30"/>
+      <c r="BX73" s="30"/>
+      <c r="BY73" s="30"/>
+      <c r="BZ73" s="30"/>
+      <c r="CA73" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB73" s="31" t="s">
+      <c r="CB73" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="CC73" s="31"/>
-      <c r="CD73" s="31"/>
-      <c r="CE73" s="31"/>
-      <c r="CF73" s="31"/>
-      <c r="CG73" s="31"/>
-      <c r="CH73" s="31"/>
-      <c r="CI73" s="31"/>
-      <c r="CJ73" s="31"/>
-      <c r="CK73" s="31"/>
-      <c r="CL73" s="31"/>
-      <c r="CM73" s="31"/>
-      <c r="CN73" s="31"/>
-      <c r="CO73" s="31"/>
-      <c r="CP73" s="31"/>
-      <c r="CQ73" s="31"/>
-      <c r="CR73" s="31"/>
-      <c r="CS73" s="31"/>
-      <c r="CT73" s="31"/>
-      <c r="CU73" s="31"/>
-      <c r="CV73" s="31"/>
-      <c r="CW73" s="31"/>
-      <c r="CX73" s="31"/>
-      <c r="CY73" s="31"/>
-      <c r="CZ73" s="31"/>
-      <c r="DA73" s="31"/>
-      <c r="DB73" s="35"/>
+      <c r="CC73" s="30"/>
+      <c r="CD73" s="30"/>
+      <c r="CE73" s="30"/>
+      <c r="CF73" s="30"/>
+      <c r="CG73" s="30"/>
+      <c r="CH73" s="30"/>
+      <c r="CI73" s="30"/>
+      <c r="CJ73" s="30"/>
+      <c r="CK73" s="30"/>
+      <c r="CL73" s="30"/>
+      <c r="CM73" s="30"/>
+      <c r="CN73" s="30"/>
+      <c r="CO73" s="30"/>
+      <c r="CP73" s="30"/>
+      <c r="CQ73" s="30"/>
+      <c r="CR73" s="30"/>
+      <c r="CS73" s="30"/>
+      <c r="CT73" s="30"/>
+      <c r="CU73" s="30"/>
+      <c r="CV73" s="30"/>
+      <c r="CW73" s="30"/>
+      <c r="CX73" s="30"/>
+      <c r="CY73" s="30"/>
+      <c r="CZ73" s="30"/>
+      <c r="DA73" s="30"/>
+      <c r="DB73" s="34"/>
     </row>
     <row r="74" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="31" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F74" s="30">
         <v>323369</v>
       </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31" t="s">
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K74" s="31" t="s">
+      <c r="K74" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L74" s="31">
+      <c r="L74" s="30">
         <v>24</v>
       </c>
-      <c r="M74" s="33" t="s">
+      <c r="M74" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N74" s="33" t="s">
+      <c r="N74" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O74" s="31" t="s">
+      <c r="O74" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P74" s="31" t="s">
+      <c r="P74" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q74" s="31" t="s">
+      <c r="Q74" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R74" s="31" t="s">
+      <c r="R74" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S74" s="31" t="s">
+      <c r="S74" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31" t="s">
+      <c r="T74" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W74" s="50" t="s">
+      <c r="W74" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="X74" s="31" t="s">
+      <c r="X74" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y74" s="33" t="s">
+      <c r="Y74" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z74" s="32" t="s">
+      <c r="Z74" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="AA74" s="31" t="s">
+      <c r="AA74" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="AB74" s="31">
+      <c r="AB74" s="30">
         <v>30052</v>
       </c>
-      <c r="AC74" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD74" s="31" t="b">
+      <c r="AC74" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD74" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE74" s="31" t="s">
+      <c r="AE74" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF74" s="31" t="s">
+      <c r="AF74" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG74" s="31" t="s">
+      <c r="AG74" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH74" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI74" s="31"/>
-      <c r="AJ74" s="31"/>
-      <c r="AK74" s="31"/>
-      <c r="AL74" s="31"/>
-      <c r="AM74" s="31"/>
-      <c r="AN74" s="31"/>
-      <c r="AO74" s="31"/>
-      <c r="AP74" s="31"/>
-      <c r="AQ74" s="31"/>
-      <c r="AR74" s="31"/>
-      <c r="AS74" s="31"/>
-      <c r="AT74" s="31"/>
-      <c r="AU74" s="31"/>
-      <c r="AV74" s="31"/>
-      <c r="AW74" s="31"/>
-      <c r="AX74" s="31"/>
-      <c r="AY74" s="31"/>
-      <c r="AZ74" s="31"/>
-      <c r="BA74" s="31"/>
-      <c r="BB74" s="31"/>
-      <c r="BC74" s="31"/>
-      <c r="BD74" s="31"/>
-      <c r="BE74" s="31"/>
-      <c r="BF74" s="31"/>
-      <c r="BG74" s="31"/>
-      <c r="BH74" s="31"/>
-      <c r="BI74" s="31"/>
-      <c r="BJ74" s="31"/>
-      <c r="BK74" s="33"/>
-      <c r="BL74" s="33"/>
-      <c r="BM74" s="33"/>
-      <c r="BN74" s="33"/>
-      <c r="BO74" s="33"/>
-      <c r="BP74" s="33"/>
-      <c r="BQ74" s="31" t="s">
+      <c r="AH74" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="30"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="30"/>
+      <c r="AN74" s="30"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="30"/>
+      <c r="AQ74" s="30"/>
+      <c r="AR74" s="30"/>
+      <c r="AS74" s="30"/>
+      <c r="AT74" s="30"/>
+      <c r="AU74" s="30"/>
+      <c r="AV74" s="30"/>
+      <c r="AW74" s="30"/>
+      <c r="AX74" s="30"/>
+      <c r="AY74" s="30"/>
+      <c r="AZ74" s="30"/>
+      <c r="BA74" s="30"/>
+      <c r="BB74" s="30"/>
+      <c r="BC74" s="30"/>
+      <c r="BD74" s="30"/>
+      <c r="BE74" s="30"/>
+      <c r="BF74" s="30"/>
+      <c r="BG74" s="30"/>
+      <c r="BH74" s="30"/>
+      <c r="BI74" s="30"/>
+      <c r="BJ74" s="30"/>
+      <c r="BK74" s="32"/>
+      <c r="BL74" s="32"/>
+      <c r="BM74" s="32"/>
+      <c r="BN74" s="32"/>
+      <c r="BO74" s="32"/>
+      <c r="BP74" s="32"/>
+      <c r="BQ74" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR74" s="31">
+      <c r="BR74" s="30">
         <v>2</v>
       </c>
-      <c r="BS74" s="31" t="s">
+      <c r="BS74" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="BT74" s="31" t="s">
+      <c r="BT74" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU74" s="31" t="s">
+      <c r="BU74" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV74" s="31" t="s">
+      <c r="BV74" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="BW74" s="31" t="s">
+      <c r="BW74" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BX74" s="31" t="s">
+      <c r="BX74" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="BY74" s="31" t="s">
+      <c r="BY74" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BZ74" s="31" t="s">
+      <c r="BZ74" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA74" s="31" t="s">
+      <c r="CA74" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB74" s="31" t="s">
+      <c r="CB74" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="CC74" s="31" t="s">
+      <c r="CC74" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="CD74" s="31"/>
-      <c r="CE74" s="31"/>
-      <c r="CF74" s="31"/>
-      <c r="CG74" s="31"/>
-      <c r="CH74" s="31"/>
-      <c r="CI74" s="31"/>
-      <c r="CJ74" s="31"/>
-      <c r="CK74" s="31"/>
-      <c r="CL74" s="31"/>
-      <c r="CM74" s="31"/>
-      <c r="CN74" s="31"/>
-      <c r="CO74" s="31"/>
-      <c r="CP74" s="31"/>
-      <c r="CQ74" s="31"/>
-      <c r="CR74" s="31"/>
-      <c r="CS74" s="31"/>
-      <c r="CT74" s="31"/>
-      <c r="CU74" s="31"/>
-      <c r="CV74" s="31"/>
-      <c r="CW74" s="31"/>
-      <c r="CX74" s="31"/>
-      <c r="CY74" s="31"/>
-      <c r="CZ74" s="31"/>
-      <c r="DA74" s="31"/>
-      <c r="DB74" s="35"/>
+      <c r="CD74" s="30"/>
+      <c r="CE74" s="30"/>
+      <c r="CF74" s="30"/>
+      <c r="CG74" s="30"/>
+      <c r="CH74" s="30"/>
+      <c r="CI74" s="30"/>
+      <c r="CJ74" s="30"/>
+      <c r="CK74" s="30"/>
+      <c r="CL74" s="30"/>
+      <c r="CM74" s="30"/>
+      <c r="CN74" s="30"/>
+      <c r="CO74" s="30"/>
+      <c r="CP74" s="30"/>
+      <c r="CQ74" s="30"/>
+      <c r="CR74" s="30"/>
+      <c r="CS74" s="30"/>
+      <c r="CT74" s="30"/>
+      <c r="CU74" s="30"/>
+      <c r="CV74" s="30"/>
+      <c r="CW74" s="30"/>
+      <c r="CX74" s="30"/>
+      <c r="CY74" s="30"/>
+      <c r="CZ74" s="30"/>
+      <c r="DA74" s="30"/>
+      <c r="DB74" s="34"/>
     </row>
     <row r="75" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="31" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="30">
         <v>323371</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31" t="s">
+      <c r="G75" s="30"/>
+      <c r="H75" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I75" s="31" t="s">
+      <c r="I75" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="31" t="s">
+      <c r="J75" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K75" s="31" t="s">
+      <c r="K75" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L75" s="31">
+      <c r="L75" s="30">
         <v>171</v>
       </c>
-      <c r="M75" s="33" t="s">
+      <c r="M75" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N75" s="33" t="s">
+      <c r="N75" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O75" s="31" t="s">
+      <c r="O75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P75" s="31" t="s">
+      <c r="P75" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q75" s="31" t="s">
+      <c r="Q75" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R75" s="31" t="s">
+      <c r="R75" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S75" s="31" t="s">
+      <c r="S75" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T75" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31" t="s">
+      <c r="T75" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W75" s="50" t="s">
+      <c r="W75" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="X75" s="31" t="s">
+      <c r="X75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y75" s="33" t="s">
+      <c r="Y75" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z75" s="32" t="s">
+      <c r="Z75" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="AA75" s="31" t="s">
+      <c r="AA75" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="AB75" s="31">
+      <c r="AB75" s="30">
         <v>15101</v>
       </c>
-      <c r="AC75" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD75" s="31" t="b">
+      <c r="AC75" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD75" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE75" s="31" t="s">
+      <c r="AE75" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="AF75" s="31">
+      <c r="AF75" s="30">
         <v>150067600</v>
       </c>
-      <c r="AG75" s="31" t="s">
+      <c r="AG75" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH75" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI75" s="31" t="s">
+      <c r="AH75" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI75" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AJ75" s="31"/>
-      <c r="AK75" s="31"/>
-      <c r="AL75" s="31"/>
-      <c r="AM75" s="31"/>
-      <c r="AN75" s="31"/>
-      <c r="AO75" s="31"/>
-      <c r="AP75" s="31"/>
-      <c r="AQ75" s="31"/>
-      <c r="AR75" s="31"/>
-      <c r="AS75" s="31"/>
-      <c r="AT75" s="31"/>
-      <c r="AU75" s="31"/>
-      <c r="AV75" s="31"/>
-      <c r="AW75" s="31"/>
-      <c r="AX75" s="31"/>
-      <c r="AY75" s="31"/>
-      <c r="AZ75" s="31"/>
-      <c r="BA75" s="31"/>
-      <c r="BB75" s="31"/>
-      <c r="BC75" s="31"/>
-      <c r="BD75" s="31"/>
-      <c r="BE75" s="31"/>
-      <c r="BF75" s="31"/>
-      <c r="BG75" s="31"/>
-      <c r="BH75" s="31"/>
-      <c r="BI75" s="31"/>
-      <c r="BJ75" s="31"/>
-      <c r="BK75" s="33"/>
-      <c r="BL75" s="33"/>
-      <c r="BM75" s="33"/>
-      <c r="BN75" s="33"/>
-      <c r="BO75" s="33"/>
-      <c r="BP75" s="33"/>
-      <c r="BQ75" s="31" t="s">
+      <c r="AJ75" s="30"/>
+      <c r="AK75" s="30"/>
+      <c r="AL75" s="30"/>
+      <c r="AM75" s="30"/>
+      <c r="AN75" s="30"/>
+      <c r="AO75" s="30"/>
+      <c r="AP75" s="30"/>
+      <c r="AQ75" s="30"/>
+      <c r="AR75" s="30"/>
+      <c r="AS75" s="30"/>
+      <c r="AT75" s="30"/>
+      <c r="AU75" s="30"/>
+      <c r="AV75" s="30"/>
+      <c r="AW75" s="30"/>
+      <c r="AX75" s="30"/>
+      <c r="AY75" s="30"/>
+      <c r="AZ75" s="30"/>
+      <c r="BA75" s="30"/>
+      <c r="BB75" s="30"/>
+      <c r="BC75" s="30"/>
+      <c r="BD75" s="30"/>
+      <c r="BE75" s="30"/>
+      <c r="BF75" s="30"/>
+      <c r="BG75" s="30"/>
+      <c r="BH75" s="30"/>
+      <c r="BI75" s="30"/>
+      <c r="BJ75" s="30"/>
+      <c r="BK75" s="32"/>
+      <c r="BL75" s="32"/>
+      <c r="BM75" s="32"/>
+      <c r="BN75" s="32"/>
+      <c r="BO75" s="32"/>
+      <c r="BP75" s="32"/>
+      <c r="BQ75" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR75" s="31">
+      <c r="BR75" s="30">
         <v>1</v>
       </c>
-      <c r="BS75" s="31">
+      <c r="BS75" s="30">
         <v>100</v>
       </c>
-      <c r="BT75" s="31" t="s">
+      <c r="BT75" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU75" s="31" t="s">
+      <c r="BU75" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV75" s="31">
+      <c r="BV75" s="30">
         <v>171</v>
       </c>
-      <c r="BW75" s="31">
+      <c r="BW75" s="30">
         <v>20</v>
       </c>
-      <c r="BX75" s="31">
+      <c r="BX75" s="30">
         <v>20</v>
       </c>
-      <c r="BY75" s="31">
+      <c r="BY75" s="30">
         <v>20</v>
       </c>
-      <c r="BZ75" s="31" t="s">
+      <c r="BZ75" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA75" s="31" t="s">
+      <c r="CA75" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB75" s="31" t="s">
+      <c r="CB75" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="CC75" s="31"/>
-      <c r="CD75" s="31"/>
-      <c r="CE75" s="31"/>
-      <c r="CF75" s="31"/>
-      <c r="CG75" s="31"/>
-      <c r="CH75" s="31"/>
-      <c r="CI75" s="31"/>
-      <c r="CJ75" s="31"/>
-      <c r="CK75" s="31"/>
-      <c r="CL75" s="31"/>
-      <c r="CM75" s="31"/>
-      <c r="CN75" s="31"/>
-      <c r="CO75" s="31"/>
-      <c r="CP75" s="31"/>
-      <c r="CQ75" s="31"/>
-      <c r="CR75" s="31"/>
-      <c r="CS75" s="31"/>
-      <c r="CT75" s="31"/>
-      <c r="CU75" s="31"/>
-      <c r="CV75" s="31"/>
-      <c r="CW75" s="31"/>
-      <c r="CX75" s="31"/>
-      <c r="CY75" s="31"/>
-      <c r="CZ75" s="31"/>
-      <c r="DA75" s="31"/>
-      <c r="DB75" s="35"/>
+      <c r="CC75" s="30"/>
+      <c r="CD75" s="30"/>
+      <c r="CE75" s="30"/>
+      <c r="CF75" s="30"/>
+      <c r="CG75" s="30"/>
+      <c r="CH75" s="30"/>
+      <c r="CI75" s="30"/>
+      <c r="CJ75" s="30"/>
+      <c r="CK75" s="30"/>
+      <c r="CL75" s="30"/>
+      <c r="CM75" s="30"/>
+      <c r="CN75" s="30"/>
+      <c r="CO75" s="30"/>
+      <c r="CP75" s="30"/>
+      <c r="CQ75" s="30"/>
+      <c r="CR75" s="30"/>
+      <c r="CS75" s="30"/>
+      <c r="CT75" s="30"/>
+      <c r="CU75" s="30"/>
+      <c r="CV75" s="30"/>
+      <c r="CW75" s="30"/>
+      <c r="CX75" s="30"/>
+      <c r="CY75" s="30"/>
+      <c r="CZ75" s="30"/>
+      <c r="DA75" s="30"/>
+      <c r="DB75" s="34"/>
     </row>
     <row r="76" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="62"/>
-      <c r="C76" s="31" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="30">
         <v>323372</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31" t="s">
+      <c r="G76" s="30"/>
+      <c r="H76" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I76" s="31" t="s">
+      <c r="I76" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="K76" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L76" s="31">
+      <c r="L76" s="30">
         <v>251</v>
       </c>
-      <c r="M76" s="33" t="s">
+      <c r="M76" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N76" s="33" t="s">
+      <c r="N76" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O76" s="31" t="s">
+      <c r="O76" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P76" s="31" t="s">
+      <c r="P76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q76" s="31" t="s">
+      <c r="Q76" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R76" s="31" t="s">
+      <c r="R76" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S76" s="31" t="s">
+      <c r="S76" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T76" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31" t="s">
+      <c r="T76" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W76" s="50" t="s">
+      <c r="W76" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="X76" s="31" t="s">
+      <c r="X76" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y76" s="33" t="s">
+      <c r="Y76" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z76" s="32" t="s">
+      <c r="Z76" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="AA76" s="31" t="s">
+      <c r="AA76" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="AB76" s="31">
+      <c r="AB76" s="30">
         <v>29730</v>
       </c>
-      <c r="AC76" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD76" s="31" t="b">
+      <c r="AC76" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD76" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE76" s="31" t="s">
+      <c r="AE76" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF76" s="31" t="s">
+      <c r="AF76" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG76" s="31" t="s">
+      <c r="AG76" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH76" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI76" s="31" t="s">
+      <c r="AH76" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI76" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AJ76" s="31"/>
-      <c r="AK76" s="31" t="s">
+      <c r="AJ76" s="30"/>
+      <c r="AK76" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="AL76" s="31">
+      <c r="AL76" s="30">
         <v>350.5</v>
       </c>
-      <c r="AM76" s="31" t="s">
+      <c r="AM76" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AN76" s="31" t="s">
+      <c r="AN76" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AO76" s="31">
+      <c r="AO76" s="30">
         <v>123456789</v>
       </c>
-      <c r="AP76" s="31" t="s">
+      <c r="AP76" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AQ76" s="31"/>
-      <c r="AR76" s="31" t="s">
+      <c r="AQ76" s="30"/>
+      <c r="AR76" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AS76" s="31">
+      <c r="AS76" s="30">
         <v>3305551234</v>
       </c>
-      <c r="AT76" s="31" t="s">
+      <c r="AT76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AU76" s="31" t="s">
+      <c r="AU76" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="AV76" s="31" t="s">
+      <c r="AV76" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AW76" s="31" t="s">
+      <c r="AW76" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AX76" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY76" s="31"/>
-      <c r="AZ76" s="31"/>
-      <c r="BA76" s="31"/>
-      <c r="BB76" s="31"/>
-      <c r="BC76" s="31"/>
-      <c r="BD76" s="31"/>
-      <c r="BE76" s="31"/>
-      <c r="BF76" s="31"/>
-      <c r="BG76" s="31"/>
-      <c r="BH76" s="31"/>
-      <c r="BI76" s="31"/>
-      <c r="BJ76" s="31"/>
-      <c r="BK76" s="33"/>
-      <c r="BL76" s="33"/>
-      <c r="BM76" s="33"/>
-      <c r="BN76" s="33"/>
-      <c r="BO76" s="33"/>
-      <c r="BP76" s="33"/>
-      <c r="BQ76" s="31" t="s">
+      <c r="AX76" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY76" s="30"/>
+      <c r="AZ76" s="30"/>
+      <c r="BA76" s="30"/>
+      <c r="BB76" s="30"/>
+      <c r="BC76" s="30"/>
+      <c r="BD76" s="30"/>
+      <c r="BE76" s="30"/>
+      <c r="BF76" s="30"/>
+      <c r="BG76" s="30"/>
+      <c r="BH76" s="30"/>
+      <c r="BI76" s="30"/>
+      <c r="BJ76" s="30"/>
+      <c r="BK76" s="32"/>
+      <c r="BL76" s="32"/>
+      <c r="BM76" s="32"/>
+      <c r="BN76" s="32"/>
+      <c r="BO76" s="32"/>
+      <c r="BP76" s="32"/>
+      <c r="BQ76" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR76" s="31">
+      <c r="BR76" s="30">
         <v>1</v>
       </c>
-      <c r="BS76" s="31">
+      <c r="BS76" s="30">
         <v>100</v>
       </c>
-      <c r="BT76" s="31" t="s">
+      <c r="BT76" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU76" s="31" t="s">
+      <c r="BU76" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV76" s="31">
+      <c r="BV76" s="30">
         <v>251</v>
       </c>
-      <c r="BW76" s="31">
+      <c r="BW76" s="30">
         <v>20</v>
       </c>
-      <c r="BX76" s="31">
+      <c r="BX76" s="30">
         <v>20</v>
       </c>
-      <c r="BY76" s="31">
+      <c r="BY76" s="30">
         <v>20</v>
       </c>
-      <c r="BZ76" s="31" t="s">
+      <c r="BZ76" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA76" s="31" t="s">
+      <c r="CA76" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB76" s="31" t="s">
+      <c r="CB76" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="CC76" s="31"/>
-      <c r="CD76" s="31"/>
-      <c r="CE76" s="31"/>
-      <c r="CF76" s="31"/>
-      <c r="CG76" s="31"/>
-      <c r="CH76" s="31"/>
-      <c r="CI76" s="31"/>
-      <c r="CJ76" s="31"/>
-      <c r="CK76" s="31"/>
-      <c r="CL76" s="31"/>
-      <c r="CM76" s="31"/>
-      <c r="CN76" s="31"/>
-      <c r="CO76" s="31"/>
-      <c r="CP76" s="31"/>
-      <c r="CQ76" s="31"/>
-      <c r="CR76" s="31"/>
-      <c r="CS76" s="31"/>
-      <c r="CT76" s="31"/>
-      <c r="CU76" s="31"/>
-      <c r="CV76" s="31"/>
-      <c r="CW76" s="31"/>
-      <c r="CX76" s="31"/>
-      <c r="CY76" s="31"/>
-      <c r="CZ76" s="31"/>
-      <c r="DA76" s="31"/>
-      <c r="DB76" s="35"/>
+      <c r="CC76" s="30"/>
+      <c r="CD76" s="30"/>
+      <c r="CE76" s="30"/>
+      <c r="CF76" s="30"/>
+      <c r="CG76" s="30"/>
+      <c r="CH76" s="30"/>
+      <c r="CI76" s="30"/>
+      <c r="CJ76" s="30"/>
+      <c r="CK76" s="30"/>
+      <c r="CL76" s="30"/>
+      <c r="CM76" s="30"/>
+      <c r="CN76" s="30"/>
+      <c r="CO76" s="30"/>
+      <c r="CP76" s="30"/>
+      <c r="CQ76" s="30"/>
+      <c r="CR76" s="30"/>
+      <c r="CS76" s="30"/>
+      <c r="CT76" s="30"/>
+      <c r="CU76" s="30"/>
+      <c r="CV76" s="30"/>
+      <c r="CW76" s="30"/>
+      <c r="CX76" s="30"/>
+      <c r="CY76" s="30"/>
+      <c r="CZ76" s="30"/>
+      <c r="DA76" s="30"/>
+      <c r="DB76" s="34"/>
     </row>
     <row r="77" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="31" t="s">
+      <c r="B77" s="65"/>
+      <c r="C77" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="30">
         <v>323374</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31" t="s">
+      <c r="G77" s="30"/>
+      <c r="H77" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="31" t="s">
+      <c r="I77" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="J77" s="31" t="s">
+      <c r="J77" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K77" s="31" t="s">
+      <c r="K77" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L77" s="31">
+      <c r="L77" s="30">
         <v>300</v>
       </c>
-      <c r="M77" s="33" t="s">
+      <c r="M77" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N77" s="33" t="s">
+      <c r="N77" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O77" s="31" t="s">
+      <c r="O77" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P77" s="31" t="s">
+      <c r="P77" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q77" s="31" t="s">
+      <c r="Q77" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R77" s="31" t="s">
+      <c r="R77" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S77" s="31" t="s">
+      <c r="S77" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T77" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31" t="s">
+      <c r="T77" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W77" s="50" t="s">
+      <c r="W77" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="X77" s="31" t="s">
+      <c r="X77" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y77" s="33" t="s">
+      <c r="Y77" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z77" s="32" t="s">
+      <c r="Z77" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="AA77" s="31" t="s">
+      <c r="AA77" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AB77" s="31">
+      <c r="AB77" s="30">
         <v>10010</v>
       </c>
-      <c r="AC77" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD77" s="31" t="b">
+      <c r="AC77" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD77" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE77" s="31" t="s">
+      <c r="AE77" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="AF77" s="31">
+      <c r="AF77" s="30">
         <v>605517846</v>
       </c>
-      <c r="AG77" s="31" t="s">
+      <c r="AG77" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH77" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI77" s="31" t="s">
+      <c r="AH77" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI77" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="AJ77" s="31"/>
-      <c r="AK77" s="31"/>
-      <c r="AL77" s="31"/>
-      <c r="AM77" s="31"/>
-      <c r="AN77" s="31"/>
-      <c r="AO77" s="31"/>
-      <c r="AP77" s="31"/>
-      <c r="AQ77" s="31"/>
-      <c r="AR77" s="31"/>
-      <c r="AS77" s="31"/>
-      <c r="AT77" s="31"/>
-      <c r="AU77" s="31"/>
-      <c r="AV77" s="31"/>
-      <c r="AW77" s="31"/>
-      <c r="AX77" s="31"/>
-      <c r="AY77" s="31"/>
-      <c r="AZ77" s="31"/>
-      <c r="BA77" s="31" t="s">
+      <c r="AJ77" s="30"/>
+      <c r="AK77" s="30"/>
+      <c r="AL77" s="30"/>
+      <c r="AM77" s="30"/>
+      <c r="AN77" s="30"/>
+      <c r="AO77" s="30"/>
+      <c r="AP77" s="30"/>
+      <c r="AQ77" s="30"/>
+      <c r="AR77" s="30"/>
+      <c r="AS77" s="30"/>
+      <c r="AT77" s="30"/>
+      <c r="AU77" s="30"/>
+      <c r="AV77" s="30"/>
+      <c r="AW77" s="30"/>
+      <c r="AX77" s="30"/>
+      <c r="AY77" s="30"/>
+      <c r="AZ77" s="30"/>
+      <c r="BA77" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="BB77" s="31">
+      <c r="BB77" s="30">
         <v>9012633035</v>
       </c>
-      <c r="BC77" s="31" t="s">
+      <c r="BC77" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="BD77" s="31">
+      <c r="BD77" s="30">
         <v>9012633035</v>
       </c>
-      <c r="BE77" s="31" t="s">
+      <c r="BE77" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="BF77" s="31" t="s">
+      <c r="BF77" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="BG77" s="31" t="s">
+      <c r="BG77" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="BH77" s="31">
+      <c r="BH77" s="30">
         <v>10010</v>
       </c>
-      <c r="BI77" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="BJ77" s="31"/>
-      <c r="BK77" s="33"/>
-      <c r="BL77" s="33"/>
-      <c r="BM77" s="33"/>
-      <c r="BN77" s="33"/>
-      <c r="BO77" s="33"/>
-      <c r="BP77" s="33"/>
-      <c r="BQ77" s="31" t="s">
+      <c r="BI77" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ77" s="30"/>
+      <c r="BK77" s="32"/>
+      <c r="BL77" s="32"/>
+      <c r="BM77" s="32"/>
+      <c r="BN77" s="32"/>
+      <c r="BO77" s="32"/>
+      <c r="BP77" s="32"/>
+      <c r="BQ77" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR77" s="31">
+      <c r="BR77" s="30">
         <v>1</v>
       </c>
-      <c r="BS77" s="31">
+      <c r="BS77" s="30">
         <v>100</v>
       </c>
-      <c r="BT77" s="31" t="s">
+      <c r="BT77" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU77" s="31" t="s">
+      <c r="BU77" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV77" s="31">
+      <c r="BV77" s="30">
         <v>300</v>
       </c>
-      <c r="BW77" s="31">
+      <c r="BW77" s="30">
         <v>20</v>
       </c>
-      <c r="BX77" s="31">
+      <c r="BX77" s="30">
         <v>20</v>
       </c>
-      <c r="BY77" s="31">
+      <c r="BY77" s="30">
         <v>20</v>
       </c>
-      <c r="BZ77" s="31" t="s">
+      <c r="BZ77" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA77" s="31" t="s">
+      <c r="CA77" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB77" s="31" t="s">
+      <c r="CB77" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="CC77" s="31"/>
-      <c r="CD77" s="31"/>
-      <c r="CE77" s="31"/>
-      <c r="CF77" s="31"/>
-      <c r="CG77" s="31"/>
-      <c r="CH77" s="31"/>
-      <c r="CI77" s="31"/>
-      <c r="CJ77" s="31"/>
-      <c r="CK77" s="31"/>
-      <c r="CL77" s="31"/>
-      <c r="CM77" s="31"/>
-      <c r="CN77" s="31"/>
-      <c r="CO77" s="31"/>
-      <c r="CP77" s="31"/>
-      <c r="CQ77" s="31"/>
-      <c r="CR77" s="31"/>
-      <c r="CS77" s="31"/>
-      <c r="CT77" s="31"/>
-      <c r="CU77" s="31"/>
-      <c r="CV77" s="31"/>
-      <c r="CW77" s="31"/>
-      <c r="CX77" s="31"/>
-      <c r="CY77" s="31"/>
-      <c r="CZ77" s="31"/>
-      <c r="DA77" s="31"/>
-      <c r="DB77" s="35"/>
+      <c r="CC77" s="30"/>
+      <c r="CD77" s="30"/>
+      <c r="CE77" s="30"/>
+      <c r="CF77" s="30"/>
+      <c r="CG77" s="30"/>
+      <c r="CH77" s="30"/>
+      <c r="CI77" s="30"/>
+      <c r="CJ77" s="30"/>
+      <c r="CK77" s="30"/>
+      <c r="CL77" s="30"/>
+      <c r="CM77" s="30"/>
+      <c r="CN77" s="30"/>
+      <c r="CO77" s="30"/>
+      <c r="CP77" s="30"/>
+      <c r="CQ77" s="30"/>
+      <c r="CR77" s="30"/>
+      <c r="CS77" s="30"/>
+      <c r="CT77" s="30"/>
+      <c r="CU77" s="30"/>
+      <c r="CV77" s="30"/>
+      <c r="CW77" s="30"/>
+      <c r="CX77" s="30"/>
+      <c r="CY77" s="30"/>
+      <c r="CZ77" s="30"/>
+      <c r="DA77" s="30"/>
+      <c r="DB77" s="34"/>
     </row>
     <row r="78" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="31" t="s">
+      <c r="B78" s="65"/>
+      <c r="C78" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="30">
         <v>323375</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31" t="s">
+      <c r="G78" s="30"/>
+      <c r="H78" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I78" s="31" t="s">
+      <c r="I78" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="J78" s="31" t="s">
+      <c r="J78" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K78" s="31" t="s">
+      <c r="K78" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L78" s="31">
+      <c r="L78" s="30">
         <v>300</v>
       </c>
-      <c r="M78" s="33" t="s">
+      <c r="M78" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N78" s="33" t="s">
+      <c r="N78" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O78" s="31" t="s">
+      <c r="O78" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P78" s="31" t="s">
+      <c r="P78" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q78" s="31" t="s">
+      <c r="Q78" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R78" s="31" t="s">
+      <c r="R78" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S78" s="31" t="s">
+      <c r="S78" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T78" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31" t="s">
+      <c r="T78" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U78" s="30"/>
+      <c r="V78" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W78" s="50" t="s">
+      <c r="W78" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="X78" s="31" t="s">
+      <c r="X78" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y78" s="33" t="s">
+      <c r="Y78" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z78" s="32" t="s">
+      <c r="Z78" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="AA78" s="31" t="s">
+      <c r="AA78" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AB78" s="31">
+      <c r="AB78" s="30">
         <v>94002</v>
       </c>
-      <c r="AC78" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD78" s="31" t="b">
+      <c r="AC78" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD78" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="AE78" s="31" t="s">
+      <c r="AE78" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF78" s="31" t="s">
+      <c r="AF78" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG78" s="31" t="s">
+      <c r="AG78" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH78" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI78" s="31" t="s">
+      <c r="AH78" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI78" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="AJ78" s="31"/>
-      <c r="AK78" s="31"/>
-      <c r="AL78" s="31"/>
-      <c r="AM78" s="31"/>
-      <c r="AN78" s="31"/>
-      <c r="AO78" s="31"/>
-      <c r="AP78" s="31"/>
-      <c r="AQ78" s="31"/>
-      <c r="AR78" s="31"/>
-      <c r="AS78" s="31"/>
-      <c r="AT78" s="31"/>
-      <c r="AU78" s="31"/>
-      <c r="AV78" s="31"/>
-      <c r="AW78" s="31"/>
-      <c r="AX78" s="31"/>
-      <c r="AY78" s="31"/>
-      <c r="AZ78" s="31"/>
-      <c r="BA78" s="31"/>
-      <c r="BB78" s="31"/>
-      <c r="BC78" s="31"/>
-      <c r="BD78" s="31"/>
-      <c r="BE78" s="31"/>
-      <c r="BF78" s="31"/>
-      <c r="BG78" s="31"/>
-      <c r="BH78" s="31"/>
-      <c r="BI78" s="31"/>
-      <c r="BJ78" s="31"/>
-      <c r="BK78" s="33"/>
-      <c r="BL78" s="33"/>
-      <c r="BM78" s="33"/>
-      <c r="BN78" s="33"/>
-      <c r="BO78" s="33"/>
-      <c r="BP78" s="33"/>
-      <c r="BQ78" s="31" t="s">
+      <c r="AJ78" s="30"/>
+      <c r="AK78" s="30"/>
+      <c r="AL78" s="30"/>
+      <c r="AM78" s="30"/>
+      <c r="AN78" s="30"/>
+      <c r="AO78" s="30"/>
+      <c r="AP78" s="30"/>
+      <c r="AQ78" s="30"/>
+      <c r="AR78" s="30"/>
+      <c r="AS78" s="30"/>
+      <c r="AT78" s="30"/>
+      <c r="AU78" s="30"/>
+      <c r="AV78" s="30"/>
+      <c r="AW78" s="30"/>
+      <c r="AX78" s="30"/>
+      <c r="AY78" s="30"/>
+      <c r="AZ78" s="30"/>
+      <c r="BA78" s="30"/>
+      <c r="BB78" s="30"/>
+      <c r="BC78" s="30"/>
+      <c r="BD78" s="30"/>
+      <c r="BE78" s="30"/>
+      <c r="BF78" s="30"/>
+      <c r="BG78" s="30"/>
+      <c r="BH78" s="30"/>
+      <c r="BI78" s="30"/>
+      <c r="BJ78" s="30"/>
+      <c r="BK78" s="32"/>
+      <c r="BL78" s="32"/>
+      <c r="BM78" s="32"/>
+      <c r="BN78" s="32"/>
+      <c r="BO78" s="32"/>
+      <c r="BP78" s="32"/>
+      <c r="BQ78" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR78" s="31">
+      <c r="BR78" s="30">
         <v>1</v>
       </c>
-      <c r="BS78" s="31">
+      <c r="BS78" s="30">
         <v>100</v>
       </c>
-      <c r="BT78" s="31" t="s">
+      <c r="BT78" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU78" s="31" t="s">
+      <c r="BU78" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV78" s="31">
+      <c r="BV78" s="30">
         <v>300</v>
       </c>
-      <c r="BW78" s="31">
+      <c r="BW78" s="30">
         <v>20</v>
       </c>
-      <c r="BX78" s="31">
+      <c r="BX78" s="30">
         <v>20</v>
       </c>
-      <c r="BY78" s="31">
+      <c r="BY78" s="30">
         <v>20</v>
       </c>
-      <c r="BZ78" s="31" t="s">
+      <c r="BZ78" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA78" s="31" t="s">
+      <c r="CA78" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB78" s="31" t="s">
+      <c r="CB78" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="CC78" s="31"/>
-      <c r="CD78" s="31"/>
-      <c r="CE78" s="31"/>
-      <c r="CF78" s="31"/>
-      <c r="CG78" s="31"/>
-      <c r="CH78" s="31"/>
-      <c r="CI78" s="31"/>
-      <c r="CJ78" s="31"/>
-      <c r="CK78" s="31"/>
-      <c r="CL78" s="31"/>
-      <c r="CM78" s="31"/>
-      <c r="CN78" s="31"/>
-      <c r="CO78" s="31"/>
-      <c r="CP78" s="31"/>
-      <c r="CQ78" s="31"/>
-      <c r="CR78" s="31"/>
-      <c r="CS78" s="31"/>
-      <c r="CT78" s="31"/>
-      <c r="CU78" s="31"/>
-      <c r="CV78" s="31"/>
-      <c r="CW78" s="31"/>
-      <c r="CX78" s="31"/>
-      <c r="CY78" s="31"/>
-      <c r="CZ78" s="31"/>
-      <c r="DA78" s="31"/>
-      <c r="DB78" s="35"/>
+      <c r="CC78" s="30"/>
+      <c r="CD78" s="30"/>
+      <c r="CE78" s="30"/>
+      <c r="CF78" s="30"/>
+      <c r="CG78" s="30"/>
+      <c r="CH78" s="30"/>
+      <c r="CI78" s="30"/>
+      <c r="CJ78" s="30"/>
+      <c r="CK78" s="30"/>
+      <c r="CL78" s="30"/>
+      <c r="CM78" s="30"/>
+      <c r="CN78" s="30"/>
+      <c r="CO78" s="30"/>
+      <c r="CP78" s="30"/>
+      <c r="CQ78" s="30"/>
+      <c r="CR78" s="30"/>
+      <c r="CS78" s="30"/>
+      <c r="CT78" s="30"/>
+      <c r="CU78" s="30"/>
+      <c r="CV78" s="30"/>
+      <c r="CW78" s="30"/>
+      <c r="CX78" s="30"/>
+      <c r="CY78" s="30"/>
+      <c r="CZ78" s="30"/>
+      <c r="DA78" s="30"/>
+      <c r="DB78" s="34"/>
     </row>
     <row r="79" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="31" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="E79" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="30">
         <v>323377</v>
       </c>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31" t="s">
+      <c r="G79" s="30"/>
+      <c r="H79" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I79" s="31" t="s">
+      <c r="I79" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K79" s="31" t="s">
+      <c r="K79" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L79" s="31">
+      <c r="L79" s="30">
         <v>250</v>
       </c>
-      <c r="M79" s="33" t="s">
+      <c r="M79" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N79" s="33" t="s">
+      <c r="N79" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O79" s="31" t="s">
+      <c r="O79" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P79" s="31" t="s">
+      <c r="P79" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q79" s="31" t="s">
+      <c r="Q79" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R79" s="31" t="s">
+      <c r="R79" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S79" s="31" t="s">
+      <c r="S79" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T79" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31" t="s">
+      <c r="T79" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U79" s="30"/>
+      <c r="V79" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W79" s="50" t="s">
+      <c r="W79" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="X79" s="31" t="s">
+      <c r="X79" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y79" s="33" t="s">
+      <c r="Y79" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="Z79" s="32" t="s">
+      <c r="Z79" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="AA79" s="31" t="s">
+      <c r="AA79" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="AB79" s="31">
+      <c r="AB79" s="30">
         <v>33306</v>
       </c>
-      <c r="AC79" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD79" s="31" t="b">
+      <c r="AC79" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD79" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="AE79" s="31" t="s">
+      <c r="AE79" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF79" s="31" t="s">
+      <c r="AF79" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG79" s="31" t="s">
+      <c r="AG79" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH79" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI79" s="31"/>
-      <c r="AJ79" s="31"/>
-      <c r="AK79" s="31"/>
-      <c r="AL79" s="31"/>
-      <c r="AM79" s="31"/>
-      <c r="AN79" s="31"/>
-      <c r="AO79" s="31"/>
-      <c r="AP79" s="31"/>
-      <c r="AQ79" s="31"/>
-      <c r="AR79" s="31"/>
-      <c r="AS79" s="31"/>
-      <c r="AT79" s="31"/>
-      <c r="AU79" s="31"/>
-      <c r="AV79" s="31"/>
-      <c r="AW79" s="31"/>
-      <c r="AX79" s="31"/>
-      <c r="AY79" s="31"/>
-      <c r="AZ79" s="31"/>
-      <c r="BA79" s="31"/>
-      <c r="BB79" s="31"/>
-      <c r="BC79" s="31"/>
-      <c r="BD79" s="31"/>
-      <c r="BE79" s="31"/>
-      <c r="BF79" s="31"/>
-      <c r="BG79" s="31"/>
-      <c r="BH79" s="31"/>
-      <c r="BI79" s="31"/>
-      <c r="BJ79" s="31"/>
-      <c r="BK79" s="33"/>
-      <c r="BL79" s="33"/>
-      <c r="BM79" s="33"/>
-      <c r="BN79" s="33"/>
-      <c r="BO79" s="33"/>
-      <c r="BP79" s="33"/>
-      <c r="BQ79" s="31" t="s">
+      <c r="AH79" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI79" s="30"/>
+      <c r="AJ79" s="30"/>
+      <c r="AK79" s="30"/>
+      <c r="AL79" s="30"/>
+      <c r="AM79" s="30"/>
+      <c r="AN79" s="30"/>
+      <c r="AO79" s="30"/>
+      <c r="AP79" s="30"/>
+      <c r="AQ79" s="30"/>
+      <c r="AR79" s="30"/>
+      <c r="AS79" s="30"/>
+      <c r="AT79" s="30"/>
+      <c r="AU79" s="30"/>
+      <c r="AV79" s="30"/>
+      <c r="AW79" s="30"/>
+      <c r="AX79" s="30"/>
+      <c r="AY79" s="30"/>
+      <c r="AZ79" s="30"/>
+      <c r="BA79" s="30"/>
+      <c r="BB79" s="30"/>
+      <c r="BC79" s="30"/>
+      <c r="BD79" s="30"/>
+      <c r="BE79" s="30"/>
+      <c r="BF79" s="30"/>
+      <c r="BG79" s="30"/>
+      <c r="BH79" s="30"/>
+      <c r="BI79" s="30"/>
+      <c r="BJ79" s="30"/>
+      <c r="BK79" s="32"/>
+      <c r="BL79" s="32"/>
+      <c r="BM79" s="32"/>
+      <c r="BN79" s="32"/>
+      <c r="BO79" s="32"/>
+      <c r="BP79" s="32"/>
+      <c r="BQ79" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR79" s="31">
+      <c r="BR79" s="30">
         <v>1</v>
       </c>
-      <c r="BS79" s="31">
+      <c r="BS79" s="30">
         <v>100</v>
       </c>
-      <c r="BT79" s="31" t="s">
+      <c r="BT79" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU79" s="31" t="s">
+      <c r="BU79" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV79" s="31">
+      <c r="BV79" s="30">
         <v>250</v>
       </c>
-      <c r="BW79" s="31">
+      <c r="BW79" s="30">
         <v>20</v>
       </c>
-      <c r="BX79" s="31">
+      <c r="BX79" s="30">
         <v>20</v>
       </c>
-      <c r="BY79" s="31">
+      <c r="BY79" s="30">
         <v>20</v>
       </c>
-      <c r="BZ79" s="31" t="s">
+      <c r="BZ79" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA79" s="31" t="s">
+      <c r="CA79" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB79" s="31" t="s">
+      <c r="CB79" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="CC79" s="31"/>
-      <c r="CD79" s="31"/>
-      <c r="CE79" s="31"/>
-      <c r="CF79" s="31"/>
-      <c r="CG79" s="31"/>
-      <c r="CH79" s="31"/>
-      <c r="CI79" s="31"/>
-      <c r="CJ79" s="31"/>
-      <c r="CK79" s="31"/>
-      <c r="CL79" s="31"/>
-      <c r="CM79" s="31"/>
-      <c r="CN79" s="31"/>
-      <c r="CO79" s="31"/>
-      <c r="CP79" s="31"/>
-      <c r="CQ79" s="31"/>
-      <c r="CR79" s="31"/>
-      <c r="CS79" s="31"/>
-      <c r="CT79" s="31"/>
-      <c r="CU79" s="31"/>
-      <c r="CV79" s="31"/>
-      <c r="CW79" s="31"/>
-      <c r="CX79" s="31"/>
-      <c r="CY79" s="31"/>
-      <c r="CZ79" s="31"/>
-      <c r="DA79" s="31"/>
-      <c r="DB79" s="35"/>
+      <c r="CC79" s="30"/>
+      <c r="CD79" s="30"/>
+      <c r="CE79" s="30"/>
+      <c r="CF79" s="30"/>
+      <c r="CG79" s="30"/>
+      <c r="CH79" s="30"/>
+      <c r="CI79" s="30"/>
+      <c r="CJ79" s="30"/>
+      <c r="CK79" s="30"/>
+      <c r="CL79" s="30"/>
+      <c r="CM79" s="30"/>
+      <c r="CN79" s="30"/>
+      <c r="CO79" s="30"/>
+      <c r="CP79" s="30"/>
+      <c r="CQ79" s="30"/>
+      <c r="CR79" s="30"/>
+      <c r="CS79" s="30"/>
+      <c r="CT79" s="30"/>
+      <c r="CU79" s="30"/>
+      <c r="CV79" s="30"/>
+      <c r="CW79" s="30"/>
+      <c r="CX79" s="30"/>
+      <c r="CY79" s="30"/>
+      <c r="CZ79" s="30"/>
+      <c r="DA79" s="30"/>
+      <c r="DB79" s="34"/>
     </row>
     <row r="80" spans="1:106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="31" t="s">
+      <c r="B80" s="65"/>
+      <c r="C80" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="30">
         <v>323401</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31" t="s">
+      <c r="G80" s="30"/>
+      <c r="H80" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I80" s="31" t="s">
+      <c r="I80" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="J80" s="31" t="s">
+      <c r="J80" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="K80" s="31" t="s">
+      <c r="K80" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L80" s="31">
+      <c r="L80" s="30">
         <v>20</v>
       </c>
-      <c r="M80" s="33" t="s">
+      <c r="M80" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N80" s="33" t="s">
+      <c r="N80" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O80" s="31" t="s">
+      <c r="O80" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P80" s="31" t="s">
+      <c r="P80" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q80" s="31" t="s">
+      <c r="Q80" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R80" s="31" t="s">
+      <c r="R80" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S80" s="31" t="s">
+      <c r="S80" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T80" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U80" s="31" t="b">
+      <c r="T80" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U80" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="V80" s="31" t="s">
+      <c r="V80" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W80" s="50" t="s">
+      <c r="W80" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="X80" s="31" t="s">
+      <c r="X80" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y80" s="33" t="s">
+      <c r="Y80" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="Z80" s="32" t="s">
+      <c r="Z80" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="AA80" s="31" t="s">
+      <c r="AA80" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AB80" s="31">
+      <c r="AB80" s="30">
         <v>94501</v>
       </c>
-      <c r="AC80" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD80" s="31"/>
-      <c r="AE80" s="31" t="s">
+      <c r="AC80" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD80" s="30"/>
+      <c r="AE80" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF80" s="31" t="s">
+      <c r="AF80" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG80" s="31" t="s">
+      <c r="AG80" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH80" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI80" s="31"/>
-      <c r="AJ80" s="31"/>
-      <c r="AK80" s="31"/>
-      <c r="AL80" s="31"/>
-      <c r="AM80" s="31"/>
-      <c r="AN80" s="31"/>
-      <c r="AO80" s="31"/>
-      <c r="AP80" s="31"/>
-      <c r="AQ80" s="31"/>
-      <c r="AR80" s="31"/>
-      <c r="AS80" s="31"/>
-      <c r="AT80" s="31"/>
-      <c r="AU80" s="31"/>
-      <c r="AV80" s="31"/>
-      <c r="AW80" s="31"/>
-      <c r="AX80" s="31"/>
-      <c r="AY80" s="31"/>
-      <c r="AZ80" s="31"/>
-      <c r="BA80" s="31"/>
-      <c r="BB80" s="31"/>
-      <c r="BC80" s="31"/>
-      <c r="BD80" s="31"/>
-      <c r="BE80" s="31"/>
-      <c r="BF80" s="31"/>
-      <c r="BG80" s="31"/>
-      <c r="BH80" s="31"/>
-      <c r="BI80" s="31"/>
-      <c r="BJ80" s="31"/>
-      <c r="BK80" s="33"/>
-      <c r="BL80" s="33"/>
-      <c r="BM80" s="33"/>
-      <c r="BN80" s="33"/>
-      <c r="BO80" s="33"/>
-      <c r="BP80" s="33"/>
-      <c r="BQ80" s="31" t="s">
+      <c r="AH80" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI80" s="30"/>
+      <c r="AJ80" s="30"/>
+      <c r="AK80" s="30"/>
+      <c r="AL80" s="30"/>
+      <c r="AM80" s="30"/>
+      <c r="AN80" s="30"/>
+      <c r="AO80" s="30"/>
+      <c r="AP80" s="30"/>
+      <c r="AQ80" s="30"/>
+      <c r="AR80" s="30"/>
+      <c r="AS80" s="30"/>
+      <c r="AT80" s="30"/>
+      <c r="AU80" s="30"/>
+      <c r="AV80" s="30"/>
+      <c r="AW80" s="30"/>
+      <c r="AX80" s="30"/>
+      <c r="AY80" s="30"/>
+      <c r="AZ80" s="30"/>
+      <c r="BA80" s="30"/>
+      <c r="BB80" s="30"/>
+      <c r="BC80" s="30"/>
+      <c r="BD80" s="30"/>
+      <c r="BE80" s="30"/>
+      <c r="BF80" s="30"/>
+      <c r="BG80" s="30"/>
+      <c r="BH80" s="30"/>
+      <c r="BI80" s="30"/>
+      <c r="BJ80" s="30"/>
+      <c r="BK80" s="32"/>
+      <c r="BL80" s="32"/>
+      <c r="BM80" s="32"/>
+      <c r="BN80" s="32"/>
+      <c r="BO80" s="32"/>
+      <c r="BP80" s="32"/>
+      <c r="BQ80" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR80" s="31">
+      <c r="BR80" s="30">
         <v>1</v>
       </c>
-      <c r="BS80" s="31">
+      <c r="BS80" s="30">
         <v>500</v>
       </c>
-      <c r="BT80" s="31" t="s">
+      <c r="BT80" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU80" s="31" t="s">
+      <c r="BU80" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV80" s="31">
+      <c r="BV80" s="30">
         <v>20</v>
       </c>
-      <c r="BW80" s="31"/>
-      <c r="BX80" s="31"/>
-      <c r="BY80" s="31"/>
-      <c r="BZ80" s="31"/>
-      <c r="CA80" s="31" t="s">
+      <c r="BW80" s="30"/>
+      <c r="BX80" s="30"/>
+      <c r="BY80" s="30"/>
+      <c r="BZ80" s="30"/>
+      <c r="CA80" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB80" s="31" t="s">
+      <c r="CB80" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="CC80" s="31" t="s">
+      <c r="CC80" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="CD80" s="31"/>
-      <c r="CE80" s="31"/>
-      <c r="CF80" s="31"/>
-      <c r="CG80" s="31"/>
-      <c r="CH80" s="31"/>
-      <c r="CI80" s="31"/>
-      <c r="CJ80" s="31"/>
-      <c r="CK80" s="31"/>
-      <c r="CL80" s="31"/>
-      <c r="CM80" s="31"/>
-      <c r="CN80" s="31"/>
-      <c r="CO80" s="31"/>
-      <c r="CP80" s="31"/>
-      <c r="CQ80" s="31"/>
-      <c r="CR80" s="31"/>
-      <c r="CS80" s="31"/>
-      <c r="CT80" s="31"/>
-      <c r="CU80" s="31"/>
-      <c r="CV80" s="31"/>
-      <c r="CW80" s="31"/>
-      <c r="CX80" s="31"/>
-      <c r="CY80" s="31"/>
-      <c r="CZ80" s="31"/>
-      <c r="DA80" s="31"/>
-      <c r="DB80" s="35" t="s">
+      <c r="CD80" s="30"/>
+      <c r="CE80" s="30"/>
+      <c r="CF80" s="30"/>
+      <c r="CG80" s="30"/>
+      <c r="CH80" s="30"/>
+      <c r="CI80" s="30"/>
+      <c r="CJ80" s="30"/>
+      <c r="CK80" s="30"/>
+      <c r="CL80" s="30"/>
+      <c r="CM80" s="30"/>
+      <c r="CN80" s="30"/>
+      <c r="CO80" s="30"/>
+      <c r="CP80" s="30"/>
+      <c r="CQ80" s="30"/>
+      <c r="CR80" s="30"/>
+      <c r="CS80" s="30"/>
+      <c r="CT80" s="30"/>
+      <c r="CU80" s="30"/>
+      <c r="CV80" s="30"/>
+      <c r="CW80" s="30"/>
+      <c r="CX80" s="30"/>
+      <c r="CY80" s="30"/>
+      <c r="CZ80" s="30"/>
+      <c r="DA80" s="30"/>
+      <c r="DB80" s="34" t="s">
         <v>178</v>
       </c>
     </row>
@@ -19871,195 +19900,195 @@
       <c r="A81" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B81" s="62"/>
-      <c r="C81" s="31" t="s">
+      <c r="B81" s="65"/>
+      <c r="C81" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F81" s="31">
+      <c r="F81" s="30">
         <v>323402</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31" t="s">
+      <c r="G81" s="30"/>
+      <c r="H81" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I81" s="31" t="s">
+      <c r="I81" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="J81" s="31" t="s">
+      <c r="J81" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K81" s="31" t="s">
+      <c r="K81" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L81" s="31">
+      <c r="L81" s="30">
         <v>20</v>
       </c>
-      <c r="M81" s="33" t="s">
+      <c r="M81" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N81" s="33" t="s">
+      <c r="N81" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O81" s="31" t="s">
+      <c r="O81" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P81" s="31" t="s">
+      <c r="P81" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q81" s="31" t="s">
+      <c r="Q81" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R81" s="31" t="s">
+      <c r="R81" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S81" s="31" t="s">
+      <c r="S81" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T81" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="U81" s="31"/>
-      <c r="V81" s="31" t="s">
+      <c r="T81" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W81" s="50" t="s">
+      <c r="W81" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="X81" s="31" t="s">
+      <c r="X81" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y81" s="33" t="s">
+      <c r="Y81" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="Z81" s="32" t="s">
+      <c r="Z81" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="AA81" s="31" t="s">
+      <c r="AA81" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AB81" s="31">
+      <c r="AB81" s="30">
         <v>94501</v>
       </c>
-      <c r="AC81" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD81" s="31"/>
-      <c r="AE81" s="31" t="s">
+      <c r="AC81" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD81" s="30"/>
+      <c r="AE81" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AF81" s="31" t="s">
+      <c r="AF81" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AG81" s="31" t="s">
+      <c r="AG81" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AH81" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI81" s="31"/>
-      <c r="AJ81" s="31"/>
-      <c r="AK81" s="31"/>
-      <c r="AL81" s="31"/>
-      <c r="AM81" s="31"/>
-      <c r="AN81" s="31"/>
-      <c r="AO81" s="31"/>
-      <c r="AP81" s="31"/>
-      <c r="AQ81" s="31"/>
-      <c r="AR81" s="31"/>
-      <c r="AS81" s="31"/>
-      <c r="AT81" s="31"/>
-      <c r="AU81" s="31"/>
-      <c r="AV81" s="31"/>
-      <c r="AW81" s="31"/>
-      <c r="AX81" s="31"/>
-      <c r="AY81" s="31"/>
-      <c r="AZ81" s="31"/>
-      <c r="BA81" s="31"/>
-      <c r="BB81" s="31"/>
-      <c r="BC81" s="31"/>
-      <c r="BD81" s="31"/>
-      <c r="BE81" s="31"/>
-      <c r="BF81" s="31"/>
-      <c r="BG81" s="31"/>
-      <c r="BH81" s="31"/>
-      <c r="BI81" s="31"/>
-      <c r="BJ81" s="31"/>
-      <c r="BK81" s="33"/>
-      <c r="BL81" s="33"/>
-      <c r="BM81" s="33"/>
-      <c r="BN81" s="33"/>
-      <c r="BO81" s="33"/>
-      <c r="BP81" s="33"/>
-      <c r="BQ81" s="31" t="s">
+      <c r="AH81" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI81" s="30"/>
+      <c r="AJ81" s="30"/>
+      <c r="AK81" s="30"/>
+      <c r="AL81" s="30"/>
+      <c r="AM81" s="30"/>
+      <c r="AN81" s="30"/>
+      <c r="AO81" s="30"/>
+      <c r="AP81" s="30"/>
+      <c r="AQ81" s="30"/>
+      <c r="AR81" s="30"/>
+      <c r="AS81" s="30"/>
+      <c r="AT81" s="30"/>
+      <c r="AU81" s="30"/>
+      <c r="AV81" s="30"/>
+      <c r="AW81" s="30"/>
+      <c r="AX81" s="30"/>
+      <c r="AY81" s="30"/>
+      <c r="AZ81" s="30"/>
+      <c r="BA81" s="30"/>
+      <c r="BB81" s="30"/>
+      <c r="BC81" s="30"/>
+      <c r="BD81" s="30"/>
+      <c r="BE81" s="30"/>
+      <c r="BF81" s="30"/>
+      <c r="BG81" s="30"/>
+      <c r="BH81" s="30"/>
+      <c r="BI81" s="30"/>
+      <c r="BJ81" s="30"/>
+      <c r="BK81" s="32"/>
+      <c r="BL81" s="32"/>
+      <c r="BM81" s="32"/>
+      <c r="BN81" s="32"/>
+      <c r="BO81" s="32"/>
+      <c r="BP81" s="32"/>
+      <c r="BQ81" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="BR81" s="31">
+      <c r="BR81" s="30">
         <v>1</v>
       </c>
-      <c r="BS81" s="31">
+      <c r="BS81" s="30">
         <v>500</v>
       </c>
-      <c r="BT81" s="31" t="s">
+      <c r="BT81" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="BU81" s="31" t="s">
+      <c r="BU81" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BV81" s="31">
+      <c r="BV81" s="30">
         <v>20</v>
       </c>
-      <c r="BW81" s="31">
+      <c r="BW81" s="30">
         <v>10</v>
       </c>
-      <c r="BX81" s="31">
+      <c r="BX81" s="30">
         <v>5</v>
       </c>
-      <c r="BY81" s="31">
+      <c r="BY81" s="30">
         <v>10</v>
       </c>
-      <c r="BZ81" s="31" t="s">
+      <c r="BZ81" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CA81" s="31" t="s">
+      <c r="CA81" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CB81" s="31" t="s">
+      <c r="CB81" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="CC81" s="31" t="s">
+      <c r="CC81" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="CD81" s="31"/>
-      <c r="CE81" s="31"/>
-      <c r="CF81" s="31"/>
-      <c r="CG81" s="31"/>
-      <c r="CH81" s="31"/>
-      <c r="CI81" s="31"/>
-      <c r="CJ81" s="31"/>
-      <c r="CK81" s="31"/>
-      <c r="CL81" s="31"/>
-      <c r="CM81" s="31"/>
-      <c r="CN81" s="31"/>
-      <c r="CO81" s="31"/>
-      <c r="CP81" s="31"/>
-      <c r="CQ81" s="31"/>
-      <c r="CR81" s="31"/>
-      <c r="CS81" s="31"/>
-      <c r="CT81" s="31"/>
-      <c r="CU81" s="31"/>
-      <c r="CV81" s="31"/>
-      <c r="CW81" s="31"/>
-      <c r="CX81" s="31"/>
-      <c r="CY81" s="31"/>
-      <c r="CZ81" s="31"/>
-      <c r="DA81" s="31"/>
-      <c r="DB81" s="35" t="s">
+      <c r="CD81" s="30"/>
+      <c r="CE81" s="30"/>
+      <c r="CF81" s="30"/>
+      <c r="CG81" s="30"/>
+      <c r="CH81" s="30"/>
+      <c r="CI81" s="30"/>
+      <c r="CJ81" s="30"/>
+      <c r="CK81" s="30"/>
+      <c r="CL81" s="30"/>
+      <c r="CM81" s="30"/>
+      <c r="CN81" s="30"/>
+      <c r="CO81" s="30"/>
+      <c r="CP81" s="30"/>
+      <c r="CQ81" s="30"/>
+      <c r="CR81" s="30"/>
+      <c r="CS81" s="30"/>
+      <c r="CT81" s="30"/>
+      <c r="CU81" s="30"/>
+      <c r="CV81" s="30"/>
+      <c r="CW81" s="30"/>
+      <c r="CX81" s="30"/>
+      <c r="CY81" s="30"/>
+      <c r="CZ81" s="30"/>
+      <c r="DA81" s="30"/>
+      <c r="DB81" s="34" t="s">
         <v>178</v>
       </c>
     </row>
@@ -20067,193 +20096,193 @@
       <c r="A82" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="36" t="s">
+      <c r="B82" s="65"/>
+      <c r="C82" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D82" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="30">
         <v>323390</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31" t="s">
+      <c r="G82" s="30"/>
+      <c r="H82" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I82" s="31" t="s">
+      <c r="I82" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="K82" s="36" t="s">
+      <c r="K82" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="L82" s="31">
+      <c r="L82" s="30">
         <v>15</v>
       </c>
-      <c r="M82" s="38" t="s">
+      <c r="M82" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="N82" s="38" t="s">
+      <c r="N82" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="O82" s="36" t="s">
+      <c r="O82" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="P82" s="36" t="s">
+      <c r="P82" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q82" s="31" t="s">
+      <c r="Q82" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="R82" s="31" t="s">
+      <c r="R82" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="S82" s="31" t="s">
+      <c r="S82" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="T82" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="U82" s="31"/>
-      <c r="V82" s="36" t="s">
+      <c r="T82" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="U82" s="30"/>
+      <c r="V82" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="W82" s="50" t="s">
+      <c r="W82" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="X82" s="31" t="s">
+      <c r="X82" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="Y82" s="33" t="s">
+      <c r="Y82" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="Z82" s="37" t="s">
+      <c r="Z82" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="AA82" s="31" t="s">
+      <c r="AA82" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="AB82" s="31" t="s">
+      <c r="AB82" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="AC82" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD82" s="31" t="s">
+      <c r="AC82" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD82" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="AE82" s="31" t="s">
+      <c r="AE82" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="AF82" s="31">
+      <c r="AF82" s="30">
         <v>150067600</v>
       </c>
-      <c r="AG82" s="36" t="s">
+      <c r="AG82" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="AH82" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI82" s="31" t="s">
+      <c r="AH82" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI82" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="AJ82" s="31"/>
-      <c r="AK82" s="31"/>
-      <c r="AL82" s="31"/>
-      <c r="AM82" s="31"/>
-      <c r="AN82" s="36"/>
-      <c r="AO82" s="36"/>
-      <c r="AP82" s="36"/>
-      <c r="AQ82" s="36"/>
-      <c r="AR82" s="36"/>
-      <c r="AS82" s="36"/>
-      <c r="AT82" s="36"/>
-      <c r="AU82" s="36"/>
-      <c r="AV82" s="36"/>
-      <c r="AW82" s="36"/>
-      <c r="AX82" s="36"/>
-      <c r="AY82" s="36"/>
-      <c r="AZ82" s="36"/>
-      <c r="BA82" s="36"/>
-      <c r="BB82" s="36"/>
-      <c r="BC82" s="36"/>
-      <c r="BD82" s="36"/>
-      <c r="BE82" s="36"/>
-      <c r="BF82" s="36"/>
-      <c r="BG82" s="36"/>
-      <c r="BH82" s="36"/>
-      <c r="BI82" s="36"/>
-      <c r="BJ82" s="36"/>
-      <c r="BK82" s="38"/>
-      <c r="BL82" s="38"/>
-      <c r="BM82" s="38"/>
-      <c r="BN82" s="38"/>
-      <c r="BO82" s="38" t="s">
+      <c r="AJ82" s="30"/>
+      <c r="AK82" s="30"/>
+      <c r="AL82" s="30"/>
+      <c r="AM82" s="30"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="35"/>
+      <c r="AQ82" s="35"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="35"/>
+      <c r="AX82" s="35"/>
+      <c r="AY82" s="35"/>
+      <c r="AZ82" s="35"/>
+      <c r="BA82" s="35"/>
+      <c r="BB82" s="35"/>
+      <c r="BC82" s="35"/>
+      <c r="BD82" s="35"/>
+      <c r="BE82" s="35"/>
+      <c r="BF82" s="35"/>
+      <c r="BG82" s="35"/>
+      <c r="BH82" s="35"/>
+      <c r="BI82" s="35"/>
+      <c r="BJ82" s="35"/>
+      <c r="BK82" s="37"/>
+      <c r="BL82" s="37"/>
+      <c r="BM82" s="37"/>
+      <c r="BN82" s="37"/>
+      <c r="BO82" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="BP82" s="38"/>
-      <c r="BQ82" s="36" t="s">
+      <c r="BP82" s="37"/>
+      <c r="BQ82" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="BR82" s="31">
+      <c r="BR82" s="30">
         <v>1</v>
       </c>
-      <c r="BS82" s="31">
+      <c r="BS82" s="30">
         <v>100</v>
       </c>
-      <c r="BT82" s="36" t="s">
+      <c r="BT82" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BU82" s="36" t="s">
+      <c r="BU82" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="BV82" s="31">
+      <c r="BV82" s="30">
         <v>5</v>
       </c>
-      <c r="BW82" s="31"/>
-      <c r="BX82" s="31"/>
-      <c r="BY82" s="31"/>
-      <c r="BZ82" s="31"/>
-      <c r="CA82" s="36" t="s">
+      <c r="BW82" s="30"/>
+      <c r="BX82" s="30"/>
+      <c r="BY82" s="30"/>
+      <c r="BZ82" s="30"/>
+      <c r="CA82" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="CB82" s="31" t="s">
+      <c r="CB82" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="CC82" s="31" t="s">
+      <c r="CC82" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="CD82" s="31"/>
-      <c r="CE82" s="36"/>
-      <c r="CF82" s="36"/>
-      <c r="CG82" s="36"/>
-      <c r="CH82" s="36"/>
-      <c r="CI82" s="36"/>
-      <c r="CJ82" s="36"/>
-      <c r="CK82" s="36"/>
-      <c r="CL82" s="31"/>
-      <c r="CM82" s="31"/>
-      <c r="CN82" s="36"/>
-      <c r="CO82" s="36"/>
-      <c r="CP82" s="36"/>
-      <c r="CQ82" s="36"/>
-      <c r="CR82" s="36"/>
-      <c r="CS82" s="36"/>
-      <c r="CT82" s="31"/>
-      <c r="CU82" s="36"/>
-      <c r="CV82" s="36"/>
-      <c r="CW82" s="36"/>
-      <c r="CX82" s="36"/>
-      <c r="CY82" s="36"/>
-      <c r="CZ82" s="36"/>
-      <c r="DA82" s="36"/>
-      <c r="DB82" s="35" t="s">
+      <c r="CD82" s="30"/>
+      <c r="CE82" s="35"/>
+      <c r="CF82" s="35"/>
+      <c r="CG82" s="35"/>
+      <c r="CH82" s="35"/>
+      <c r="CI82" s="35"/>
+      <c r="CJ82" s="35"/>
+      <c r="CK82" s="35"/>
+      <c r="CL82" s="30"/>
+      <c r="CM82" s="30"/>
+      <c r="CN82" s="35"/>
+      <c r="CO82" s="35"/>
+      <c r="CP82" s="35"/>
+      <c r="CQ82" s="35"/>
+      <c r="CR82" s="35"/>
+      <c r="CS82" s="35"/>
+      <c r="CT82" s="30"/>
+      <c r="CU82" s="35"/>
+      <c r="CV82" s="35"/>
+      <c r="CW82" s="35"/>
+      <c r="CX82" s="35"/>
+      <c r="CY82" s="35"/>
+      <c r="CZ82" s="35"/>
+      <c r="DA82" s="35"/>
+      <c r="DB82" s="34" t="s">
         <v>360</v>
       </c>
     </row>
@@ -20261,221 +20290,221 @@
       <c r="A83" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="36" t="s">
+      <c r="B83" s="66"/>
+      <c r="C83" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="D83" s="37" t="s">
+      <c r="D83" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="E83" s="38" t="s">
+      <c r="E83" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="46">
         <v>323403</v>
       </c>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47" t="s">
+      <c r="G83" s="46"/>
+      <c r="H83" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="I83" s="47" t="s">
+      <c r="I83" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="J83" s="47" t="s">
+      <c r="J83" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="K83" s="36" t="s">
+      <c r="K83" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="L83" s="47">
+      <c r="L83" s="46">
         <v>13</v>
       </c>
-      <c r="M83" s="38" t="s">
+      <c r="M83" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="N83" s="38" t="s">
+      <c r="N83" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="O83" s="36" t="s">
+      <c r="O83" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="P83" s="36" t="s">
+      <c r="P83" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q83" s="47" t="s">
+      <c r="Q83" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="R83" s="47" t="s">
+      <c r="R83" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="S83" s="47" t="s">
+      <c r="S83" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="T83" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="U83" s="47"/>
-      <c r="V83" s="36" t="s">
+      <c r="T83" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="U83" s="46"/>
+      <c r="V83" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="W83" s="51" t="s">
+      <c r="W83" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="X83" s="47" t="s">
+      <c r="X83" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="Y83" s="54" t="s">
+      <c r="Y83" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="Z83" s="37" t="s">
+      <c r="Z83" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AA83" s="47" t="s">
+      <c r="AA83" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="AB83" s="47" t="s">
+      <c r="AB83" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="AC83" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD83" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE83" s="47" t="s">
+      <c r="AC83" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD83" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE83" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="AF83" s="47" t="s">
+      <c r="AF83" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AG83" s="36" t="s">
+      <c r="AG83" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="AH83" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI83" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ83" s="47"/>
-      <c r="AK83" s="47"/>
-      <c r="AL83" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM83" s="47"/>
-      <c r="AN83" s="36"/>
-      <c r="AO83" s="36"/>
-      <c r="AP83" s="36"/>
-      <c r="AQ83" s="36"/>
-      <c r="AR83" s="36"/>
-      <c r="AS83" s="36"/>
-      <c r="AT83" s="36"/>
-      <c r="AU83" s="36"/>
-      <c r="AV83" s="36"/>
-      <c r="AW83" s="36"/>
-      <c r="AX83" s="36"/>
-      <c r="AY83" s="36"/>
-      <c r="AZ83" s="36"/>
-      <c r="BA83" s="36"/>
-      <c r="BB83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC83" s="36"/>
-      <c r="BD83" s="36"/>
-      <c r="BE83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI83" s="36"/>
-      <c r="BJ83" s="36"/>
-      <c r="BK83" s="38"/>
-      <c r="BL83" s="38"/>
-      <c r="BM83" s="38"/>
-      <c r="BN83" s="38"/>
-      <c r="BO83" s="38"/>
-      <c r="BP83" s="38"/>
-      <c r="BQ83" s="36" t="s">
+      <c r="AH83" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI83" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM83" s="46"/>
+      <c r="AN83" s="35"/>
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="35"/>
+      <c r="AQ83" s="35"/>
+      <c r="AR83" s="35"/>
+      <c r="AS83" s="35"/>
+      <c r="AT83" s="35"/>
+      <c r="AU83" s="35"/>
+      <c r="AV83" s="35"/>
+      <c r="AW83" s="35"/>
+      <c r="AX83" s="35"/>
+      <c r="AY83" s="35"/>
+      <c r="AZ83" s="35"/>
+      <c r="BA83" s="35"/>
+      <c r="BB83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC83" s="35"/>
+      <c r="BD83" s="35"/>
+      <c r="BE83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI83" s="35"/>
+      <c r="BJ83" s="35"/>
+      <c r="BK83" s="37"/>
+      <c r="BL83" s="37"/>
+      <c r="BM83" s="37"/>
+      <c r="BN83" s="37"/>
+      <c r="BO83" s="37"/>
+      <c r="BP83" s="37"/>
+      <c r="BQ83" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="BR83" s="47">
+      <c r="BR83" s="46">
         <v>1</v>
       </c>
-      <c r="BS83" s="47">
+      <c r="BS83" s="46">
         <v>300</v>
       </c>
-      <c r="BT83" s="36" t="s">
+      <c r="BT83" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BU83" s="36" t="s">
+      <c r="BU83" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="BV83" s="47">
+      <c r="BV83" s="46">
         <v>13</v>
       </c>
-      <c r="BW83" s="47">
+      <c r="BW83" s="46">
         <v>20</v>
       </c>
-      <c r="BX83" s="47">
+      <c r="BX83" s="46">
         <v>20</v>
       </c>
-      <c r="BY83" s="47">
+      <c r="BY83" s="46">
         <v>20</v>
       </c>
-      <c r="BZ83" s="47" t="s">
+      <c r="BZ83" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="CA83" s="36" t="s">
+      <c r="CA83" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="CB83" s="47" t="s">
+      <c r="CB83" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="CC83" s="47" t="s">
+      <c r="CC83" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="CD83" s="47" t="s">
+      <c r="CD83" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="CE83" s="36"/>
-      <c r="CF83" s="36" t="s">
+      <c r="CE83" s="35"/>
+      <c r="CF83" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="CG83" s="36" t="s">
+      <c r="CG83" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="CH83" s="36"/>
-      <c r="CI83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="CK83" s="36"/>
-      <c r="CL83" s="47"/>
-      <c r="CM83" s="47"/>
-      <c r="CN83" s="36"/>
-      <c r="CO83" s="36"/>
-      <c r="CP83" s="36"/>
-      <c r="CQ83" s="36"/>
-      <c r="CR83" s="36"/>
-      <c r="CS83" s="36"/>
-      <c r="CT83" s="47"/>
-      <c r="CU83" s="36"/>
-      <c r="CV83" s="36"/>
-      <c r="CW83" s="36"/>
-      <c r="CX83" s="36"/>
-      <c r="CY83" s="36"/>
-      <c r="CZ83" s="36"/>
-      <c r="DA83" s="36"/>
-      <c r="DB83" s="57" t="s">
+      <c r="CH83" s="35"/>
+      <c r="CI83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK83" s="35"/>
+      <c r="CL83" s="46"/>
+      <c r="CM83" s="46"/>
+      <c r="CN83" s="35"/>
+      <c r="CO83" s="35"/>
+      <c r="CP83" s="35"/>
+      <c r="CQ83" s="35"/>
+      <c r="CR83" s="35"/>
+      <c r="CS83" s="35"/>
+      <c r="CT83" s="46"/>
+      <c r="CU83" s="35"/>
+      <c r="CV83" s="35"/>
+      <c r="CW83" s="35"/>
+      <c r="CX83" s="35"/>
+      <c r="CY83" s="35"/>
+      <c r="CZ83" s="35"/>
+      <c r="DA83" s="35"/>
+      <c r="DB83" s="56" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="479">
   <si>
     <t>Anchorage</t>
   </si>
@@ -3356,10 +3356,10 @@
   </sheetPr>
   <dimension ref="A1:AQX86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19:D19"/>
-      <selection pane="bottomLeft" activeCell="BO38" sqref="BO38"/>
+      <selection pane="bottomLeft" activeCell="DC90" sqref="DC90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22806,7 +22806,9 @@
       <c r="AH84" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AI84" s="42"/>
+      <c r="AI84" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="AJ84" s="42"/>
       <c r="AK84" s="42"/>
       <c r="AL84" s="42" t="s">
@@ -24054,7 +24056,9 @@
       <c r="AH85" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AI85" s="42"/>
+      <c r="AI85" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="AJ85" s="42"/>
       <c r="AK85" s="42"/>
       <c r="AL85" s="42" t="s">

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="480">
   <si>
     <t>Anchorage</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>ProcessShipmentRequest.RequestedShipment.RequestedPackageLineItems.SpecialServicesRequested(Repetitions)2</t>
+  </si>
+  <si>
+    <t>ACCESSIBLE</t>
   </si>
 </sst>
 </file>
@@ -3356,10 +3359,10 @@
   </sheetPr>
   <dimension ref="A1:AQX86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19:D19"/>
-      <selection pane="bottomLeft" activeCell="DC90" sqref="DC90"/>
+      <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8673,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="CI23" s="15" t="s">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="CJ23" s="15">
         <v>1</v>
